--- a/Model2/excel/output_elasticity_model.xlsx
+++ b/Model2/excel/output_elasticity_model.xlsx
@@ -478,13 +478,13 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>7548.82972429209</v>
+        <v>7765.36155863619</v>
       </c>
       <c r="E2">
         <v>7015.36155863619</v>
       </c>
       <c r="F2">
-        <v>51.8192477959981</v>
+        <v>49.6748810162551</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -498,13 +498,13 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>6555.66971458947</v>
+        <v>7130.66691644811</v>
       </c>
       <c r="E3">
         <v>6380.66691644811</v>
       </c>
       <c r="F3">
-        <v>52.0910487053515</v>
+        <v>49.68394589463</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>6544.37129594131</v>
+        <v>6697.2355530341</v>
       </c>
       <c r="E4">
         <v>5991.0078681154</v>
@@ -538,13 +538,13 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>6536.43686774073</v>
+        <v>6353.25105648829</v>
       </c>
       <c r="E5">
         <v>5786.43686774073</v>
       </c>
       <c r="F5">
-        <v>50.6735217781839</v>
+        <v>52.8250871974145</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -558,13 +558,13 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>5871.2867432474</v>
+        <v>5584.48948083613</v>
       </c>
       <c r="E6">
         <v>5784.93817909329</v>
       </c>
       <c r="F6">
-        <v>51.6811189765911</v>
+        <v>54.7050483030701</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -578,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>5982.33927832941</v>
+        <v>5584.48948083613</v>
       </c>
       <c r="E7">
         <v>5877.10753091045</v>
       </c>
       <c r="F7">
-        <v>52.0480919988985</v>
+        <v>54.892625426491</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -598,13 +598,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>6129.2039030516</v>
+        <v>6808.5765212775</v>
       </c>
       <c r="E8">
         <v>6306.48182840015</v>
       </c>
       <c r="F8">
-        <v>54.1800980371735</v>
+        <v>54.7333339554783</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -618,13 +618,13 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>7368.43151839549</v>
+        <v>6967.52835167327</v>
       </c>
       <c r="E9">
         <v>7306.10715623829</v>
       </c>
       <c r="F9">
-        <v>55.2460096072535</v>
+        <v>55.6591970201009</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -638,13 +638,13 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>7906.87778808302</v>
+        <v>7717.59085799925</v>
       </c>
       <c r="E10">
         <v>8467.59085799925</v>
       </c>
       <c r="F10">
-        <v>56.4316751794488</v>
+        <v>56.9491600261707</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -658,13 +658,13 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>8474.96991450624</v>
+        <v>7761.80217309854</v>
       </c>
       <c r="E11">
         <v>8511.80217309854</v>
       </c>
       <c r="F11">
-        <v>55.9309678102264</v>
+        <v>60.3613760821501</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -678,13 +678,13 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>8272.58872192478</v>
+        <v>8119.37266876696</v>
       </c>
       <c r="E12">
         <v>8590.4833270888</v>
       </c>
       <c r="F12">
-        <v>56.1413580224884</v>
+        <v>59.3003750872296</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -698,13 +698,13 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>8443.25627338329</v>
+        <v>9071.0651837779</v>
       </c>
       <c r="E13">
         <v>8621.9557886849</v>
       </c>
       <c r="F13">
-        <v>56.1148663001637</v>
+        <v>59.076141433455</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -718,13 +718,13 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>8615.20197292474</v>
+        <v>8537.18845643234</v>
       </c>
       <c r="E14">
         <v>8741.10153615586</v>
       </c>
       <c r="F14">
-        <v>55.8309771240892</v>
+        <v>59.7328761251607</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -738,13 +738,13 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>8491.52089967108</v>
+        <v>7940.14612214313</v>
       </c>
       <c r="E15">
         <v>8690.14612214313</v>
       </c>
       <c r="F15">
-        <v>54.7894815879374</v>
+        <v>59.0387493205692</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -758,13 +758,13 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>9048.23904083927</v>
+        <v>7548.23904083927</v>
       </c>
       <c r="E16">
         <v>8298.23904083927</v>
       </c>
       <c r="F16">
-        <v>53.3912523766811</v>
+        <v>56.6898334061349</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -778,13 +778,13 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>8862.92670492228</v>
+        <v>7971.06238456493</v>
       </c>
       <c r="E17">
         <v>8300.48707381042</v>
       </c>
       <c r="F17">
-        <v>54.1375333140681</v>
+        <v>53.9080108074646</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -798,13 +798,13 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>8441.90823448903</v>
+        <v>8714.58986546332</v>
       </c>
       <c r="E18">
         <v>8342.45035593855</v>
       </c>
       <c r="F18">
-        <v>54.6466933026284</v>
+        <v>53.327814798684</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -818,13 +818,13 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>8351.84400451844</v>
+        <v>8507.52445376325</v>
       </c>
       <c r="E19">
         <v>8268.2652678906</v>
       </c>
       <c r="F19">
-        <v>54.9528002444635</v>
+        <v>53.647706720515</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -838,13 +838,13 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>8427.98101825</v>
+        <v>7709.34807043837</v>
       </c>
       <c r="E20">
         <v>8459.34807043837</v>
       </c>
       <c r="F20">
-        <v>55.1029388221119</v>
+        <v>57.6935058410865</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -858,13 +858,13 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>8411.5428722981</v>
+        <v>7698.85724990633</v>
       </c>
       <c r="E21">
         <v>8448.85724990633</v>
       </c>
       <c r="F21">
-        <v>55.631967332863</v>
+        <v>57.3937669708033</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -878,13 +878,13 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>8378.66658039431</v>
+        <v>8328.0883683991</v>
       </c>
       <c r="E22">
         <v>8713.37579617834</v>
       </c>
       <c r="F22">
-        <v>57.1108563018397</v>
+        <v>60.4217207628917</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -898,13 +898,13 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>8249.37551369742</v>
+        <v>8276.08602212258</v>
       </c>
       <c r="E23">
         <v>8488.57249906332</v>
       </c>
       <c r="F23">
-        <v>57.0176294617766</v>
+        <v>60.730561440678</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -918,13 +918,13 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>8181.40882897154</v>
+        <v>8172.08132956952</v>
       </c>
       <c r="E24">
         <v>7925.06556762833</v>
       </c>
       <c r="F24">
-        <v>55.9799397376201</v>
+        <v>60.1834725208527</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -938,13 +938,13 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>7188.24881926892</v>
+        <v>7964.07194446342</v>
       </c>
       <c r="E25">
         <v>7414.0127388535</v>
       </c>
       <c r="F25">
-        <v>57.0137815903963</v>
+        <v>58.4201733408901</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -958,13 +958,13 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>6925.23848403857</v>
+        <v>7066.97387952095</v>
       </c>
       <c r="E26">
         <v>7118.77107530911</v>
       </c>
       <c r="F26">
-        <v>55.9620257962627</v>
+        <v>58.4382414076551</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -978,13 +978,13 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>6521.02120463937</v>
+        <v>6653.18785180236</v>
       </c>
       <c r="E27">
         <v>6412.88872236793</v>
       </c>
       <c r="F27">
-        <v>54.3151404624418</v>
+        <v>57.4622154413411</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -998,13 +998,13 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>6303.18202346571</v>
+        <v>6687.12943371154</v>
       </c>
       <c r="E28">
         <v>6038.96590483327</v>
       </c>
       <c r="F28">
-        <v>53.8209712483521</v>
+        <v>57.5384900434088</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1018,13 +1018,13 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>5525.27507265447</v>
+        <v>6557.4185088048</v>
       </c>
       <c r="E29">
         <v>5807.4185088048</v>
       </c>
       <c r="F29">
-        <v>55.0371222145103</v>
+        <v>57.2389631570325</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1038,13 +1038,13 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>5761.9934193485</v>
+        <v>5574.38336151357</v>
       </c>
       <c r="E30">
         <v>5742.97489696516</v>
       </c>
       <c r="F30">
-        <v>54.282586991505</v>
+        <v>59.5456854340312</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1058,13 +1058,13 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>6195.05181708679</v>
+        <v>5731.75441836225</v>
       </c>
       <c r="E31">
         <v>5824.65342825028</v>
       </c>
       <c r="F31">
-        <v>53.6003132588026</v>
+        <v>58.9070012620448</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1078,13 +1078,13 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>6584.31728993561</v>
+        <v>6855.65754964406</v>
       </c>
       <c r="E32">
         <v>6105.65754964406</v>
       </c>
       <c r="F32">
-        <v>54.4270077326167</v>
+        <v>56.9557857149856</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1098,13 +1098,13 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>6972.61296149212</v>
+        <v>6978.26331956125</v>
       </c>
       <c r="E33">
         <v>7066.31697264893</v>
       </c>
       <c r="F33">
-        <v>55.4318982451935</v>
+        <v>55.8860279039408</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1124,7 +1124,7 @@
         <v>8382.16560509554</v>
       </c>
       <c r="F34">
-        <v>56.9178559499459</v>
+        <v>57.5160143704254</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1138,13 +1138,13 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <v>8102.80236545449</v>
+        <v>8092.49439415558</v>
       </c>
       <c r="E35">
         <v>8634.69464218809</v>
       </c>
       <c r="F35">
-        <v>57.4706181594985</v>
+        <v>59.9070234283327</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1158,13 +1158,13 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>8734.27782881388</v>
+        <v>8763.41902068308</v>
       </c>
       <c r="E36">
         <v>8743.34956912701</v>
       </c>
       <c r="F36">
-        <v>55.7124049656685</v>
+        <v>58.9065823921965</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1178,13 +1178,13 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>8950.3121694179</v>
+        <v>8886.07485824121</v>
       </c>
       <c r="E37">
         <v>8795.05432746347</v>
       </c>
       <c r="F37">
-        <v>55.448946197036</v>
+        <v>59.0057581437619</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1198,13 +1198,13 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>8971.09006508095</v>
+        <v>8906.94389225384</v>
       </c>
       <c r="E38">
         <v>8972.64893218434</v>
       </c>
       <c r="F38">
-        <v>55.4282808892258</v>
+        <v>58.1845682701803</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1218,13 +1218,13 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>8951.91502367669</v>
+        <v>8887.95112754872</v>
       </c>
       <c r="E39">
         <v>8844.51105282878</v>
       </c>
       <c r="F39">
-        <v>55.007012146121</v>
+        <v>56.3569795620512</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1238,13 +1238,13 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>8872.45410070234</v>
+        <v>8808.85475797266</v>
       </c>
       <c r="E40">
         <v>8780.81678531285</v>
       </c>
       <c r="F40">
-        <v>55.060849494811</v>
+        <v>55.8855503162121</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1258,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>8791.86831308594</v>
+        <v>8728.99807715285</v>
       </c>
       <c r="E41">
         <v>8631.69726489322</v>
       </c>
       <c r="F41">
-        <v>55.1804758181417</v>
+        <v>55.655724118733</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1278,13 +1278,13 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>8685.49120364008</v>
+        <v>8658.14949019327</v>
       </c>
       <c r="E42">
         <v>8669.16448107906</v>
       </c>
       <c r="F42">
-        <v>55.3138003185295</v>
+        <v>55.6503335413736</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1298,13 +1298,13 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>8537.9051018607</v>
+        <v>8479.40950670713</v>
       </c>
       <c r="E43">
         <v>8508.80479580367</v>
       </c>
       <c r="F43">
-        <v>55.3649231176197</v>
+        <v>55.6469352894945</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1318,13 +1318,13 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>8428.37928271466</v>
+        <v>7776.78905957287</v>
       </c>
       <c r="E44">
         <v>8526.78905957287</v>
       </c>
       <c r="F44">
-        <v>56.0979712221123</v>
+        <v>60.0751526669463</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1338,13 +1338,13 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>8412.33940122741</v>
+        <v>8371.34236919197</v>
       </c>
       <c r="E45">
         <v>8597.97677032597</v>
       </c>
       <c r="F45">
-        <v>56.2904438044032</v>
+        <v>57.5914720590055</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1358,13 +1358,13 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <v>8380.25963825293</v>
+        <v>8362.5940237083</v>
       </c>
       <c r="E46">
         <v>8866.24203821656</v>
       </c>
       <c r="F46">
-        <v>57.5032975146675</v>
+        <v>60.943215892054</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1378,13 +1378,13 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <v>8316.10011230397</v>
+        <v>8345.09733274097</v>
       </c>
       <c r="E47">
         <v>8494.56725365305</v>
       </c>
       <c r="F47">
-        <v>56.6059289318973</v>
+        <v>60.4052858243645</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1398,13 +1398,13 @@
         <v>6</v>
       </c>
       <c r="D48">
-        <v>8187.78106040604</v>
+        <v>8310.1039508063</v>
       </c>
       <c r="E48">
         <v>8042.71262645185</v>
       </c>
       <c r="F48">
-        <v>55.9556494048649</v>
+        <v>59.815364809478</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1418,13 +1418,13 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>7931.14295661019</v>
+        <v>8240.11718693698</v>
       </c>
       <c r="E49">
         <v>7581.11652304234</v>
       </c>
       <c r="F49">
-        <v>54.6929975441591</v>
+        <v>57.3031427231302</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1438,13 +1438,13 @@
         <v>6</v>
       </c>
       <c r="D50">
-        <v>6937.98294690757</v>
+        <v>7343.01912199451</v>
       </c>
       <c r="E50">
         <v>7182.46534282503</v>
       </c>
       <c r="F50">
-        <v>54.9007864977498</v>
+        <v>56.0142918235388</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1458,13 +1458,13 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>6561.37254457888</v>
+        <v>7203.04559425586</v>
       </c>
       <c r="E51">
         <v>6540.27725739978</v>
       </c>
       <c r="F51">
-        <v>53.5270448457076</v>
+        <v>55.3568593882927</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1478,13 +1478,13 @@
         <v>6</v>
       </c>
       <c r="D52">
-        <v>6540.60489662172</v>
+        <v>6923.09853877857</v>
       </c>
       <c r="E52">
         <v>6173.09853877857</v>
       </c>
       <c r="F52">
-        <v>52.3043081374891</v>
+        <v>56.577688162061</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1498,13 +1498,13 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <v>6569.52520655524</v>
+        <v>6714.30522048529</v>
       </c>
       <c r="E53">
         <v>6013.4881978269</v>
       </c>
       <c r="F53">
-        <v>51.6189159507962</v>
+        <v>57.2244973683035</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1518,13 +1518,13 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>5795.7525221869</v>
+        <v>5601.55914828732</v>
       </c>
       <c r="E54">
         <v>5971.52491569876</v>
       </c>
       <c r="F54">
-        <v>53.3754539063524</v>
+        <v>60.3496987920586</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1538,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>6616.43634573758</v>
+        <v>6381.28286974632</v>
       </c>
       <c r="E55">
         <v>6066.69164481079</v>
       </c>
       <c r="F55">
-        <v>51.6568538886711</v>
+        <v>58.0646564935016</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1558,13 +1558,13 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>6705.61640027184</v>
+        <v>6842.71585617989</v>
       </c>
       <c r="E56">
         <v>6388.16035968528</v>
       </c>
       <c r="F56">
-        <v>53.9346041055719</v>
+        <v>57.0653958944282</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1578,13 +1578,13 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>6899.54220836763</v>
+        <v>7000.04079632017</v>
       </c>
       <c r="E57">
         <v>7360.0599475459</v>
       </c>
       <c r="F57">
-        <v>55.6968087394224</v>
+        <v>56.1584432676437</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1604,7 +1604,7 @@
         <v>8547.77070063694</v>
       </c>
       <c r="F58">
-        <v>56.8501281234054</v>
+        <v>57.5708731148463</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1618,13 +1618,13 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>8359.93563707655</v>
+        <v>7898.18284001499</v>
       </c>
       <c r="E59">
         <v>8648.18284001499</v>
       </c>
       <c r="F59">
-        <v>56.5355614432627</v>
+        <v>60.7386362477185</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1638,13 +1638,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>8850.31809282361</v>
+        <v>8960.66723292853</v>
       </c>
       <c r="E60">
         <v>8938.92843761709</v>
       </c>
       <c r="F60">
-        <v>55.4928935473729</v>
+        <v>59.1522340514712</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1658,13 +1658,13 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>8541.15250634698</v>
+        <v>9242.58865710509</v>
       </c>
       <c r="E61">
         <v>8651.92956163357</v>
       </c>
       <c r="F61">
-        <v>55.2183022161061</v>
+        <v>59.0637522374271</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1678,13 +1678,13 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>9440.01381423586</v>
+        <v>8426.91710276804</v>
       </c>
       <c r="E62">
         <v>8900.71187710753</v>
       </c>
       <c r="F62">
-        <v>53.9065497441077</v>
+        <v>59.6569708705169</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1698,13 +1698,13 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>9342.71731365401</v>
+        <v>8230.89171974522</v>
       </c>
       <c r="E63">
         <v>8980.89171974522</v>
       </c>
       <c r="F63">
-        <v>54.0758554727028</v>
+        <v>57.5526012265422</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1718,13 +1718,13 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>9210.71400759689</v>
+        <v>9146.75130313155</v>
       </c>
       <c r="E64">
         <v>8996.62795054327</v>
       </c>
       <c r="F64">
-        <v>54.9251400437487</v>
+        <v>54.8496912947142</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1738,13 +1738,13 @@
         <v>6</v>
       </c>
       <c r="D65">
-        <v>9044.92728491033</v>
+        <v>8981.33032550591</v>
       </c>
       <c r="E65">
         <v>8810.79055826152</v>
       </c>
       <c r="F65">
-        <v>55.6730638944044</v>
+        <v>54.0002156586397</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1758,13 +1758,13 @@
         <v>6</v>
       </c>
       <c r="D66">
-        <v>8438.32312491526</v>
+        <v>8774.40853111617</v>
       </c>
       <c r="E66">
         <v>8666.16710378419</v>
       </c>
       <c r="F66">
-        <v>56.1269605418314</v>
+        <v>54.2194707778548</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1778,13 +1778,13 @@
         <v>6</v>
       </c>
       <c r="D67">
-        <v>8373.23723822085</v>
+        <v>8509.86157279887</v>
       </c>
       <c r="E67">
         <v>8534.28250281004</v>
       </c>
       <c r="F67">
-        <v>56.0497497553414</v>
+        <v>54.6651610533581</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1798,13 +1798,13 @@
         <v>6</v>
       </c>
       <c r="D68">
-        <v>8435.2058561729</v>
+        <v>8328.12077596813</v>
       </c>
       <c r="E68">
         <v>8705.88235294118</v>
       </c>
       <c r="F68">
-        <v>57.4687495528085</v>
+        <v>56.9969374454872</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1818,13 +1818,13 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>8425.99254814389</v>
+        <v>8373.36794056701</v>
       </c>
       <c r="E69">
         <v>8899.2131884601</v>
       </c>
       <c r="F69">
-        <v>57.5085151008029</v>
+        <v>57.5832793457169</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1838,13 +1838,13 @@
         <v>6</v>
       </c>
       <c r="D70">
-        <v>8407.56593208589</v>
+        <v>8366.64516645839</v>
       </c>
       <c r="E70">
         <v>9091.7946796553</v>
       </c>
       <c r="F70">
-        <v>58.6793683698697</v>
+        <v>60.8081785572227</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1858,13 +1858,13 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>8370.71269996988</v>
+        <v>8566.74045273653</v>
       </c>
       <c r="E71">
         <v>8670.66316972649</v>
       </c>
       <c r="F71">
-        <v>57.3413697118494</v>
+        <v>59.8332774068222</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1878,13 +1878,13 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <v>8297.00623573787</v>
+        <v>8326.30852180668</v>
       </c>
       <c r="E72">
         <v>8068.19033345822</v>
       </c>
       <c r="F72">
-        <v>56.2906491272934</v>
+        <v>59.2619571918074</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1898,13 +1898,13 @@
         <v>6</v>
       </c>
       <c r="D73">
-        <v>8149.59330727384</v>
+        <v>8272.52632893773</v>
       </c>
       <c r="E73">
         <v>7695.01686024728</v>
       </c>
       <c r="F73">
-        <v>54.4663097230313</v>
+        <v>56.5355032586078</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1918,13 +1918,13 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>7854.76745034578</v>
+        <v>7563.45440779373</v>
       </c>
       <c r="E74">
         <v>7449.98126639191</v>
       </c>
       <c r="F74">
-        <v>53.3150550259734</v>
+        <v>53.0248866546347</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1938,13 +1938,13 @@
         <v>6</v>
       </c>
       <c r="D75">
-        <v>6861.60744064316</v>
+        <v>7267.86387825736</v>
       </c>
       <c r="E75">
         <v>6749.34432371675</v>
       </c>
       <c r="F75">
-        <v>54.1302586153893</v>
+        <v>51.1720128317056</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1958,13 +1958,13 @@
         <v>6</v>
       </c>
       <c r="D76">
-        <v>6599.97823566509</v>
+        <v>7052.73510678157</v>
       </c>
       <c r="E76">
         <v>6302.73510678157</v>
       </c>
       <c r="F76">
-        <v>53.9618149445655</v>
+        <v>51.4043251777158</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1978,13 +1978,13 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <v>6506.26805669274</v>
+        <v>6714.04965690873</v>
       </c>
       <c r="E77">
         <v>6125.1405020607</v>
       </c>
       <c r="F77">
-        <v>53.7371104219623</v>
+        <v>52.6098682571584</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1998,13 +1998,13 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <v>5869.55291623776</v>
+        <v>5601.30358471077</v>
       </c>
       <c r="E78">
         <v>6040.4645934807</v>
       </c>
       <c r="F78">
-        <v>55.2280717475989</v>
+        <v>55.3602351793916</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2018,13 +2018,13 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>6322.18585503184</v>
+        <v>6248.80433748948</v>
       </c>
       <c r="E79">
         <v>6150.61820906707</v>
       </c>
       <c r="F79">
-        <v>54.2492999503436</v>
+        <v>53.835640122196</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2038,13 +2038,13 @@
         <v>6</v>
       </c>
       <c r="D80">
-        <v>6883.73641740196</v>
+        <v>6970.35980114482</v>
       </c>
       <c r="E80">
         <v>6538.77856875234</v>
       </c>
       <c r="F80">
-        <v>54.8553121965089</v>
+        <v>54.5225460541033</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2058,13 +2058,13 @@
         <v>6</v>
       </c>
       <c r="D81">
-        <v>7494.22550075615</v>
+        <v>7127.46515569002</v>
       </c>
       <c r="E81">
         <v>7449.98126639191</v>
       </c>
       <c r="F81">
-        <v>55.3637986553132</v>
+        <v>55.5947602319486</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2078,13 +2078,13 @@
         <v>6</v>
       </c>
       <c r="D82">
-        <v>8657.91175168989</v>
+        <v>8080.95064070626</v>
       </c>
       <c r="E82">
         <v>8709.62907455976</v>
       </c>
       <c r="F82">
-        <v>55.4803585578203</v>
+        <v>56.5938269047969</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2098,13 +2098,13 @@
         <v>6</v>
       </c>
       <c r="D83">
-        <v>8818.62464035356</v>
+        <v>8754.29656508925</v>
       </c>
       <c r="E83">
         <v>8998.12663919071</v>
       </c>
       <c r="F83">
-        <v>56.2678935226168</v>
+        <v>57.8199201772066</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2118,13 +2118,13 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>8885.67409598978</v>
+        <v>8821.34639498743</v>
       </c>
       <c r="E84">
         <v>9066.31697264893</v>
       </c>
       <c r="F84">
-        <v>56.2067771667569</v>
+        <v>58.0094196528913</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2138,13 +2138,13 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <v>8881.00593271185</v>
+        <v>8816.67898023342</v>
       </c>
       <c r="E85">
         <v>9090.29599100787</v>
       </c>
       <c r="F85">
-        <v>56.5958938131143</v>
+        <v>58.8918954194488</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2158,13 +2158,13 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <v>8823.90283941722</v>
+        <v>8759.57738398662</v>
       </c>
       <c r="E86">
         <v>9229.67403521918</v>
       </c>
       <c r="F86">
-        <v>57.0468563305582</v>
+        <v>58.8057814926637</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2178,13 +2178,13 @@
         <v>6</v>
       </c>
       <c r="D87">
-        <v>8752.18664895035</v>
+        <v>8687.86418761541</v>
       </c>
       <c r="E87">
         <v>8971.89958786062</v>
       </c>
       <c r="F87">
-        <v>56.4808793579914</v>
+        <v>56.4644591413916</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2198,13 +2198,13 @@
         <v>6</v>
       </c>
       <c r="D88">
-        <v>8670.87624936401</v>
+        <v>8606.55977622041</v>
       </c>
       <c r="E88">
         <v>8825.02810041214</v>
       </c>
       <c r="F88">
-        <v>55.9924316198816</v>
+        <v>54.9852244941508</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2218,13 +2218,13 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <v>8601.94211395311</v>
+        <v>8537.63761719218</v>
       </c>
       <c r="E89">
         <v>8726.11464968153</v>
       </c>
       <c r="F89">
-        <v>55.5287659129624</v>
+        <v>53.9856621480709</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2238,13 +2238,13 @@
         <v>6</v>
       </c>
       <c r="D90">
-        <v>8534.51873086003</v>
+        <v>8670.69313955542</v>
       </c>
       <c r="E90">
         <v>8463.09479205695</v>
       </c>
       <c r="F90">
-        <v>55.3042560795009</v>
+        <v>53.900780757838</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2258,13 +2258,13 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <v>8474.57812210551</v>
+        <v>8410.34548364064</v>
       </c>
       <c r="E91">
         <v>8337.95428999625</v>
       </c>
       <c r="F91">
-        <v>55.1929133317796</v>
+        <v>54.299206381</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2278,13 +2278,13 @@
         <v>6</v>
       </c>
       <c r="D92">
-        <v>8431.36598312042</v>
+        <v>7765.54889471712</v>
       </c>
       <c r="E92">
         <v>8515.54889471712</v>
       </c>
       <c r="F92">
-        <v>55.9024094166694</v>
+        <v>58.1395245275392</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2298,13 +2298,13 @@
         <v>6</v>
       </c>
       <c r="D93">
-        <v>8418.31280203894</v>
+        <v>7957.38104158861</v>
       </c>
       <c r="E93">
         <v>8707.38104158861</v>
       </c>
       <c r="F93">
-        <v>56.2300652314551</v>
+        <v>57.8105240499716</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2318,13 +2318,13 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <v>8392.20643987599</v>
+        <v>8328.64447884091</v>
       </c>
       <c r="E94">
         <v>8710.37841888348</v>
       </c>
       <c r="F94">
-        <v>56.3355520642112</v>
+        <v>60.6832364612894</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2338,13 +2338,13 @@
         <v>6</v>
       </c>
       <c r="D95">
-        <v>8339.99371555007</v>
+        <v>8277.19824300619</v>
       </c>
       <c r="E95">
         <v>8335.7062570251</v>
       </c>
       <c r="F95">
-        <v>55.1578369631072</v>
+        <v>60.8264832793959</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2358,13 +2358,13 @@
         <v>6</v>
       </c>
       <c r="D96">
-        <v>8235.56826689824</v>
+        <v>8174.30577133674</v>
       </c>
       <c r="E96">
         <v>7917.57212439116</v>
       </c>
       <c r="F96">
-        <v>54.4835835322097</v>
+        <v>60.2562465498154</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2378,13 +2378,13 @@
         <v>6</v>
       </c>
       <c r="D97">
-        <v>8026.71736959458</v>
+        <v>7956.68916928384</v>
       </c>
       <c r="E97">
         <v>7650.05620082428</v>
       </c>
       <c r="F97">
-        <v>53.5404715725818</v>
+        <v>59.9927637474389</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2398,13 +2398,13 @@
         <v>6</v>
       </c>
       <c r="D98">
-        <v>7609.01557498727</v>
+        <v>7071.42276305538</v>
       </c>
       <c r="E98">
         <v>7351.0678156613</v>
       </c>
       <c r="F98">
-        <v>53.7232469518574</v>
+        <v>61.4389589970474</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2418,13 +2418,13 @@
         <v>6</v>
       </c>
       <c r="D99">
-        <v>6615.85556528465</v>
+        <v>6659.85287637759</v>
       </c>
       <c r="E99">
         <v>6771.07530910453</v>
       </c>
       <c r="F99">
-        <v>54.8257972847944</v>
+        <v>60.3968192819681</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2438,13 +2438,13 @@
         <v>6</v>
       </c>
       <c r="D100">
-        <v>6458.93623105414</v>
+        <v>6733.8111679645</v>
       </c>
       <c r="E100">
         <v>6280.25477707006</v>
       </c>
       <c r="F100">
-        <v>54.0253091292596</v>
+        <v>59.6103353931789</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2458,13 +2458,13 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>6387.79815086106</v>
+        <v>6587.38618616254</v>
       </c>
       <c r="E101">
         <v>5994.00524541027</v>
       </c>
       <c r="F101">
-        <v>53.372692092828</v>
+        <v>58.5020963892652</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2478,13 +2478,13 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <v>5899.44758284918</v>
+        <v>5474.6400420131</v>
       </c>
       <c r="E102">
         <v>5837.39228175347</v>
       </c>
       <c r="F102">
-        <v>53.8235124951029</v>
+        <v>61.3714952533565</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2498,13 +2498,13 @@
         <v>6</v>
       </c>
       <c r="D103">
-        <v>5721.33691553524</v>
+        <v>6132.38012421689</v>
       </c>
       <c r="E103">
         <v>5763.20719370551</v>
       </c>
       <c r="F103">
-        <v>54.2371434945902</v>
+        <v>58.7266948164547</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2518,13 +2518,13 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>5626.5495702043</v>
+        <v>6590.36924500329</v>
       </c>
       <c r="E104">
         <v>5879.3555638816</v>
       </c>
       <c r="F104">
-        <v>55.1308686386353</v>
+        <v>57.2008666836605</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2538,13 +2538,13 @@
         <v>6</v>
       </c>
       <c r="D105">
-        <v>6355.90641694101</v>
+        <v>6624.97258199294</v>
       </c>
       <c r="E105">
         <v>6083.92656425628</v>
       </c>
       <c r="F105">
-        <v>55.1390041828171</v>
+        <v>55.2419225476299</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2558,13 +2558,13 @@
         <v>6</v>
       </c>
       <c r="D106">
-        <v>6744.63497474862</v>
+        <v>6874.02867389659</v>
       </c>
       <c r="E106">
         <v>6570.25103034845</v>
       </c>
       <c r="F106">
-        <v>54.9070601013669</v>
+        <v>54.9966335366526</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2578,13 +2578,13 @@
         <v>6</v>
       </c>
       <c r="D107">
-        <v>7109.4564996382</v>
+        <v>7239.32199885447</v>
       </c>
       <c r="E107">
         <v>7019.10828025478</v>
       </c>
       <c r="F107">
-        <v>54.5848913270192</v>
+        <v>53.2513263639105</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2598,13 +2598,13 @@
         <v>6</v>
       </c>
       <c r="D108">
-        <v>7470.22210530462</v>
+        <v>7601.21391970356</v>
       </c>
       <c r="E108">
         <v>7372.79880104908</v>
       </c>
       <c r="F108">
-        <v>54.4939588857872</v>
+        <v>52.8550531848218</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2618,13 +2618,13 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>7800.22413683268</v>
+        <v>7932.99678152867</v>
       </c>
       <c r="E109">
         <v>7567.62832521544</v>
       </c>
       <c r="F109">
-        <v>54.1362786856817</v>
+        <v>51.425627949962</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2638,13 +2638,13 @@
         <v>6</v>
       </c>
       <c r="D110">
-        <v>7946.66170691968</v>
+        <v>8081.0326107696</v>
       </c>
       <c r="E110">
         <v>7802.9224428625</v>
       </c>
       <c r="F110">
-        <v>54.196634067453</v>
+        <v>51.1050632123859</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2658,13 +2658,13 @@
         <v>6</v>
       </c>
       <c r="D111">
-        <v>7942.15245212632</v>
+        <v>8078.59341519848</v>
       </c>
       <c r="E111">
         <v>7886.84900711877</v>
       </c>
       <c r="F111">
-        <v>54.3318963928284</v>
+        <v>52.1906095247929</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2678,13 +2678,13 @@
         <v>6</v>
       </c>
       <c r="D112">
-        <v>7819.36197965526</v>
+        <v>7958.99931713233</v>
       </c>
       <c r="E112">
         <v>7537.65455226677</v>
       </c>
       <c r="F112">
-        <v>54.4466337231383</v>
+        <v>53.9856518626989</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2698,13 +2698,13 @@
         <v>6</v>
       </c>
       <c r="D113">
-        <v>7613.33044348654</v>
+        <v>7757.94498566557</v>
       </c>
       <c r="E113">
         <v>7303.85912326714</v>
       </c>
       <c r="F113">
-        <v>55.0123583712833</v>
+        <v>55.9977575969863</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2718,13 +2718,13 @@
         <v>6</v>
       </c>
       <c r="D114">
-        <v>7312.59982508829</v>
+        <v>7039.25491984215</v>
       </c>
       <c r="E114">
         <v>7305.35781191458</v>
       </c>
       <c r="F114">
-        <v>55.404410466486</v>
+        <v>56.7611791670641</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2738,13 +2738,13 @@
         <v>6</v>
       </c>
       <c r="D115">
-        <v>6839.52136589468</v>
+        <v>6933.80677079587</v>
       </c>
       <c r="E115">
         <v>7161.48370176096</v>
       </c>
       <c r="F115">
-        <v>56.0335820244892</v>
+        <v>56.7689359215196</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2758,13 +2758,13 @@
         <v>6</v>
       </c>
       <c r="D116">
-        <v>6717.01596667832</v>
+        <v>6781.28918399683</v>
       </c>
       <c r="E116">
         <v>7177.96927688273</v>
       </c>
       <c r="F116">
-        <v>58.3830639968248</v>
+        <v>60.1186588777688</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2778,13 +2778,13 @@
         <v>6</v>
       </c>
       <c r="D117">
-        <v>6832.5336424024</v>
+        <v>6855.86723794802</v>
       </c>
       <c r="E117">
         <v>7476.20831772199</v>
       </c>
       <c r="F117">
-        <v>58.2971762423413</v>
+        <v>59.7366418062567</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2798,13 +2798,13 @@
         <v>6</v>
       </c>
       <c r="D118">
-        <v>7035.68752341701</v>
+        <v>7331.68534141202</v>
       </c>
       <c r="E118">
         <v>7785.68752341701</v>
       </c>
       <c r="F118">
-        <v>60.0769632661811</v>
+        <v>61.6986651044064</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2818,13 +2818,13 @@
         <v>6</v>
       </c>
       <c r="D119">
-        <v>7128.31360463185</v>
+        <v>7615.08586058675</v>
       </c>
       <c r="E119">
         <v>7514.42487823155</v>
       </c>
       <c r="F119">
-        <v>58.8334305074083</v>
+        <v>60.4958388425257</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2838,13 +2838,13 @@
         <v>6</v>
       </c>
       <c r="D120">
-        <v>7138.73347939429</v>
+        <v>7615.0806800806</v>
       </c>
       <c r="E120">
         <v>7034.84451105283</v>
       </c>
       <c r="F120">
-        <v>57.6312388999708</v>
+        <v>58.964538386348</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2858,13 +2858,13 @@
         <v>6</v>
       </c>
       <c r="D121">
-        <v>7138.73256816098</v>
+        <v>6830.49116334026</v>
       </c>
       <c r="E121">
         <v>6960.65942300487</v>
       </c>
       <c r="F121">
-        <v>56.3209994965446</v>
+        <v>60.7718984612091</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2878,13 +2878,13 @@
         <v>6</v>
       </c>
       <c r="D122">
-        <v>7133.52115002564</v>
+        <v>6727.56073937924</v>
       </c>
       <c r="E122">
         <v>6930.6856500562</v>
       </c>
       <c r="F122">
-        <v>53.9393318202278</v>
+        <v>60.9051315078698</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2898,13 +2898,13 @@
         <v>6</v>
       </c>
       <c r="D123">
-        <v>6463.30350087387</v>
+        <v>6588.62295703599</v>
       </c>
       <c r="E123">
         <v>6355.18920944174</v>
       </c>
       <c r="F123">
-        <v>53.2399063233283</v>
+        <v>58.9720534789323</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2918,13 +2918,13 @@
         <v>6</v>
       </c>
       <c r="D124">
-        <v>6002.71359750966</v>
+        <v>6588.60410574969</v>
       </c>
       <c r="E124">
         <v>5982.76508055451</v>
       </c>
       <c r="F124">
-        <v>52.927406147609</v>
+        <v>58.9744345698732</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2938,13 +2938,13 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>5384.52564625548</v>
+        <v>6135.74632750853</v>
       </c>
       <c r="E125">
         <v>5683.02735106782</v>
       </c>
       <c r="F125">
-        <v>53.6052260639433</v>
+        <v>59.0145797154132</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2958,13 +2958,13 @@
         <v>6</v>
       </c>
       <c r="D126">
-        <v>5841.48275760515</v>
+        <v>5475.86127136809</v>
       </c>
       <c r="E126">
         <v>5563.88160359685</v>
       </c>
       <c r="F126">
-        <v>51.4721821933687</v>
+        <v>60.4965810246529</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2978,13 +2978,13 @@
         <v>6</v>
       </c>
       <c r="D127">
-        <v>5785.26974436993</v>
+        <v>5478.61446687204</v>
       </c>
       <c r="E127">
         <v>5480.70438366429</v>
       </c>
       <c r="F127">
-        <v>52.129515380194</v>
+        <v>59.685681664228</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2998,13 +2998,13 @@
         <v>6</v>
       </c>
       <c r="D128">
-        <v>5790.47592291375</v>
+        <v>6283.90783064818</v>
       </c>
       <c r="E128">
         <v>5533.90783064818</v>
       </c>
       <c r="F128">
-        <v>53.7933674248399</v>
+        <v>57.3070412999323</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3018,13 +3018,13 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>5813.01619866223</v>
+        <v>6412.79505432746</v>
       </c>
       <c r="E129">
         <v>5662.79505432746</v>
       </c>
       <c r="F129">
-        <v>55.0654014127291</v>
+        <v>54.9657047315151</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3038,13 +3038,13 @@
         <v>6</v>
       </c>
       <c r="D130">
-        <v>6063.98375971236</v>
+        <v>6666.82278006744</v>
       </c>
       <c r="E130">
         <v>5916.82278006744</v>
       </c>
       <c r="F130">
-        <v>54.7093578701983</v>
+        <v>53.5167994638781</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3058,13 +3058,13 @@
         <v>6</v>
       </c>
       <c r="D131">
-        <v>6835.92028701146</v>
+        <v>6878.53950004398</v>
       </c>
       <c r="E131">
         <v>6224.05395279131</v>
       </c>
       <c r="F131">
-        <v>51.5883078964336</v>
+        <v>51.5144806944815</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3078,13 +3078,13 @@
         <v>6</v>
       </c>
       <c r="D132">
-        <v>7008.43045306593</v>
+        <v>7017.70148963673</v>
       </c>
       <c r="E132">
         <v>6763.58186586737</v>
       </c>
       <c r="F132">
-        <v>53.3627777057091</v>
+        <v>54.1254036766948</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3098,13 +3098,13 @@
         <v>6</v>
       </c>
       <c r="D133">
-        <v>7190.64835501311</v>
+        <v>7158.62670047153</v>
       </c>
       <c r="E133">
         <v>7238.66616710378</v>
       </c>
       <c r="F133">
-        <v>54.2708576400275</v>
+        <v>55.2632586866546</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3118,13 +3118,13 @@
         <v>6</v>
       </c>
       <c r="D134">
-        <v>7263.04361116309</v>
+        <v>7171.55136669705</v>
       </c>
       <c r="E134">
         <v>7467.21618583739</v>
       </c>
       <c r="F134">
-        <v>55.4176703801461</v>
+        <v>57.332476028197</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3138,13 +3138,13 @@
         <v>6</v>
       </c>
       <c r="D135">
-        <v>7294.79254956661</v>
+        <v>7118.12407813909</v>
       </c>
       <c r="E135">
         <v>7524.16635443987</v>
       </c>
       <c r="F135">
-        <v>55.5936758876987</v>
+        <v>58.8289487588815</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3158,13 +3158,13 @@
         <v>6</v>
       </c>
       <c r="D136">
-        <v>7370.75417208355</v>
+        <v>7075.56129723283</v>
       </c>
       <c r="E136">
         <v>7290.37092544024</v>
       </c>
       <c r="F136">
-        <v>55.0199507847821</v>
+        <v>58.5065263089639</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3178,13 +3178,13 @@
         <v>6</v>
       </c>
       <c r="D137">
-        <v>7308.45005672376</v>
+        <v>7051.43069289838</v>
       </c>
       <c r="E137">
         <v>7144.24878231547</v>
       </c>
       <c r="F137">
-        <v>54.8519520754268</v>
+        <v>57.3496396355899</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3198,13 +3198,13 @@
         <v>6</v>
       </c>
       <c r="D138">
-        <v>7215.05501474053</v>
+        <v>7184.28519459882</v>
       </c>
       <c r="E138">
         <v>7096.2907455976</v>
       </c>
       <c r="F138">
-        <v>54.8865264583549</v>
+        <v>56.6397288342618</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3218,13 +3218,13 @@
         <v>6</v>
       </c>
       <c r="D139">
-        <v>7073.17362679871</v>
+        <v>6849.1682075314</v>
       </c>
       <c r="E139">
         <v>7039.34057699513</v>
       </c>
       <c r="F139">
-        <v>55.1383620836434</v>
+        <v>56.6246071695597</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3238,13 +3238,13 @@
         <v>6</v>
       </c>
       <c r="D140">
-        <v>7070.86725382659</v>
+        <v>6831.41791898494</v>
       </c>
       <c r="E140">
         <v>7186.96140876733</v>
       </c>
       <c r="F140">
-        <v>56.3670712244252</v>
+        <v>60.6530672534509</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3258,13 +3258,13 @@
         <v>6</v>
       </c>
       <c r="D141">
-        <v>7293.06614966082</v>
+        <v>6967.26379751304</v>
       </c>
       <c r="E141">
         <v>7458.22405395279</v>
       </c>
       <c r="F141">
-        <v>56.5326289584825</v>
+        <v>59.2151780540183</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3278,13 +3278,13 @@
         <v>6</v>
       </c>
       <c r="D142">
-        <v>7724.65342773961</v>
+        <v>7723.72033587994</v>
       </c>
       <c r="E142">
         <v>8000.74934432372</v>
       </c>
       <c r="F142">
-        <v>59.2783695343122</v>
+        <v>61.5320436859401</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3298,7 +3298,7 @@
         <v>6</v>
       </c>
       <c r="D143">
-        <v>6944.26751592357</v>
+        <v>7827.37843175215</v>
       </c>
       <c r="E143">
         <v>7694.26751592357</v>
@@ -3318,7 +3318,7 @@
         <v>6</v>
       </c>
       <c r="D144">
-        <v>6756.19397596639</v>
+        <v>7374.47160744283</v>
       </c>
       <c r="E144">
         <v>7186.96140876733</v>
@@ -3338,13 +3338,13 @@
         <v>6</v>
       </c>
       <c r="D145">
-        <v>6543.38465877849</v>
+        <v>6783.18287815995</v>
       </c>
       <c r="E145">
         <v>7075.30910453353</v>
       </c>
       <c r="F145">
-        <v>61.1643542461531</v>
+        <v>61.7099828315977</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3358,13 +3358,13 @@
         <v>6</v>
       </c>
       <c r="D146">
-        <v>6600.92258447143</v>
+        <v>6575.75055701038</v>
       </c>
       <c r="E146">
         <v>6893.21843387036</v>
       </c>
       <c r="F146">
-        <v>57.126066574034</v>
+        <v>57.0881019919431</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3378,13 +3378,13 @@
         <v>6</v>
       </c>
       <c r="D147">
-        <v>6538.86403033769</v>
+        <v>6601.10709890373</v>
       </c>
       <c r="E147">
         <v>6225.55264143874</v>
       </c>
       <c r="F147">
-        <v>53.1122937520053</v>
+        <v>51.8799645077334</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3398,13 +3398,13 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>6181.76168143234</v>
+        <v>6618.11539902585</v>
       </c>
       <c r="E148">
         <v>5868.11539902585</v>
       </c>
       <c r="F148">
-        <v>52.6722343201026</v>
+        <v>51.1678035408717</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3418,13 +3418,13 @@
         <v>6</v>
       </c>
       <c r="D149">
-        <v>6090.95246442336</v>
+        <v>5539.27710671234</v>
       </c>
       <c r="E149">
         <v>5656.80029973773</v>
       </c>
       <c r="F149">
-        <v>52.3556431010003</v>
+        <v>53.8054590227605</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3438,13 +3438,13 @@
         <v>6</v>
       </c>
       <c r="D150">
-        <v>5629.30708362069</v>
+        <v>5487.76719297465</v>
       </c>
       <c r="E150">
         <v>5538.40389659048</v>
       </c>
       <c r="F150">
-        <v>52.5654655090369</v>
+        <v>53.4925696164508</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3458,13 +3458,13 @@
         <v>6</v>
       </c>
       <c r="D151">
-        <v>5629.30708362069</v>
+        <v>5605.02862426501</v>
       </c>
       <c r="E151">
         <v>5677.7819408018</v>
       </c>
       <c r="F151">
-        <v>53.3400049090064</v>
+        <v>53.8326881316496</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3498,13 +3498,13 @@
         <v>6</v>
       </c>
       <c r="D153">
-        <v>7860.70088760917</v>
+        <v>7056.0624424303</v>
       </c>
       <c r="E153">
         <v>7145.74747096291</v>
       </c>
       <c r="F153">
-        <v>54.5721677688506</v>
+        <v>55.2482525687843</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3518,13 +3518,13 @@
         <v>6</v>
       </c>
       <c r="D154">
-        <v>8517.07070146109</v>
+        <v>7980.58537564932</v>
       </c>
       <c r="E154">
         <v>8397.15249156988</v>
       </c>
       <c r="F154">
-        <v>54.8309000417258</v>
+        <v>55.9638381905117</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3538,13 +3538,13 @@
         <v>6</v>
       </c>
       <c r="D155">
-        <v>8604.56915240911</v>
+        <v>8540.24070288285</v>
       </c>
       <c r="E155">
         <v>8657.92431622331</v>
       </c>
       <c r="F155">
-        <v>55.3880557265028</v>
+        <v>56.5776032013222</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3558,13 +3558,13 @@
         <v>6</v>
       </c>
       <c r="D156">
-        <v>8703.56856476875</v>
+        <v>8639.24011524248</v>
       </c>
       <c r="E156">
         <v>8855.00187336081</v>
       </c>
       <c r="F156">
-        <v>55.5360143737463</v>
+        <v>56.9330484783055</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3578,13 +3578,13 @@
         <v>6</v>
       </c>
       <c r="D157">
-        <v>8770.06786719566</v>
+        <v>8705.7394176694</v>
       </c>
       <c r="E157">
         <v>9006.36942675159</v>
       </c>
       <c r="F157">
-        <v>55.9946496968648</v>
+        <v>57.8505005929098</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3598,13 +3598,13 @@
         <v>6</v>
       </c>
       <c r="D158">
-        <v>8818.25189862785</v>
+        <v>8770.92762896929</v>
       </c>
       <c r="E158">
         <v>9144.99812663919</v>
       </c>
       <c r="F158">
-        <v>56.4531291989259</v>
+        <v>58.3850954682501</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3618,13 +3618,13 @@
         <v>6</v>
       </c>
       <c r="D159">
-        <v>8797.72046386592</v>
+        <v>8928.95137961394</v>
       </c>
       <c r="E159">
         <v>8881.22892469089</v>
       </c>
       <c r="F159">
-        <v>56.1011508840584</v>
+        <v>57.3757080060008</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3638,13 +3638,13 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>8750.3494549234</v>
+        <v>8881.58037067141</v>
       </c>
       <c r="E160">
         <v>8859.49793930311</v>
       </c>
       <c r="F160">
-        <v>56.2153263557455</v>
+        <v>57.3037165928917</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3658,13 +3658,13 @@
         <v>6</v>
       </c>
       <c r="D161">
-        <v>8671.77354338126</v>
+        <v>8803.00445912928</v>
       </c>
       <c r="E161">
         <v>8810.0412139378</v>
       </c>
       <c r="F161">
-        <v>56.2212002828598</v>
+        <v>56.9999119065845</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3678,13 +3678,13 @@
         <v>6</v>
       </c>
       <c r="D162">
-        <v>8565.92632188082</v>
+        <v>8697.15723762884</v>
       </c>
       <c r="E162">
         <v>8708.87973023604</v>
       </c>
       <c r="F162">
-        <v>56.2198693421313</v>
+        <v>56.636918660503</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3698,13 +3698,13 @@
         <v>6</v>
       </c>
       <c r="D163">
-        <v>8524.51566520271</v>
+        <v>8655.74658095072</v>
       </c>
       <c r="E163">
         <v>8798.05170475834</v>
       </c>
       <c r="F163">
-        <v>56.2528487703041</v>
+        <v>56.4827690640182</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3718,13 +3718,13 @@
         <v>6</v>
       </c>
       <c r="D164">
-        <v>8498.4076433121</v>
+        <v>8380.09071467563</v>
       </c>
       <c r="E164">
         <v>8911.95204196328</v>
       </c>
       <c r="F164">
-        <v>58.2896485602633</v>
+        <v>60.4544926303479</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3738,13 +3738,13 @@
         <v>6</v>
       </c>
       <c r="D165">
-        <v>8498.4076433121</v>
+        <v>8629.63855906012</v>
       </c>
       <c r="E165">
         <v>9065.56762832522</v>
       </c>
       <c r="F165">
-        <v>57.7888975001099</v>
+        <v>58.5565230942332</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3758,13 +3758,13 @@
         <v>6</v>
       </c>
       <c r="D166">
-        <v>8498.4076433121</v>
+        <v>8629.63855906012</v>
       </c>
       <c r="E166">
         <v>9248.4076433121</v>
       </c>
       <c r="F166">
-        <v>58.8798028508069</v>
+        <v>60.7182896155228</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3778,13 +3778,13 @@
         <v>6</v>
       </c>
       <c r="D167">
-        <v>8498.4076433121</v>
+        <v>8629.63855906012</v>
       </c>
       <c r="E167">
         <v>8769.5766204571</v>
       </c>
       <c r="F167">
-        <v>57.2524346848513</v>
+        <v>59.1649555372814</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3798,13 +3798,13 @@
         <v>6</v>
       </c>
       <c r="D168">
-        <v>8498.4076433121</v>
+        <v>8629.63855906012</v>
       </c>
       <c r="E168">
         <v>8200.82427875609</v>
       </c>
       <c r="F168">
-        <v>56.0745461976056</v>
+        <v>58.1988765528595</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3818,13 +3818,13 @@
         <v>6</v>
       </c>
       <c r="D169">
-        <v>8444.4191642019</v>
+        <v>8629.63855906012</v>
       </c>
       <c r="E169">
         <v>8041.21393780442</v>
       </c>
       <c r="F169">
-        <v>54.397288980654</v>
+        <v>55.1839362026881</v>
       </c>
     </row>
   </sheetData>
@@ -3871,7 +3871,7 @@
         <v>163431.997002623</v>
       </c>
       <c r="E2">
-        <v>163484.35346359</v>
+        <v>163963.243295829</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3888,7 +3888,7 @@
         <v>163194.454852005</v>
       </c>
       <c r="E3">
-        <v>163194.454852004</v>
+        <v>164099.340436201</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3905,7 +3905,7 @@
         <v>163125.515174223</v>
       </c>
       <c r="E4">
-        <v>163125.515174223</v>
+        <v>163773.820200075</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3922,7 +3922,7 @@
         <v>163106.78156613</v>
       </c>
       <c r="E5">
-        <v>163106.78156613</v>
+        <v>162977.618376459</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3939,7 +3939,7 @@
         <v>162606.968902211</v>
       </c>
       <c r="E6">
-        <v>163611.973708175</v>
+        <v>161912.39317072</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3956,7 +3956,7 @@
         <v>161995.503934058</v>
       </c>
       <c r="E7">
-        <v>163934.390922741</v>
+        <v>161577.717588699</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3973,7 +3973,7 @@
         <v>161272.386661671</v>
       </c>
       <c r="E8">
-        <v>163868.885090921</v>
+        <v>161641.962353932</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3990,7 +3990,7 @@
         <v>160292.24428625</v>
       </c>
       <c r="E9">
-        <v>163729.935153501</v>
+        <v>161440.030610303</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4007,7 +4007,7 @@
         <v>159982.015736231</v>
       </c>
       <c r="E10">
-        <v>163657.864713843</v>
+        <v>160518.691039628</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4024,7 +4024,7 @@
         <v>160230.048707381</v>
       </c>
       <c r="E11">
-        <v>163567.712313639</v>
+        <v>159650.832842323</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4041,7 +4041,7 @@
         <v>160902.210565755</v>
       </c>
       <c r="E12">
-        <v>163489.030623162</v>
+        <v>159344.082417035</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4058,7 +4058,7 @@
         <v>162375.421506182</v>
       </c>
       <c r="E13">
-        <v>164182.779744095</v>
+        <v>159844.406411266</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4075,7 +4075,7 @@
         <v>163919.820157362</v>
       </c>
       <c r="E14">
-        <v>165709.202857506</v>
+        <v>160865.019885877</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4092,7 +4092,7 @@
         <v>165342.8250281</v>
       </c>
       <c r="E15">
-        <v>166326.779347311</v>
+        <v>162042.146470812</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4109,7 +4109,7 @@
         <v>166675.159235669</v>
       </c>
       <c r="E16">
-        <v>166675.159235669</v>
+        <v>162714.490691072</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4126,7 +4126,7 @@
         <v>167303.109778943</v>
       </c>
       <c r="E17">
-        <v>167303.109778943</v>
+        <v>163786.58322023</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4143,7 +4143,7 @@
         <v>167464.968152866</v>
       </c>
       <c r="E18">
-        <v>167546.161828999</v>
+        <v>164876.252080614</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4160,7 +4160,7 @@
         <v>166965.904833271</v>
       </c>
       <c r="E19">
-        <v>166965.904833271</v>
+        <v>164526.790553412</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4177,7 +4177,7 @@
         <v>165402.772573998</v>
       </c>
       <c r="E20">
-        <v>165402.772573998</v>
+        <v>163149.382668938</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4194,7 +4194,7 @@
         <v>162759.835144249</v>
       </c>
       <c r="E21">
-        <v>163729.873150286</v>
+        <v>161275.936542429</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4211,7 +4211,7 @@
         <v>160353.690520794</v>
       </c>
       <c r="E22">
-        <v>161878.050092871</v>
+        <v>160382.052495966</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4228,7 +4228,7 @@
         <v>158829.524166354</v>
       </c>
       <c r="E23">
-        <v>160644.029596799</v>
+        <v>159306.333375314</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4245,7 +4245,7 @@
         <v>158589.733982765</v>
       </c>
       <c r="E24">
-        <v>159880.002604547</v>
+        <v>157913.466675537</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4262,7 +4262,7 @@
         <v>158483.327088797</v>
       </c>
       <c r="E25">
-        <v>159430.750543413</v>
+        <v>157535.865075913</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4279,7 +4279,7 @@
         <v>158536.530535781</v>
       </c>
       <c r="E26">
-        <v>159695.110906616</v>
+        <v>158371.403558209</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4296,7 +4296,7 @@
         <v>159033.345822405</v>
       </c>
       <c r="E27">
-        <v>159599.261824761</v>
+        <v>159711.326279012</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4313,7 +4313,7 @@
         <v>159705.507680779</v>
       </c>
       <c r="E28">
-        <v>159705.507680779</v>
+        <v>160645.308510231</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4330,7 +4330,7 @@
         <v>160207.56837767</v>
       </c>
       <c r="E29">
-        <v>160207.56837767</v>
+        <v>160810.760135359</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4347,7 +4347,7 @@
         <v>160720.119895092</v>
       </c>
       <c r="E30">
-        <v>160720.119895092</v>
+        <v>161104.104771486</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4364,7 +4364,7 @@
         <v>160892.469089547</v>
       </c>
       <c r="E31">
-        <v>161073.369478983</v>
+        <v>162116.669919505</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4381,7 +4381,7 @@
         <v>161112.776320719</v>
       </c>
       <c r="E32">
-        <v>161332.559200147</v>
+        <v>163058.088161443</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4398,7 +4398,7 @@
         <v>160908.205320345</v>
       </c>
       <c r="E33">
-        <v>161480.845139699</v>
+        <v>163139.147255037</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4415,7 +4415,7 @@
         <v>160946.421880854</v>
       </c>
       <c r="E34">
-        <v>161658.244920567</v>
+        <v>162699.30562345</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4432,7 +4432,7 @@
         <v>161619.333083552</v>
       </c>
       <c r="E35">
-        <v>161885.967516526</v>
+        <v>162897.691828524</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4449,7 +4449,7 @@
         <v>163071.562382915</v>
       </c>
       <c r="E36">
-        <v>163071.562382915</v>
+        <v>163294.464238672</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4466,7 +4466,7 @@
         <v>164447.358561259</v>
       </c>
       <c r="E37">
-        <v>164449.592105991</v>
+        <v>164569.088353698</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4483,7 +4483,7 @@
         <v>166077.182465343</v>
       </c>
       <c r="E38">
-        <v>166090.688151378</v>
+        <v>166219.005776315</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4500,7 +4500,7 @@
         <v>167619.333083552</v>
       </c>
       <c r="E39">
-        <v>167619.333083552</v>
+        <v>167682.283723047</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4517,7 +4517,7 @@
         <v>168994.379917572</v>
       </c>
       <c r="E40">
-        <v>168994.379917572</v>
+        <v>168453.886983462</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4534,7 +4534,7 @@
         <v>169791.682278007</v>
       </c>
       <c r="E41">
-        <v>169791.682278007</v>
+        <v>170054.554510657</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4551,7 +4551,7 @@
         <v>170140.127388535</v>
       </c>
       <c r="E42">
-        <v>170140.127388535</v>
+        <v>171225.019299244</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4568,7 +4568,7 @@
         <v>170047.958036718</v>
       </c>
       <c r="E43">
-        <v>170047.958036718</v>
+        <v>170972.392362865</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4585,7 +4585,7 @@
         <v>168953.165979768</v>
       </c>
       <c r="E44">
-        <v>168953.165979768</v>
+        <v>169673.660563737</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4602,7 +4602,7 @@
         <v>166637.692019483</v>
       </c>
       <c r="E45">
-        <v>167946.354725863</v>
+        <v>168468.921127032</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4619,7 +4619,7 @@
         <v>164391.15773698</v>
       </c>
       <c r="E46">
-        <v>166568.56134149</v>
+        <v>167234.87508307</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4636,7 +4636,7 @@
         <v>163007.868115399</v>
       </c>
       <c r="E47">
-        <v>164823.648570271</v>
+        <v>165551.269849139</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4653,7 +4653,7 @@
         <v>162760.584488572</v>
       </c>
       <c r="E48">
-        <v>163727.323595134</v>
+        <v>164473.006905472</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4670,7 +4670,7 @@
         <v>162436.118396403</v>
       </c>
       <c r="E49">
-        <v>163165.207412704</v>
+        <v>163570.494292525</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4687,7 +4687,7 @@
         <v>162530.535781191</v>
       </c>
       <c r="E50">
-        <v>163032.693923203</v>
+        <v>163671.402540322</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4704,7 +4704,7 @@
         <v>162401.648557512</v>
       </c>
       <c r="E51">
-        <v>162791.278459637</v>
+        <v>164023.569284021</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4721,7 +4721,7 @@
         <v>162670.663169727</v>
       </c>
       <c r="E52">
-        <v>163429.694310729</v>
+        <v>163701.885771334</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4738,7 +4738,7 @@
         <v>162982.390408393</v>
       </c>
       <c r="E53">
-        <v>164073.720090137</v>
+        <v>163366.213959224</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4755,7 +4755,7 @@
         <v>163470.213563132</v>
       </c>
       <c r="E54">
-        <v>164729.950323604</v>
+        <v>164017.013657886</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4772,7 +4772,7 @@
         <v>163754.215061821</v>
       </c>
       <c r="E55">
-        <v>165285.837909801</v>
+        <v>165200.86274438</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4789,7 +4789,7 @@
         <v>163822.405395279</v>
       </c>
       <c r="E56">
-        <v>165305.313044819</v>
+        <v>165577.474210473</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4806,7 +4806,7 @@
         <v>163490.445859873</v>
       </c>
       <c r="E57">
-        <v>165304.487506582</v>
+        <v>165706.56767988</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4823,7 +4823,7 @@
         <v>163701.760959161</v>
       </c>
       <c r="E58">
-        <v>165422.671919648</v>
+        <v>165694.115839567</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4840,7 +4840,7 @@
         <v>164558.261521169</v>
       </c>
       <c r="E59">
-        <v>165659.04074578</v>
+        <v>165756.707551917</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4857,7 +4857,7 @@
         <v>166068.939677782</v>
       </c>
       <c r="E60">
-        <v>166131.778398044</v>
+        <v>165903.245060066</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4874,7 +4874,7 @@
         <v>167557.137504683</v>
       </c>
       <c r="E61">
-        <v>167557.137504683</v>
+        <v>167102.923197715</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4891,7 +4891,7 @@
         <v>169085.050580742</v>
       </c>
       <c r="E62">
-        <v>169278.029902996</v>
+        <v>168220.807905979</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4908,7 +4908,7 @@
         <v>170606.968902211</v>
       </c>
       <c r="E63">
-        <v>170857.535727955</v>
+        <v>169499.328504024</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4925,7 +4925,7 @@
         <v>172043.461970776</v>
       </c>
       <c r="E64">
-        <v>172043.461970776</v>
+        <v>170318.918638379</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4942,7 +4942,7 @@
         <v>172821.281378794</v>
       </c>
       <c r="E65">
-        <v>173083.153968734</v>
+        <v>171963.710491201</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4959,7 +4959,7 @@
         <v>173057.324840764</v>
       </c>
       <c r="E66">
-        <v>173057.324840764</v>
+        <v>172601.294183249</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4976,7 +4976,7 @@
         <v>172794.30498314</v>
       </c>
       <c r="E67">
-        <v>172794.30498314</v>
+        <v>172361.353376758</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4993,7 +4993,7 @@
         <v>171474.709629075</v>
       </c>
       <c r="E68">
-        <v>171809.578984889</v>
+        <v>171027.366240427</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5010,7 +5010,7 @@
         <v>169077.557137505</v>
       </c>
       <c r="E69">
-        <v>170390.149195521</v>
+        <v>169550.555423645</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5027,7 +5027,7 @@
         <v>166968.152866242</v>
       </c>
       <c r="E70">
-        <v>168974.998884182</v>
+        <v>168638.442920229</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5044,7 +5044,7 @@
         <v>165479.205695017</v>
       </c>
       <c r="E71">
-        <v>167735.274917208</v>
+        <v>166900.589391492</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5061,7 +5061,7 @@
         <v>165536.905207943</v>
       </c>
       <c r="E72">
-        <v>167868.105451417</v>
+        <v>165806.285967532</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5078,7 +5078,7 @@
         <v>165634.319970026</v>
       </c>
       <c r="E73">
-        <v>167253.421223099</v>
+        <v>166140.370412843</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5095,7 +5095,7 @@
         <v>165719.74522293</v>
       </c>
       <c r="E74">
-        <v>166795.911189106</v>
+        <v>166730.35834661</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5112,7 +5112,7 @@
         <v>165813.413263395</v>
       </c>
       <c r="E75">
-        <v>166460.492804892</v>
+        <v>166394.575864087</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5129,7 +5129,7 @@
         <v>166232.296740352</v>
       </c>
       <c r="E76">
-        <v>166232.296740352</v>
+        <v>166165.65160293</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5146,7 +5146,7 @@
         <v>166538.029224429</v>
       </c>
       <c r="E77">
-        <v>166538.029224429</v>
+        <v>166070.97681829</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5163,7 +5163,7 @@
         <v>166828.774822031</v>
       </c>
       <c r="E78">
-        <v>166828.774822031</v>
+        <v>166160.782805809</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5180,7 +5180,7 @@
         <v>166849.007118771</v>
       </c>
       <c r="E79">
-        <v>166988.768741502</v>
+        <v>166383.605199269</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5197,7 +5197,7 @@
         <v>166412.888722368</v>
       </c>
       <c r="E80">
-        <v>167091.300863342</v>
+        <v>166654.895632666</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5214,7 +5214,7 @@
         <v>165659.048332709</v>
       </c>
       <c r="E81">
-        <v>167153.991839463</v>
+        <v>166634.116290956</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5231,7 +5231,7 @@
         <v>165503.934057699</v>
       </c>
       <c r="E82">
-        <v>167213.339804506</v>
+        <v>165852.107947624</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5248,7 +5248,7 @@
         <v>166143.12476583</v>
       </c>
       <c r="E83">
-        <v>167332.035734591</v>
+        <v>165520.306811131</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5265,7 +5265,7 @@
         <v>167158.486324466</v>
       </c>
       <c r="E84">
-        <v>167569.42759476</v>
+        <v>165571.280337451</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5282,7 +5282,7 @@
         <v>168044.211315099</v>
       </c>
       <c r="E85">
-        <v>168044.211315099</v>
+        <v>166274.734925496</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5299,7 +5299,7 @@
         <v>169212.439115774</v>
       </c>
       <c r="E86">
-        <v>169397.287051624</v>
+        <v>167159.41515837</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5316,7 +5316,7 @@
         <v>170559.760209816</v>
       </c>
       <c r="E87">
-        <v>170782.256006093</v>
+        <v>167974.84258025</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5333,7 +5333,7 @@
         <v>171785.687523417</v>
       </c>
       <c r="E88">
-        <v>171785.687523417</v>
+        <v>168291.058697729</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5350,7 +5350,7 @@
         <v>172516.298239041</v>
       </c>
       <c r="E89">
-        <v>172516.298239041</v>
+        <v>169357.003818554</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5367,7 +5367,7 @@
         <v>172645.934807044</v>
       </c>
       <c r="E90">
-        <v>172645.934807044</v>
+        <v>169827.368150849</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5384,7 +5384,7 @@
         <v>172101.161483702</v>
       </c>
       <c r="E91">
-        <v>172101.161483702</v>
+        <v>169333.119921452</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5401,7 +5401,7 @@
         <v>170488.572499063</v>
       </c>
       <c r="E92">
-        <v>170488.572499063</v>
+        <v>167746.068815995</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5418,7 +5418,7 @@
         <v>167542.150618209</v>
       </c>
       <c r="E93">
-        <v>167542.518928376</v>
+        <v>165843.297211585</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5435,7 +5435,7 @@
         <v>164423.3795429</v>
       </c>
       <c r="E94">
-        <v>164423.3795429</v>
+        <v>163682.830225198</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5452,7 +5452,7 @@
         <v>161440.989134507</v>
       </c>
       <c r="E95">
-        <v>161932.484719632</v>
+        <v>161511.362021393</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5469,7 +5469,7 @@
         <v>158920.944173848</v>
       </c>
       <c r="E96">
-        <v>159832.595914158</v>
+        <v>159605.241047552</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5486,7 +5486,7 @@
         <v>156710.378418884</v>
       </c>
       <c r="E97">
-        <v>158154.226134945</v>
+        <v>158121.174854505</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5503,7 +5503,7 @@
         <v>155111.277632072</v>
       </c>
       <c r="E98">
-        <v>156905.261794452</v>
+        <v>157067.702872776</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5520,7 +5520,7 @@
         <v>153853.877856875</v>
       </c>
       <c r="E99">
-        <v>156049.25343893</v>
+        <v>156408.943461008</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5537,7 +5537,7 @@
         <v>152930.685650056</v>
       </c>
       <c r="E100">
-        <v>155393.522106417</v>
+        <v>155952.094535028</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5554,7 +5554,7 @@
         <v>152354.439865118</v>
       </c>
       <c r="E101">
-        <v>154788.876780436</v>
+        <v>155348.035400865</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5571,7 +5571,7 @@
         <v>151554.140127389</v>
       </c>
       <c r="E102">
-        <v>154113.057484369</v>
+        <v>154876.58380121</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5588,7 +5588,7 @@
         <v>150342.450355939</v>
       </c>
       <c r="E103">
-        <v>153264.948882895</v>
+        <v>154797.110885576</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5605,7 +5605,7 @@
         <v>148940.427126265</v>
       </c>
       <c r="E104">
-        <v>152111.928060025</v>
+        <v>153868.439948925</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5622,7 +5622,7 @@
         <v>147391.532409142</v>
       </c>
       <c r="E105">
-        <v>150546.992446122</v>
+        <v>152458.3504822</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5639,7 +5639,7 @@
         <v>146233.795429</v>
       </c>
       <c r="E106">
-        <v>148935.566464823</v>
+        <v>150969.899228586</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5656,7 +5656,7 @@
         <v>145792.43162233</v>
       </c>
       <c r="E107">
-        <v>147552.847228429</v>
+        <v>149699.042505543</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5673,7 +5673,7 @@
         <v>145928.062944923</v>
       </c>
       <c r="E108">
-        <v>146571.079990373</v>
+        <v>149102.378729589</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5690,7 +5690,7 @@
         <v>146091.420007493</v>
       </c>
       <c r="E109">
-        <v>146091.420007493</v>
+        <v>149646.04130907</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5707,7 +5707,7 @@
         <v>146355.189209442</v>
       </c>
       <c r="E110">
-        <v>146614.29783048</v>
+        <v>150522.810161099</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5724,7 +5724,7 @@
         <v>147035.593855377</v>
       </c>
       <c r="E111">
-        <v>147293.573025773</v>
+        <v>150609.197114078</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5741,7 +5741,7 @@
         <v>147972.274260022</v>
       </c>
       <c r="E112">
-        <v>147972.274260023</v>
+        <v>150735.477889061</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5758,7 +5758,7 @@
         <v>148490.071187711</v>
       </c>
       <c r="E113">
-        <v>148490.071187711</v>
+        <v>151849.458918955</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5775,7 +5775,7 @@
         <v>148709.62907456</v>
       </c>
       <c r="E114">
-        <v>148709.62907456</v>
+        <v>152260.397122664</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5792,7 +5792,7 @@
         <v>148513.300861746</v>
       </c>
       <c r="E115">
-        <v>148513.300861746</v>
+        <v>151739.785699555</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5809,7 +5809,7 @@
         <v>147993.255901087</v>
       </c>
       <c r="E116">
-        <v>147993.255901087</v>
+        <v>150590.949708481</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5826,7 +5826,7 @@
         <v>146903.709254402</v>
       </c>
       <c r="E117">
-        <v>147034.411288562</v>
+        <v>149276.064837834</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5843,7 +5843,7 @@
         <v>145418.508804796</v>
       </c>
       <c r="E118">
-        <v>145717.684739413</v>
+        <v>148333.539391995</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5860,7 +5860,7 @@
         <v>143708.505058074</v>
       </c>
       <c r="E119">
-        <v>144085.575588875</v>
+        <v>147170.523299193</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5877,7 +5877,7 @@
         <v>142057.699512926</v>
       </c>
       <c r="E120">
-        <v>142426.528864485</v>
+        <v>145925.52096973</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5894,7 +5894,7 @@
         <v>140478.831022855</v>
       </c>
       <c r="E121">
-        <v>141333.038461182</v>
+        <v>144736.944057963</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5911,7 +5911,7 @@
         <v>139355.563881604</v>
       </c>
       <c r="E122">
-        <v>140417.538252316</v>
+        <v>143690.144653485</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5928,7 +5928,7 @@
         <v>139056.575496441</v>
       </c>
       <c r="E123">
-        <v>139796.064153289</v>
+        <v>142891.064503447</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5945,7 +5945,7 @@
         <v>139219.932559011</v>
       </c>
       <c r="E124">
-        <v>139448.952214806</v>
+        <v>142299.328155622</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5962,7 +5962,7 @@
         <v>139438.741101536</v>
       </c>
       <c r="E125">
-        <v>139438.741101536</v>
+        <v>142373.941035829</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5979,7 +5979,7 @@
         <v>139567.628325215</v>
       </c>
       <c r="E126">
-        <v>139963.743496189</v>
+        <v>142513.282501832</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5996,7 +5996,7 @@
         <v>139533.907830648</v>
       </c>
       <c r="E127">
-        <v>140545.838082036</v>
+        <v>142796.709460904</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -6013,7 +6013,7 @@
         <v>139153.990258524</v>
       </c>
       <c r="E128">
-        <v>140914.17131558</v>
+        <v>143091.615718848</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -6030,7 +6030,7 @@
         <v>138407.643312102</v>
       </c>
       <c r="E129">
-        <v>140951.426781665</v>
+        <v>142607.323556113</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -6047,7 +6047,7 @@
         <v>138080.179842638</v>
       </c>
       <c r="E130">
-        <v>140916.200320443</v>
+        <v>141837.240202364</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -6064,7 +6064,7 @@
         <v>138503.559385538</v>
       </c>
       <c r="E131">
-        <v>141113.691718517</v>
+        <v>141265.068973633</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -6081,7 +6081,7 @@
         <v>139543.649306856</v>
       </c>
       <c r="E132">
-        <v>141621.573986914</v>
+        <v>142168.66395576</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -6098,7 +6098,7 @@
         <v>140307.231172724</v>
       </c>
       <c r="E133">
-        <v>141413.512998816</v>
+        <v>143223.190965702</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -6115,7 +6115,7 @@
         <v>141139.003372049</v>
       </c>
       <c r="E134">
-        <v>141685.12254219</v>
+        <v>143949.91074318</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6132,7 +6132,7 @@
         <v>142231.547396029</v>
       </c>
       <c r="E135">
-        <v>142231.547396028</v>
+        <v>144123.746283475</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -6149,7 +6149,7 @@
         <v>143441.738478831</v>
       </c>
       <c r="E136">
-        <v>143441.738478831</v>
+        <v>144566.286167167</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -6166,7 +6166,7 @@
         <v>144103.409516673</v>
       </c>
       <c r="E137">
-        <v>144103.409516673</v>
+        <v>145693.232824714</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -6183,7 +6183,7 @@
         <v>144490.820532034</v>
       </c>
       <c r="E138">
-        <v>144490.820532034</v>
+        <v>146724.849927637</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6200,7 +6200,7 @@
         <v>144613.713001124</v>
       </c>
       <c r="E139">
-        <v>144745.132535464</v>
+        <v>145975.068212327</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -6217,7 +6217,7 @@
         <v>144489.321843387</v>
       </c>
       <c r="E140">
-        <v>144561.423420422</v>
+        <v>145061.766494104</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6234,7 +6234,7 @@
         <v>144250.281004121</v>
       </c>
       <c r="E141">
-        <v>144250.281004121</v>
+        <v>144125.934444027</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6251,7 +6251,7 @@
         <v>144140.876732859</v>
       </c>
       <c r="E142">
-        <v>144378.615519247</v>
+        <v>144131.185901602</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -6268,7 +6268,7 @@
         <v>144523.042337954</v>
       </c>
       <c r="E143">
-        <v>145296.522935175</v>
+        <v>144261.999147718</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -6285,7 +6285,7 @@
         <v>145681.52866242</v>
       </c>
       <c r="E144">
-        <v>146631.695126718</v>
+        <v>145139.923355619</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -6302,7 +6302,7 @@
         <v>146872.236792806</v>
       </c>
       <c r="E145">
-        <v>147983.1206092</v>
+        <v>146518.512633041</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -6319,7 +6319,7 @@
         <v>148203.072311727</v>
       </c>
       <c r="E146">
-        <v>149398.546554645</v>
+        <v>148046.278600387</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -6336,7 +6336,7 @@
         <v>149919.070813039</v>
       </c>
       <c r="E147">
-        <v>150802.6786529</v>
+        <v>149682.975541953</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -6353,7 +6353,7 @@
         <v>151919.820157362</v>
       </c>
       <c r="E148">
-        <v>152310.427351328</v>
+        <v>151418.274853089</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6370,7 +6370,7 @@
         <v>153704.758336456</v>
       </c>
       <c r="E149">
-        <v>153888.355699559</v>
+        <v>153158.20393721</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6387,7 +6387,7 @@
         <v>155524.915698764</v>
       </c>
       <c r="E150">
-        <v>155557.673936529</v>
+        <v>155182.758509195</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6404,7 +6404,7 @@
         <v>157147.995503934</v>
       </c>
       <c r="E151">
-        <v>157147.995503934</v>
+        <v>157143.76032719</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6421,7 +6421,7 @@
         <v>158398.651180217</v>
       </c>
       <c r="E152">
-        <v>158416.714610486</v>
+        <v>158869.512701638</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6438,7 +6438,7 @@
         <v>159195.953540652</v>
       </c>
       <c r="E153">
-        <v>159213.96604576</v>
+        <v>159773.973360081</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6455,7 +6455,7 @@
         <v>160413.638066692</v>
       </c>
       <c r="E154">
-        <v>160768.106173149</v>
+        <v>160351.640427443</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6472,7 +6472,7 @@
         <v>162292.24428625</v>
       </c>
       <c r="E155">
-        <v>162510.319840495</v>
+        <v>161606.80737906</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6489,7 +6489,7 @@
         <v>164465.342825028</v>
       </c>
       <c r="E156">
-        <v>164465.342825028</v>
+        <v>163453.26305996</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6506,7 +6506,7 @@
         <v>166341.701011615</v>
       </c>
       <c r="E157">
-        <v>166362.827883869</v>
+        <v>165507.15106201</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6523,7 +6523,7 @@
         <v>168316.972648932</v>
       </c>
       <c r="E158">
-        <v>168316.972648932</v>
+        <v>167535.682522166</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6540,7 +6540,7 @@
         <v>170490.071187711</v>
       </c>
       <c r="E159">
-        <v>170490.071187711</v>
+        <v>169460.777982158</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6557,7 +6557,7 @@
         <v>171848.632446609</v>
       </c>
       <c r="E160">
-        <v>171848.632446609</v>
+        <v>171623.392969863</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6574,7 +6574,7 @@
         <v>172690.895466467</v>
       </c>
       <c r="E161">
-        <v>172773.865235713</v>
+        <v>173222.949556995</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6591,7 +6591,7 @@
         <v>173004.12139378</v>
       </c>
       <c r="E162">
-        <v>173688.136005214</v>
+        <v>174280.75803611</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6608,7 +6608,7 @@
         <v>172675.908579993</v>
       </c>
       <c r="E163">
-        <v>173293.408178976</v>
+        <v>173692.483253504</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6625,7 +6625,7 @@
         <v>171315.099288123</v>
       </c>
       <c r="E164">
-        <v>171315.099288123</v>
+        <v>172220.91029191</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6642,7 +6642,7 @@
         <v>168795.054327463</v>
       </c>
       <c r="E165">
-        <v>168795.054327463</v>
+        <v>169947.223101141</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6659,7 +6659,7 @@
         <v>166443.61183964</v>
       </c>
       <c r="E166">
-        <v>166443.61183964</v>
+        <v>168231.454102575</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6676,7 +6676,7 @@
         <v>164894.717122518</v>
       </c>
       <c r="E167">
-        <v>165162.319420236</v>
+        <v>166634.748589639</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6693,7 +6693,7 @@
         <v>164355.938553766</v>
       </c>
       <c r="E168">
-        <v>164355.938553766</v>
+        <v>165651.021161478</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6710,7 +6710,7 @@
         <v>163722.742600225</v>
       </c>
       <c r="E169">
-        <v>163992.418450386</v>
+        <v>164677.652755175</v>
       </c>
     </row>
   </sheetData>
@@ -6775,13 +6775,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1090.73057949543</v>
+        <v>1179.4669738455</v>
       </c>
       <c r="F2">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G2">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6810,13 +6810,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97.5705697928129</v>
+        <v>544.772331657417</v>
       </c>
       <c r="F3">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G3">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -6845,13 +6845,13 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>86.2721511446464</v>
+        <v>111.340968243405</v>
       </c>
       <c r="F4">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G4">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6880,13 +6880,13 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>172.544302289293</v>
+        <v>111.340968243405</v>
       </c>
       <c r="F5">
-        <v>2080.05115321819</v>
+        <v>1881.50764785013</v>
       </c>
       <c r="G5">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6915,13 +6915,13 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>172.544302289293</v>
+        <v>111.340968243405</v>
       </c>
       <c r="F6">
-        <v>1414.90102872486</v>
+        <v>1112.74607219797</v>
       </c>
       <c r="G6">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -6950,13 +6950,13 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>172.544302289293</v>
+        <v>111.340968243405</v>
       </c>
       <c r="F7">
-        <v>1525.95356380687</v>
+        <v>1112.74607219797</v>
       </c>
       <c r="G7">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -6985,13 +6985,13 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>258.816453433939</v>
+        <v>222.681936486811</v>
       </c>
       <c r="F8">
-        <v>1586.54603738442</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G8">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7020,13 +7020,13 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>862.721511446464</v>
+        <v>334.022904730216</v>
       </c>
       <c r="F9">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G9">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7055,13 +7055,13 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>1207.81011602505</v>
+        <v>890.727745947243</v>
       </c>
       <c r="F10">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G10">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7090,13 +7090,13 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>1552.89872060364</v>
+        <v>711.935539201901</v>
       </c>
       <c r="F11">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G11">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7125,13 +7125,13 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>1142.76867032308</v>
+        <v>861.75717717123</v>
       </c>
       <c r="F12">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G12">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7160,13 +7160,13 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>1142.76867032308</v>
+        <v>1642.78214072367</v>
       </c>
       <c r="F13">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G13">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7195,13 +7195,13 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>1320.66272946846</v>
+        <v>1114.85377298203</v>
       </c>
       <c r="F14">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G14">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -7230,13 +7230,13 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>1293.05485941444</v>
+        <v>613.884641892457</v>
       </c>
       <c r="F15">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G15">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -7265,13 +7265,13 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>1975.64796510434</v>
+        <v>347.852525110309</v>
       </c>
       <c r="F16">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G16">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -7300,13 +7300,13 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>1917.94952948038</v>
+        <v>898.289769128999</v>
       </c>
       <c r="F17">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G17">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1646.05979226239</v>
+        <v>1790.94598324266</v>
       </c>
       <c r="F18">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G18">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -7370,13 +7370,13 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>1759.81082734959</v>
+        <v>1787.69583660037</v>
       </c>
       <c r="F19">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G19">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -7405,13 +7405,13 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>1969.88187345334</v>
+        <v>1123.45348564768</v>
       </c>
       <c r="F20">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G20">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1953.44372750144</v>
+        <v>1112.96266511564</v>
       </c>
       <c r="F21">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G21">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -7475,13 +7475,13 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1920.56743559765</v>
+        <v>1742.19378360841</v>
       </c>
       <c r="F22">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G22">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -7510,13 +7510,13 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1791.27636890076</v>
+        <v>1690.19143733189</v>
       </c>
       <c r="F23">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G23">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -7545,13 +7545,13 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1723.30968417488</v>
+        <v>1586.18674477883</v>
       </c>
       <c r="F24">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G24">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -7580,13 +7580,13 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>730.149674472263</v>
+        <v>1378.17735967272</v>
       </c>
       <c r="F25">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G25">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -7615,13 +7615,13 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>467.139339241908</v>
+        <v>481.079294730254</v>
       </c>
       <c r="F26">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G26">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -7650,13 +7650,13 @@
         <v>26</v>
       </c>
       <c r="E27">
-        <v>62.9220598427098</v>
+        <v>67.2932670116737</v>
       </c>
       <c r="F27">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G27">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -7685,13 +7685,13 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>62.9220598427098</v>
+        <v>101.234848920848</v>
       </c>
       <c r="F28">
-        <v>1956.41855138975</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G28">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -7720,13 +7720,13 @@
         <v>28</v>
       </c>
       <c r="E29">
-        <v>125.84411968542</v>
+        <v>101.234848920848</v>
       </c>
       <c r="F29">
-        <v>1115.58954073581</v>
+        <v>2095.78121948919</v>
       </c>
       <c r="G29">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -7755,13 +7755,13 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>173.682101581978</v>
+        <v>101.234848920848</v>
       </c>
       <c r="F30">
-        <v>1304.46990553328</v>
+        <v>1112.74607219797</v>
       </c>
       <c r="G30">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -7790,13 +7790,13 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <v>173.682101581978</v>
+        <v>168.528115932522</v>
       </c>
       <c r="F31">
-        <v>1737.52830327157</v>
+        <v>1202.82386203497</v>
       </c>
       <c r="G31">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -7825,13 +7825,13 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>236.604161424688</v>
+        <v>269.762964853371</v>
       </c>
       <c r="F32">
-        <v>2063.87171627768</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G32">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -7860,13 +7860,13 @@
         <v>32</v>
       </c>
       <c r="E33">
-        <v>493.142895699107</v>
+        <v>370.997813774213</v>
       </c>
       <c r="F33">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G33">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -7895,13 +7895,13 @@
         <v>33</v>
       </c>
       <c r="E34">
-        <v>1072.26076538417</v>
+        <v>944.465325390138</v>
       </c>
       <c r="F34">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G34">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -7930,13 +7930,13 @@
         <v>34</v>
       </c>
       <c r="E35">
-        <v>1419.62496854813</v>
+        <v>1281.52155725518</v>
       </c>
       <c r="F35">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G35">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -7965,13 +7965,13 @@
         <v>35</v>
       </c>
       <c r="E36">
-        <v>1892.8332913975</v>
+        <v>1794.17904327267</v>
       </c>
       <c r="F36">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G36">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -8000,13 +8000,13 @@
         <v>36</v>
       </c>
       <c r="E37">
-        <v>1986.19470783112</v>
+        <v>1794.16195666039</v>
       </c>
       <c r="F37">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G37">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -8035,13 +8035,13 @@
         <v>37</v>
       </c>
       <c r="E38">
-        <v>1986.069396257</v>
+        <v>1794.12778343585</v>
       </c>
       <c r="F38">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G38">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>38</v>
       </c>
       <c r="E39">
-        <v>1985.81877310876</v>
+        <v>1794.05943698676</v>
       </c>
       <c r="F39">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G39">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -8105,13 +8105,13 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>1985.31752681228</v>
+        <v>1793.92274408858</v>
       </c>
       <c r="F40">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G40">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -8140,13 +8140,13 @@
         <v>40</v>
       </c>
       <c r="E41">
-        <v>1984.31503421933</v>
+        <v>1793.64935829221</v>
       </c>
       <c r="F41">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G41">
-        <v>4283.84141223324</v>
+        <v>4360.40244039475</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -8175,16 +8175,16 @@
         <v>41</v>
       </c>
       <c r="E42">
-        <v>1982.31004903343</v>
+        <v>1793.10258669948</v>
       </c>
       <c r="F42">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G42">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>34.0703088930986</v>
       </c>
       <c r="I42">
         <v>245.082009809996</v>
@@ -8210,13 +8210,13 @@
         <v>42</v>
       </c>
       <c r="E43">
-        <v>1978.30007866162</v>
+        <v>1792.00904351402</v>
       </c>
       <c r="F43">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G43">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -8245,13 +8245,13 @@
         <v>43</v>
       </c>
       <c r="E44">
-        <v>1970.280137918</v>
+        <v>1190.89447478218</v>
       </c>
       <c r="F44">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G44">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -8280,13 +8280,13 @@
         <v>44</v>
       </c>
       <c r="E45">
-        <v>1954.24025643076</v>
+        <v>1785.44778440127</v>
       </c>
       <c r="F45">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G45">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -8315,13 +8315,13 @@
         <v>45</v>
       </c>
       <c r="E46">
-        <v>1922.16049345626</v>
+        <v>1776.69943891761</v>
       </c>
       <c r="F46">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G46">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -8350,13 +8350,13 @@
         <v>46</v>
       </c>
       <c r="E47">
-        <v>1858.00096750731</v>
+        <v>1759.20274795028</v>
       </c>
       <c r="F47">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G47">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -8385,13 +8385,13 @@
         <v>47</v>
       </c>
       <c r="E48">
-        <v>1729.68191560938</v>
+        <v>1724.20936601561</v>
       </c>
       <c r="F48">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G48">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -8420,13 +8420,13 @@
         <v>48</v>
       </c>
       <c r="E49">
-        <v>1473.04381181353</v>
+        <v>1654.22260214629</v>
       </c>
       <c r="F49">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G49">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>49</v>
       </c>
       <c r="E50">
-        <v>479.883802110914</v>
+        <v>757.124537203818</v>
       </c>
       <c r="F50">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G50">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -8490,13 +8490,13 @@
         <v>50</v>
       </c>
       <c r="E51">
-        <v>103.273399781644</v>
+        <v>617.151009465167</v>
       </c>
       <c r="F51">
-        <v>2174.25773256399</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G51">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -8525,13 +8525,13 @@
         <v>51</v>
       </c>
       <c r="E52">
-        <v>82.5057518250588</v>
+        <v>337.203953987863</v>
       </c>
       <c r="F52">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G52">
-        <v>4283.84141223324</v>
+        <v>4360.40244039477</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -8560,13 +8560,13 @@
         <v>52</v>
       </c>
       <c r="E53">
-        <v>165.011503650118</v>
+        <v>128.410635694599</v>
       </c>
       <c r="F53">
-        <v>2120.67229067188</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G53">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -8595,13 +8595,13 @@
         <v>53</v>
       </c>
       <c r="E54">
-        <v>165.011503650118</v>
+        <v>128.410635694599</v>
       </c>
       <c r="F54">
-        <v>1346.89960630354</v>
+        <v>1112.74607219797</v>
       </c>
       <c r="G54">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -8630,13 +8630,13 @@
         <v>54</v>
       </c>
       <c r="E55">
-        <v>165.011503650118</v>
+        <v>128.410635694599</v>
       </c>
       <c r="F55">
-        <v>2167.58342985422</v>
+        <v>1892.46979365696</v>
       </c>
       <c r="G55">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -8665,13 +8665,13 @@
         <v>55</v>
       </c>
       <c r="E56">
-        <v>247.517255475176</v>
+        <v>256.821271389198</v>
       </c>
       <c r="F56">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G56">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -8700,13 +8700,13 @@
         <v>56</v>
       </c>
       <c r="E57">
-        <v>412.528759125294</v>
+        <v>385.231907083796</v>
       </c>
       <c r="F57">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G57">
-        <v>4283.84141223324</v>
+        <v>4360.40244039475</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -8735,13 +8735,13 @@
         <v>57</v>
       </c>
       <c r="E58">
-        <v>1155.08052555082</v>
+        <v>1027.28508555679</v>
       </c>
       <c r="F58">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G58">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -8770,13 +8770,13 @@
         <v>58</v>
       </c>
       <c r="E59">
-        <v>1485.10353285106</v>
+        <v>895.555295795468</v>
       </c>
       <c r="F59">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G59">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -8805,13 +8805,13 @@
         <v>59</v>
       </c>
       <c r="E60">
-        <v>1655.41387273303</v>
+        <v>1637.96757284392</v>
       </c>
       <c r="F60">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G60">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -8840,13 +8840,13 @@
         <v>60</v>
       </c>
       <c r="E61">
-        <v>1090.03708751003</v>
+        <v>1663.67779827412</v>
       </c>
       <c r="F61">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G61">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -8875,13 +8875,13 @@
         <v>61</v>
       </c>
       <c r="E62">
-        <v>1986.17606146728</v>
+        <v>845.283910005423</v>
       </c>
       <c r="F62">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G62">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -8910,13 +8910,13 @@
         <v>62</v>
       </c>
       <c r="E63">
-        <v>1986.03210352933</v>
+        <v>746.411069626513</v>
       </c>
       <c r="F63">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G63">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -8945,13 +8945,13 @@
         <v>63</v>
       </c>
       <c r="E64">
-        <v>1985.74418765342</v>
+        <v>1793.98604319405</v>
       </c>
       <c r="F64">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G64">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -8980,13 +8980,13 @@
         <v>64</v>
       </c>
       <c r="E65">
-        <v>1985.16835590161</v>
+        <v>1793.77595650315</v>
       </c>
       <c r="F65">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G65">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>65</v>
       </c>
       <c r="E66">
-        <v>1585.06581691448</v>
+        <v>1793.35578312136</v>
       </c>
       <c r="F66">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G66">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -9050,13 +9050,13 @@
         <v>66</v>
       </c>
       <c r="E67">
-        <v>1783.6865417738</v>
+        <v>1792.51543635779</v>
       </c>
       <c r="F67">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G67">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -9085,13 +9085,13 @@
         <v>67</v>
       </c>
       <c r="E68">
-        <v>1977.10671137624</v>
+        <v>1742.22619117744</v>
       </c>
       <c r="F68">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G68">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -9120,13 +9120,13 @@
         <v>68</v>
       </c>
       <c r="E69">
-        <v>1967.89340334723</v>
+        <v>1787.47335577632</v>
       </c>
       <c r="F69">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G69">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -9155,13 +9155,13 @@
         <v>69</v>
       </c>
       <c r="E70">
-        <v>1949.46678728922</v>
+        <v>1780.7505816677</v>
       </c>
       <c r="F70">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G70">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -9190,16 +9190,16 @@
         <v>70</v>
       </c>
       <c r="E71">
-        <v>1912.61355517322</v>
+        <v>1767.30503345047</v>
       </c>
       <c r="F71">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G71">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>213.540834495372</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -9225,13 +9225,13 @@
         <v>71</v>
       </c>
       <c r="E72">
-        <v>1838.90709094121</v>
+        <v>1740.41393701599</v>
       </c>
       <c r="F72">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G72">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>72</v>
       </c>
       <c r="E73">
-        <v>1691.49416247718</v>
+        <v>1686.63174414704</v>
       </c>
       <c r="F73">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G73">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -9295,13 +9295,13 @@
         <v>73</v>
       </c>
       <c r="E74">
-        <v>1396.66830554912</v>
+        <v>977.559823003041</v>
       </c>
       <c r="F74">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G74">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>74</v>
       </c>
       <c r="E75">
-        <v>403.5082958465</v>
+        <v>681.969293466672</v>
       </c>
       <c r="F75">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G75">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -9365,13 +9365,13 @@
         <v>75</v>
       </c>
       <c r="E76">
-        <v>141.879090868435</v>
+        <v>466.840521990875</v>
       </c>
       <c r="F76">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G76">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>76</v>
       </c>
       <c r="E77">
-        <v>283.75818173687</v>
+        <v>128.155072118043</v>
       </c>
       <c r="F77">
-        <v>1938.66846272263</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G77">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -9435,13 +9435,13 @@
         <v>77</v>
       </c>
       <c r="E78">
-        <v>283.75818173687</v>
+        <v>128.155072118043</v>
       </c>
       <c r="F78">
-        <v>1301.95332226764</v>
+        <v>1112.74607219797</v>
       </c>
       <c r="G78">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -9470,13 +9470,13 @@
         <v>78</v>
       </c>
       <c r="E79">
-        <v>283.75818173687</v>
+        <v>256.310144236086</v>
       </c>
       <c r="F79">
-        <v>1754.58626106172</v>
+        <v>1632.09175285864</v>
       </c>
       <c r="G79">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -9505,13 +9505,13 @@
         <v>79</v>
       </c>
       <c r="E80">
-        <v>425.637272605304</v>
+        <v>384.465216354128</v>
       </c>
       <c r="F80">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G80">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -9540,13 +9540,13 @@
         <v>80</v>
       </c>
       <c r="E81">
-        <v>1007.17607353233</v>
+        <v>512.620288472171</v>
       </c>
       <c r="F81">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G81">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -9575,13 +9575,13 @@
         <v>81</v>
       </c>
       <c r="E82">
-        <v>1986.30727215809</v>
+        <v>1281.55072118043</v>
       </c>
       <c r="F82">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G82">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -9610,13 +9610,13 @@
         <v>82</v>
       </c>
       <c r="E83">
-        <v>1986.29452491094</v>
+        <v>1794.1710096526</v>
       </c>
       <c r="F83">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G83">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -9645,13 +9645,13 @@
         <v>83</v>
       </c>
       <c r="E84">
-        <v>1986.26903041664</v>
+        <v>1794.14588942026</v>
       </c>
       <c r="F84">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G84">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -9680,13 +9680,13 @@
         <v>84</v>
       </c>
       <c r="E85">
-        <v>1986.21804142804</v>
+        <v>1794.09564895557</v>
       </c>
       <c r="F85">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G85">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -9715,13 +9715,13 @@
         <v>85</v>
       </c>
       <c r="E86">
-        <v>1986.11606345084</v>
+        <v>1793.99516802621</v>
       </c>
       <c r="F86">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G86">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -9750,13 +9750,13 @@
         <v>86</v>
       </c>
       <c r="E87">
-        <v>1985.91210749644</v>
+        <v>1793.79420616748</v>
       </c>
       <c r="F87">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G87">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -9785,13 +9785,13 @@
         <v>87</v>
       </c>
       <c r="E88">
-        <v>1985.50419558764</v>
+        <v>1793.39228245002</v>
       </c>
       <c r="F88">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G88">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -9820,13 +9820,13 @@
         <v>88</v>
       </c>
       <c r="E89">
-        <v>1984.68837177004</v>
+        <v>1792.58843501509</v>
       </c>
       <c r="F89">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G89">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -9855,16 +9855,16 @@
         <v>89</v>
       </c>
       <c r="E90">
-        <v>1983.05672413487</v>
+        <v>1790.98074014698</v>
       </c>
       <c r="F90">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G90">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>200.454952689252</v>
       </c>
       <c r="I90">
         <v>93.3628619284997</v>
@@ -9890,13 +9890,13 @@
         <v>90</v>
       </c>
       <c r="E91">
-        <v>1979.7934288645</v>
+        <v>1787.7653504056</v>
       </c>
       <c r="F91">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G91">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -9925,13 +9925,13 @@
         <v>91</v>
       </c>
       <c r="E92">
-        <v>1973.26683832376</v>
+        <v>1179.65430992643</v>
       </c>
       <c r="F92">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G92">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>92</v>
       </c>
       <c r="E93">
-        <v>1960.21365724228</v>
+        <v>1371.48645679792</v>
       </c>
       <c r="F93">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G93">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9995,13 +9995,13 @@
         <v>93</v>
       </c>
       <c r="E94">
-        <v>1934.10729507932</v>
+        <v>1742.74989405022</v>
       </c>
       <c r="F94">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G94">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -10030,13 +10030,13 @@
         <v>94</v>
       </c>
       <c r="E95">
-        <v>1881.89457075341</v>
+        <v>1691.30365821549</v>
       </c>
       <c r="F95">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G95">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -10065,13 +10065,13 @@
         <v>95</v>
       </c>
       <c r="E96">
-        <v>1777.46912210157</v>
+        <v>1588.41118654605</v>
       </c>
       <c r="F96">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G96">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         <v>96</v>
       </c>
       <c r="E97">
-        <v>1568.61822479793</v>
+        <v>1370.79458449315</v>
       </c>
       <c r="F97">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G97">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -10135,13 +10135,13 @@
         <v>97</v>
       </c>
       <c r="E98">
-        <v>1150.91643019061</v>
+        <v>485.528178264687</v>
       </c>
       <c r="F98">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G98">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -10170,13 +10170,13 @@
         <v>98</v>
       </c>
       <c r="E99">
-        <v>157.756420487995</v>
+        <v>73.9582915869041</v>
       </c>
       <c r="F99">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G99">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>99</v>
       </c>
       <c r="E100">
-        <v>0.837086257481142</v>
+        <v>147.916583173808</v>
       </c>
       <c r="F100">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G100">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -10240,13 +10240,13 @@
         <v>100</v>
       </c>
       <c r="E101">
-        <v>0.837086257481142</v>
+        <v>1.49160137184957</v>
       </c>
       <c r="F101">
-        <v>2103.11965237034</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G101">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>101</v>
       </c>
       <c r="E102">
-        <v>1.67417251496228</v>
+        <v>1.49160137184957</v>
       </c>
       <c r="F102">
-        <v>1613.93199810097</v>
+        <v>1112.74600024649</v>
       </c>
       <c r="G102">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -10310,13 +10310,13 @@
         <v>102</v>
       </c>
       <c r="E103">
-        <v>2.51125877244343</v>
+        <v>2.98320274369915</v>
       </c>
       <c r="F103">
-        <v>1434.98424452942</v>
+        <v>1768.99448107844</v>
       </c>
       <c r="G103">
-        <v>4283.84141223338</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10345,13 +10345,13 @@
         <v>103</v>
       </c>
       <c r="E104">
-        <v>3.34834502992457</v>
+        <v>4.47480411554872</v>
       </c>
       <c r="F104">
-        <v>1339.359812941</v>
+        <v>2225.49200049299</v>
       </c>
       <c r="G104">
-        <v>4283.84141223338</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10380,13 +10380,13 @@
         <v>104</v>
       </c>
       <c r="E105">
-        <v>4.18543128740571</v>
+        <v>5.9664054873983</v>
       </c>
       <c r="F105">
-        <v>2034.76783780256</v>
+        <v>2225.49200049299</v>
       </c>
       <c r="G105">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -10415,13 +10415,13 @@
         <v>105</v>
       </c>
       <c r="E106">
-        <v>5.859603802368</v>
+        <v>7.45800685924787</v>
       </c>
       <c r="F106">
-        <v>2174.25773256342</v>
+        <v>2225.49200049299</v>
       </c>
       <c r="G106">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10450,13 +10450,13 @@
         <v>106</v>
       </c>
       <c r="E107">
-        <v>8.37086257481142</v>
+        <v>10.441209602947</v>
       </c>
       <c r="F107">
-        <v>2174.25773256342</v>
+        <v>2225.49185659004</v>
       </c>
       <c r="G107">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10485,13 +10485,13 @@
         <v>107</v>
       </c>
       <c r="E108">
-        <v>11.719207604736</v>
+        <v>14.9160137184957</v>
       </c>
       <c r="F108">
-        <v>2174.25773256342</v>
+        <v>2225.49171268709</v>
       </c>
       <c r="G108">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10520,13 +10520,13 @@
         <v>108</v>
       </c>
       <c r="E109">
-        <v>15.9046388921417</v>
+        <v>20.882419205894</v>
       </c>
       <c r="F109">
-        <v>2174.25773256342</v>
+        <v>2225.49156878414</v>
       </c>
       <c r="G109">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10555,13 +10555,13 @@
         <v>109</v>
       </c>
       <c r="E110">
-        <v>21.7642426945097</v>
+        <v>28.3404260651419</v>
       </c>
       <c r="F110">
-        <v>2174.25773256342</v>
+        <v>2225.49142488119</v>
       </c>
       <c r="G110">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10590,13 +10590,13 @@
         <v>110</v>
       </c>
       <c r="E111">
-        <v>30.1351052693211</v>
+        <v>38.7816356680889</v>
       </c>
       <c r="F111">
-        <v>2174.25773256342</v>
+        <v>2225.49113707529</v>
       </c>
       <c r="G111">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10625,13 +10625,13 @@
         <v>111</v>
       </c>
       <c r="E112">
-        <v>41.8543128740571</v>
+        <v>53.6976493865847</v>
       </c>
       <c r="F112">
-        <v>2174.25773256342</v>
+        <v>2225.49070536645</v>
       </c>
       <c r="G112">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10660,13 +10660,13 @@
         <v>112</v>
       </c>
       <c r="E113">
-        <v>57.7589517661988</v>
+        <v>74.5800685924787</v>
       </c>
       <c r="F113">
-        <v>2174.25773256342</v>
+        <v>2225.49012975465</v>
       </c>
       <c r="G113">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10695,13 +10695,13 @@
         <v>113</v>
       </c>
       <c r="E114">
-        <v>79.5231944607085</v>
+        <v>102.920494657621</v>
       </c>
       <c r="F114">
-        <v>2174.25750475509</v>
+        <v>1800.95427115052</v>
       </c>
       <c r="G114">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10730,13 +10730,13 @@
         <v>114</v>
       </c>
       <c r="E115">
-        <v>175.208879558535</v>
+        <v>141.70213032571</v>
       </c>
       <c r="F115">
-        <v>2174.25727694676</v>
+        <v>2225.48840291927</v>
       </c>
       <c r="G115">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10765,13 +10765,13 @@
         <v>115</v>
       </c>
       <c r="E116">
-        <v>258.917505306649</v>
+        <v>195.399779712294</v>
       </c>
       <c r="F116">
-        <v>2174.25704913843</v>
+        <v>2225.48696388978</v>
       </c>
       <c r="G116">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10800,13 +10800,13 @@
         <v>116</v>
       </c>
       <c r="E117">
-        <v>374.435408839046</v>
+        <v>269.979848304773</v>
       </c>
       <c r="F117">
-        <v>2174.25682133011</v>
+        <v>2225.48494924849</v>
       </c>
       <c r="G117">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10835,13 +10835,13 @@
         <v>117</v>
       </c>
       <c r="E118">
-        <v>577.589517661987</v>
+        <v>745.800685924787</v>
       </c>
       <c r="F118">
-        <v>2174.25659352178</v>
+        <v>2225.48221509247</v>
       </c>
       <c r="G118">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10870,13 +10870,13 @@
         <v>118</v>
       </c>
       <c r="E119">
-        <v>670.216054493484</v>
+        <v>1029.20494657621</v>
       </c>
       <c r="F119">
-        <v>2174.25613790513</v>
+        <v>2225.47847361579</v>
       </c>
       <c r="G119">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>119</v>
       </c>
       <c r="E120">
-        <v>680.636612680898</v>
+        <v>1029.20494657621</v>
       </c>
       <c r="F120">
-        <v>2174.25545448015</v>
+        <v>2225.47329310964</v>
       </c>
       <c r="G120">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -10940,13 +10940,13 @@
         <v>120</v>
       </c>
       <c r="E121">
-        <v>680.636612680898</v>
+        <v>244.62262498333</v>
       </c>
       <c r="F121">
-        <v>2174.25454324684</v>
+        <v>2225.46609796217</v>
       </c>
       <c r="G121">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -10975,13 +10975,13 @@
         <v>121</v>
       </c>
       <c r="E122">
-        <v>675.426333587191</v>
+        <v>141.70213032571</v>
       </c>
       <c r="F122">
-        <v>2174.25340420521</v>
+        <v>2225.45616865877</v>
       </c>
       <c r="G122">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11010,13 +11010,13 @@
         <v>122</v>
       </c>
       <c r="E123">
-        <v>5.21027909370714</v>
+        <v>2.77801876264179</v>
       </c>
       <c r="F123">
-        <v>2174.25180954692</v>
+        <v>2225.44249787859</v>
       </c>
       <c r="G123">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11045,13 +11045,13 @@
         <v>123</v>
       </c>
       <c r="E124">
-        <v>5.21027909370714</v>
+        <v>2.77801876264179</v>
       </c>
       <c r="F124">
-        <v>1713.66190618271</v>
+        <v>2225.42364659229</v>
       </c>
       <c r="G124">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11080,13 +11080,13 @@
         <v>124</v>
       </c>
       <c r="E125">
-        <v>5.21027909370714</v>
+        <v>2.77801876264179</v>
       </c>
       <c r="F125">
-        <v>1095.47395492853</v>
+        <v>1772.56586835114</v>
       </c>
       <c r="G125">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11115,13 +11115,13 @@
         <v>125</v>
       </c>
       <c r="E126">
-        <v>10.4205581874143</v>
+        <v>2.77801876264179</v>
       </c>
       <c r="F126">
-        <v>1547.22078718449</v>
+        <v>1112.68081221069</v>
       </c>
       <c r="G126">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11150,13 +11150,13 @@
         <v>126</v>
       </c>
       <c r="E127">
-        <v>15.6308372811214</v>
+        <v>5.55603752528358</v>
       </c>
       <c r="F127">
-        <v>1485.79749485556</v>
+        <v>1112.655988952</v>
       </c>
       <c r="G127">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11185,13 +11185,13 @@
         <v>127</v>
       </c>
       <c r="E128">
-        <v>20.8411163748286</v>
+        <v>8.33405628792537</v>
       </c>
       <c r="F128">
-        <v>1485.79339430568</v>
+        <v>1915.1713339655</v>
       </c>
       <c r="G128">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>128</v>
       </c>
       <c r="E129">
-        <v>26.0513954685357</v>
+        <v>11.1120750505672</v>
       </c>
       <c r="F129">
-        <v>1485.78200388933</v>
+        <v>2023.93915181103</v>
       </c>
       <c r="G129">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -11255,13 +11255,13 @@
         <v>129</v>
       </c>
       <c r="E130">
-        <v>36.47195365595</v>
+        <v>13.8900938132089</v>
       </c>
       <c r="F130">
-        <v>1610.91164217917</v>
+        <v>2159.77149421548</v>
       </c>
       <c r="G130">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -11290,13 +11290,13 @@
         <v>130</v>
       </c>
       <c r="E131">
-        <v>104.205581874143</v>
+        <v>19.4461313384925</v>
       </c>
       <c r="F131">
-        <v>2174.20078048167</v>
+        <v>2225.01841588834</v>
       </c>
       <c r="G131">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -11325,13 +11325,13 @@
         <v>131</v>
       </c>
       <c r="E132">
-        <v>145.8878146238</v>
+        <v>27.7801876264179</v>
       </c>
       <c r="F132">
-        <v>2174.20078048167</v>
+        <v>2225.01841588834</v>
       </c>
       <c r="G132">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -11360,13 +11360,13 @@
         <v>132</v>
       </c>
       <c r="E133">
-        <v>197.990605560871</v>
+        <v>38.892262676985</v>
       </c>
       <c r="F133">
-        <v>2174.1595471745</v>
+        <v>2224.6752073553</v>
       </c>
       <c r="G133">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -11395,13 +11395,13 @@
         <v>133</v>
       </c>
       <c r="E134">
-        <v>270.934512872771</v>
+        <v>52.782356490194</v>
       </c>
       <c r="F134">
-        <v>2174.10259509275</v>
+        <v>2224.20147884777</v>
       </c>
       <c r="G134">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -11430,13 +11430,13 @@
         <v>134</v>
       </c>
       <c r="E135">
-        <v>375.140094746914</v>
+        <v>72.2284878286865</v>
       </c>
       <c r="F135">
-        <v>2174.04564301099</v>
+        <v>2223.72775034019</v>
       </c>
       <c r="G135">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -11465,13 +11465,13 @@
         <v>135</v>
       </c>
       <c r="E136">
-        <v>521.027909370714</v>
+        <v>100.008675455104</v>
       </c>
       <c r="F136">
-        <v>2173.98869092924</v>
+        <v>2223.25402183261</v>
       </c>
       <c r="G136">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -11500,13 +11500,13 @@
         <v>136</v>
       </c>
       <c r="E137">
-        <v>521.027909370714</v>
+        <v>138.900938132089</v>
       </c>
       <c r="F137">
-        <v>2173.89050554031</v>
+        <v>2222.43708479204</v>
       </c>
       <c r="G137">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -11535,13 +11535,13 @@
         <v>137</v>
       </c>
       <c r="E138">
-        <v>538.108488722039</v>
+        <v>383.366589244567</v>
       </c>
       <c r="F138">
-        <v>2173.73536806963</v>
+        <v>2221.14641924387</v>
       </c>
       <c r="G138">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -11570,13 +11570,13 @@
         <v>138</v>
       </c>
       <c r="E139">
-        <v>538.108488722039</v>
+        <v>191.683294622283</v>
       </c>
       <c r="F139">
-        <v>2173.52327851719</v>
+        <v>2219.38202518813</v>
       </c>
       <c r="G139">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -11605,13 +11605,13 @@
         <v>139</v>
       </c>
       <c r="E140">
-        <v>613.771604710319</v>
+        <v>253.871575965406</v>
       </c>
       <c r="F140">
-        <v>2173.25423688303</v>
+        <v>2217.14390262478</v>
       </c>
       <c r="G140">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -11640,13 +11640,13 @@
         <v>140</v>
       </c>
       <c r="E141">
-        <v>836.337727567658</v>
+        <v>392.772514097495</v>
       </c>
       <c r="F141">
-        <v>2172.88700985991</v>
+        <v>2214.08884302079</v>
       </c>
       <c r="G141">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -11675,13 +11675,13 @@
         <v>141</v>
       </c>
       <c r="E142">
-        <v>1268.44737014024</v>
+        <v>1153.57477761653</v>
       </c>
       <c r="F142">
-        <v>2172.36464536612</v>
+        <v>2209.74311786865</v>
       </c>
       <c r="G142">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -11710,13 +11710,13 @@
         <v>142</v>
       </c>
       <c r="E143">
-        <v>488.795912370454</v>
+        <v>1263.34299269666</v>
       </c>
       <c r="F143">
-        <v>2171.63019131987</v>
+        <v>2203.63299866073</v>
       </c>
       <c r="G143">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -11745,13 +11745,13 @@
         <v>143</v>
       </c>
       <c r="E144">
-        <v>301.725868093668</v>
+        <v>818.784410158559</v>
       </c>
       <c r="F144">
-        <v>2170.62669563948</v>
+        <v>2195.28475688951</v>
       </c>
       <c r="G144">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -11780,13 +11780,13 @@
         <v>144</v>
       </c>
       <c r="E145">
-        <v>90.2872736093289</v>
+        <v>238.898982250834</v>
       </c>
       <c r="F145">
-        <v>2169.25597293593</v>
+        <v>2183.88145551435</v>
       </c>
       <c r="G145">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -11815,13 +11815,13 @@
         <v>145</v>
       </c>
       <c r="E146">
-        <v>149.718286499541</v>
+        <v>47.2156876285511</v>
       </c>
       <c r="F146">
-        <v>2167.36288573864</v>
+        <v>2168.13242898707</v>
       </c>
       <c r="G146">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -11850,13 +11850,13 @@
         <v>146</v>
       </c>
       <c r="E147">
-        <v>90.2872736093289</v>
+        <v>94.4313752571021</v>
       </c>
       <c r="F147">
-        <v>2164.73534449512</v>
+        <v>2146.27328325188</v>
       </c>
       <c r="G147">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -11885,13 +11885,13 @@
         <v>147</v>
       </c>
       <c r="E148">
-        <v>180.574547218658</v>
+        <v>141.647062885653</v>
       </c>
       <c r="F148">
-        <v>1717.34572198044</v>
+        <v>2116.06589574544</v>
       </c>
       <c r="G148">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -11920,13 +11920,13 @@
         <v>148</v>
       </c>
       <c r="E149">
-        <v>270.861820827987</v>
+        <v>141.647062885653</v>
       </c>
       <c r="F149">
-        <v>1536.24923136213</v>
+        <v>1037.22760343193</v>
       </c>
       <c r="G149">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -11955,13 +11955,13 @@
         <v>149</v>
       </c>
       <c r="E150">
-        <v>270.861820827987</v>
+        <v>141.647062885653</v>
       </c>
       <c r="F150">
-        <v>1074.60385055946</v>
+        <v>1008.5477457275</v>
       </c>
       <c r="G150">
-        <v>4283.84141223324</v>
+        <v>4337.5723843615</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -11990,13 +11990,13 @@
         <v>150</v>
       </c>
       <c r="E151">
-        <v>270.861820827987</v>
+        <v>236.078438142755</v>
       </c>
       <c r="F151">
-        <v>1074.60385055946</v>
+        <v>1008.5477457275</v>
       </c>
       <c r="G151">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -12025,13 +12025,13 @@
         <v>151</v>
       </c>
       <c r="E152">
-        <v>451.436368046645</v>
+        <v>377.725501028408</v>
       </c>
       <c r="F152">
-        <v>2129.37190124877</v>
+        <v>2126.5217401055</v>
       </c>
       <c r="G152">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -12060,13 +12060,13 @@
         <v>152</v>
       </c>
       <c r="E153">
-        <v>1401.34158050287</v>
+        <v>519.372563914062</v>
       </c>
       <c r="F153">
-        <v>2167.36288573864</v>
+        <v>2168.13242898708</v>
       </c>
       <c r="G153">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -12095,13 +12095,13 @@
         <v>153</v>
       </c>
       <c r="E154">
-        <v>1986.32001940524</v>
+        <v>1322.03925359943</v>
       </c>
       <c r="F154">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G154">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -12130,13 +12130,13 @@
         <v>154</v>
       </c>
       <c r="E155">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F155">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G155">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -12165,13 +12165,13 @@
         <v>155</v>
       </c>
       <c r="E156">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F156">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G156">
-        <v>4283.84141223324</v>
+        <v>4360.40244039475</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -12200,13 +12200,13 @@
         <v>156</v>
       </c>
       <c r="E157">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F157">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G157">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -12235,16 +12235,16 @@
         <v>157</v>
       </c>
       <c r="E158">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F158">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G158">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H158">
-        <v>53.9884791102072</v>
+        <v>70.9926589779152</v>
       </c>
       <c r="I158">
         <v>319.844255315747</v>
@@ -12270,16 +12270,16 @@
         <v>158</v>
       </c>
       <c r="E159">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F159">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G159">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H159">
-        <v>53.9884791102072</v>
+        <v>249.54784438449</v>
       </c>
       <c r="I159">
         <v>299.312820553821</v>
@@ -12305,16 +12305,16 @@
         <v>159</v>
       </c>
       <c r="E160">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F160">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G160">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H160">
-        <v>53.9884791102072</v>
+        <v>249.54784438449</v>
       </c>
       <c r="I160">
         <v>251.941811611294</v>
@@ -12340,16 +12340,16 @@
         <v>160</v>
       </c>
       <c r="E161">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F161">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G161">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H161">
-        <v>53.9884791102072</v>
+        <v>249.54784438449</v>
       </c>
       <c r="I161">
         <v>173.365900069158</v>
@@ -12375,16 +12375,16 @@
         <v>161</v>
       </c>
       <c r="E162">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F162">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G162">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H162">
-        <v>53.9884791102072</v>
+        <v>249.54784438449</v>
       </c>
       <c r="I162">
         <v>67.5186785687159</v>
@@ -12410,16 +12410,16 @@
         <v>162</v>
       </c>
       <c r="E163">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F163">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G163">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H163">
-        <v>53.9884791102072</v>
+        <v>249.54784438449</v>
       </c>
       <c r="I163">
         <v>26.1080218906029</v>
@@ -12445,16 +12445,16 @@
         <v>163</v>
       </c>
       <c r="E164">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F164">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G164">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H164">
-        <v>53.9884791102072</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -12480,16 +12480,16 @@
         <v>164</v>
       </c>
       <c r="E165">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F165">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G165">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H165">
-        <v>53.9884791102072</v>
+        <v>249.54784438449</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -12515,16 +12515,16 @@
         <v>165</v>
       </c>
       <c r="E166">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F166">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G166">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H166">
-        <v>53.9884791102072</v>
+        <v>249.54784438449</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -12550,16 +12550,16 @@
         <v>166</v>
       </c>
       <c r="E167">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F167">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G167">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H167">
-        <v>53.9884791102072</v>
+        <v>249.54784438449</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -12585,16 +12585,16 @@
         <v>167</v>
       </c>
       <c r="E168">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F168">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G168">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H168">
-        <v>53.9884791102072</v>
+        <v>249.54784438449</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -12620,16 +12620,16 @@
         <v>168</v>
       </c>
       <c r="E169">
-        <v>1986.32001940524</v>
+        <v>1794.19612988494</v>
       </c>
       <c r="F169">
-        <v>2174.25773256342</v>
+        <v>2225.49214439593</v>
       </c>
       <c r="G169">
-        <v>4283.84141223324</v>
+        <v>4360.40244039476</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>249.54784438449</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -12673,7 +12673,7 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>4499505123.41921</v>
+        <v>4506981840.39297</v>
       </c>
     </row>
   </sheetData>
@@ -12714,7 +12714,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>63.1792925638984</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12728,7 +12728,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>52.0631286978001</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12742,7 +12742,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>48.4770920028297</v>
+        <v>55.2384782094041</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12756,7 +12756,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>46.1441208969862</v>
+        <v>46.3836961649546</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12770,7 +12770,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>46.1441208969862</v>
+        <v>34.4120141600063</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12784,7 +12784,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>46.1441208969862</v>
+        <v>43.6730040765869</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12798,7 +12798,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>46.1441208969862</v>
+        <v>54.8097153792648</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12812,7 +12812,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>58.0142410505138</v>
+        <v>55.7626527962589</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12826,7 +12826,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>64.4887816457945</v>
+        <v>65.6001720399029</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12840,7 +12840,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>58.3079677323441</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12854,7 +12854,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12868,7 +12868,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>57.6212106308492</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12882,7 +12882,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -12896,7 +12896,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -12910,7 +12910,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12924,7 +12924,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12938,7 +12938,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>57.6212106308493</v>
+        <v>60.225999968094</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12952,7 +12952,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>57.6212106308493</v>
+        <v>57.8288979595242</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -12966,7 +12966,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>57.6212106365595</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12980,7 +12980,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>57.6212106363445</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -12994,7 +12994,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>57.6212106345942</v>
+        <v>58.6978012911213</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -13008,7 +13008,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>57.6212106308493</v>
+        <v>60.6353333488999</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -13022,7 +13022,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>57.6212106333511</v>
+        <v>58.4015920551061</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -13036,7 +13036,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>57.6212106273262</v>
+        <v>57.7790899750138</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -13050,7 +13050,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>57.6212106303698</v>
+        <v>56.4777760487555</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -13064,7 +13064,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>53.7951999735799</v>
+        <v>56.5516826067142</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -13078,7 +13078,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>46.1441208969862</v>
+        <v>56.6349502630765</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -13092,7 +13092,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>46.1441208969862</v>
+        <v>46.3836961649546</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -13106,7 +13106,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>46.1441208969862</v>
+        <v>39.2299440142812</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -13120,7 +13120,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>46.1441208969862</v>
+        <v>46.3836961649546</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13134,7 +13134,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>46.1441208969862</v>
+        <v>54.3144788067765</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -13148,7 +13148,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>57.6212106308493</v>
+        <v>56.5138771718259</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -13162,7 +13162,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>65.2727608264154</v>
+        <v>61.0223873632241</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -13176,7 +13176,7 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>57.8944303680289</v>
+        <v>60.373748818685</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -13190,7 +13190,7 @@
         <v>35</v>
       </c>
       <c r="D36">
-        <v>57.8944293803801</v>
+        <v>61.4102733057011</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -13204,7 +13204,7 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>57.8944291209667</v>
+        <v>62.6348549412404</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -13218,7 +13218,7 @@
         <v>37</v>
       </c>
       <c r="D38">
-        <v>57.894425593035</v>
+        <v>61.2355511340109</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -13232,7 +13232,7 @@
         <v>38</v>
       </c>
       <c r="D39">
-        <v>57.8944095474874</v>
+        <v>61.5839387576985</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -13246,7 +13246,7 @@
         <v>39</v>
       </c>
       <c r="D40">
-        <v>57.8943686506834</v>
+        <v>63.4008723723971</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -13260,7 +13260,7 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>57.894252898963</v>
+        <v>65.5587168357705</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -13274,7 +13274,7 @@
         <v>41</v>
       </c>
       <c r="D42">
-        <v>57.8935700274604</v>
+        <v>84.9992033429606</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -13288,7 +13288,7 @@
         <v>42</v>
       </c>
       <c r="D43">
-        <v>57.8938280480658</v>
+        <v>65.0227592706659</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -13302,7 +13302,7 @@
         <v>43</v>
       </c>
       <c r="D44">
-        <v>57.8941506225959</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13316,7 +13316,7 @@
         <v>44</v>
       </c>
       <c r="D45">
-        <v>57.8935565938689</v>
+        <v>58.1744285139894</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -13330,7 +13330,7 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>57.888699167157</v>
+        <v>64.9255908276506</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -13344,7 +13344,7 @@
         <v>46</v>
       </c>
       <c r="D47">
-        <v>57.8780350847142</v>
+        <v>69.7902924846539</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13358,7 +13358,7 @@
         <v>47</v>
       </c>
       <c r="D48">
-        <v>57.8852244085849</v>
+        <v>62.4537914959706</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -13372,7 +13372,7 @@
         <v>48</v>
       </c>
       <c r="D49">
-        <v>57.8686551120099</v>
+        <v>60.7815900194609</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -13386,7 +13386,7 @@
         <v>49</v>
       </c>
       <c r="D50">
-        <v>57.1101116395447</v>
+        <v>57.080147584511</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -13400,7 +13400,7 @@
         <v>50</v>
       </c>
       <c r="D51">
-        <v>57.6212106308493</v>
+        <v>56.9297267440534</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -13414,7 +13414,7 @@
         <v>51</v>
       </c>
       <c r="D52">
-        <v>49.1454112919829</v>
+        <v>55.8604971971226</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -13428,7 +13428,7 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>46.1441208969862</v>
+        <v>48.6688030903049</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -13442,7 +13442,7 @@
         <v>53</v>
       </c>
       <c r="D54">
-        <v>46.1441208969862</v>
+        <v>39.4578822980341</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -13456,7 +13456,7 @@
         <v>54</v>
       </c>
       <c r="D55">
-        <v>46.1441208969862</v>
+        <v>46.3836961649546</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13470,7 +13470,7 @@
         <v>55</v>
       </c>
       <c r="D56">
-        <v>50.0443913467419</v>
+        <v>55.9533696395097</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -13484,7 +13484,7 @@
         <v>56</v>
       </c>
       <c r="D57">
-        <v>57.3863271710809</v>
+        <v>56.0195346978839</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -13498,7 +13498,7 @@
         <v>57</v>
       </c>
       <c r="D58">
-        <v>64.8528686946499</v>
+        <v>63.6512353345463</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -13512,7 +13512,7 @@
         <v>58</v>
       </c>
       <c r="D59">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -13526,7 +13526,7 @@
         <v>59</v>
       </c>
       <c r="D60">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -13540,7 +13540,7 @@
         <v>60</v>
       </c>
       <c r="D61">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -13554,7 +13554,7 @@
         <v>61</v>
       </c>
       <c r="D62">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -13568,7 +13568,7 @@
         <v>62</v>
       </c>
       <c r="D63">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -13582,7 +13582,7 @@
         <v>63</v>
       </c>
       <c r="D64">
-        <v>57.6212106308493</v>
+        <v>58.0592402906095</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -13596,7 +13596,7 @@
         <v>64</v>
       </c>
       <c r="D65">
-        <v>57.6212106308493</v>
+        <v>58.4577575738919</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -13610,7 +13610,7 @@
         <v>65</v>
       </c>
       <c r="D66">
-        <v>57.6212106308493</v>
+        <v>65.9701709022385</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -13624,7 +13624,7 @@
         <v>66</v>
       </c>
       <c r="D67">
-        <v>57.6212106308493</v>
+        <v>61.2223818271156</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>67</v>
       </c>
       <c r="D68">
-        <v>74.3171098068244</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -13652,7 +13652,7 @@
         <v>68</v>
       </c>
       <c r="D69">
-        <v>74.3171098068244</v>
+        <v>60.3433524522089</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -13666,7 +13666,7 @@
         <v>69</v>
       </c>
       <c r="D70">
-        <v>74.3171098068244</v>
+        <v>74.3074316584933</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -13680,7 +13680,7 @@
         <v>70</v>
       </c>
       <c r="D71">
-        <v>74.3171098068244</v>
+        <v>84.9992033429606</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -13694,7 +13694,7 @@
         <v>71</v>
       </c>
       <c r="D72">
-        <v>61.2981041066973</v>
+        <v>69.3991145005186</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -13708,7 +13708,7 @@
         <v>72</v>
       </c>
       <c r="D73">
-        <v>59.8515479177943</v>
+        <v>65.6925807262193</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -13722,7 +13722,7 @@
         <v>73</v>
       </c>
       <c r="D74">
-        <v>59.8515479177943</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -13736,7 +13736,7 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>49.4433799621006</v>
+        <v>56.1829760136902</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -13750,7 +13750,7 @@
         <v>75</v>
       </c>
       <c r="D76">
-        <v>48.1138556248501</v>
+        <v>52.7611142968589</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -13764,7 +13764,7 @@
         <v>76</v>
       </c>
       <c r="D77">
-        <v>46.1441208969862</v>
+        <v>47.8313849868124</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -13778,7 +13778,7 @@
         <v>77</v>
       </c>
       <c r="D78">
-        <v>46.1441208969862</v>
+        <v>38.0674219571954</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -13792,7 +13792,7 @@
         <v>78</v>
       </c>
       <c r="D79">
-        <v>46.1441208969862</v>
+        <v>46.3836961649546</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -13806,7 +13806,7 @@
         <v>79</v>
       </c>
       <c r="D80">
-        <v>53.5457954240755</v>
+        <v>57.0568950720905</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -13820,7 +13820,7 @@
         <v>80</v>
       </c>
       <c r="D81">
-        <v>57.6212106308493</v>
+        <v>57.2227176785209</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -13834,7 +13834,7 @@
         <v>81</v>
       </c>
       <c r="D82">
-        <v>65.8956072067112</v>
+        <v>60.4669229146669</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -13848,7 +13848,7 @@
         <v>82</v>
       </c>
       <c r="D83">
-        <v>65.8956072067112</v>
+        <v>64.4029937112703</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -13862,7 +13862,7 @@
         <v>83</v>
       </c>
       <c r="D84">
-        <v>77.4532239360948</v>
+        <v>66.5051917474026</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -13876,7 +13876,7 @@
         <v>84</v>
       </c>
       <c r="D85">
-        <v>77.4532239360948</v>
+        <v>69.4024670001949</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -13890,7 +13890,7 @@
         <v>85</v>
       </c>
       <c r="D86">
-        <v>77.4532239360948</v>
+        <v>65.4477289561797</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -13904,7 +13904,7 @@
         <v>86</v>
       </c>
       <c r="D87">
-        <v>77.4532239360948</v>
+        <v>64.1544633486481</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -13918,7 +13918,7 @@
         <v>87</v>
       </c>
       <c r="D88">
-        <v>77.4532239360948</v>
+        <v>65.1931797346508</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -13932,7 +13932,7 @@
         <v>88</v>
       </c>
       <c r="D89">
-        <v>62.4269146777172</v>
+        <v>65.8770526469522</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -13946,7 +13946,7 @@
         <v>89</v>
       </c>
       <c r="D90">
-        <v>60.7573247601197</v>
+        <v>84.9992033429606</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -13960,7 +13960,7 @@
         <v>90</v>
       </c>
       <c r="D91">
-        <v>60.7573247601197</v>
+        <v>64.1641677416706</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -13974,7 +13974,7 @@
         <v>91</v>
       </c>
       <c r="D92">
-        <v>60.7573247601197</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -13988,7 +13988,7 @@
         <v>92</v>
       </c>
       <c r="D93">
-        <v>60.7573247601197</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -14002,7 +14002,7 @@
         <v>93</v>
       </c>
       <c r="D94">
-        <v>60.7573247601197</v>
+        <v>58.2534850091229</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -14016,7 +14016,7 @@
         <v>94</v>
       </c>
       <c r="D95">
-        <v>60.7573247601197</v>
+        <v>60.3741891084456</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -14030,7 +14030,7 @@
         <v>95</v>
       </c>
       <c r="D96">
-        <v>59.3555287885153</v>
+        <v>58.2808866326515</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -14044,7 +14044,7 @@
         <v>96</v>
       </c>
       <c r="D97">
-        <v>59.1997736805592</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -14058,7 +14058,7 @@
         <v>97</v>
       </c>
       <c r="D98">
-        <v>59.1997736805592</v>
+        <v>56.6443504464454</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -14072,7 +14072,7 @@
         <v>98</v>
       </c>
       <c r="D99">
-        <v>54.0008183088345</v>
+        <v>57.2127311595707</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -14086,7 +14086,7 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <v>52.8673808343164</v>
+        <v>57.9167030312145</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -14100,7 +14100,7 @@
         <v>100</v>
       </c>
       <c r="D101">
-        <v>46.1441208969862</v>
+        <v>49.4839753292169</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -14114,7 +14114,7 @@
         <v>101</v>
       </c>
       <c r="D102">
-        <v>46.1441208969862</v>
+        <v>40.6802745601389</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -14128,7 +14128,7 @@
         <v>102</v>
       </c>
       <c r="D103">
-        <v>46.1441208969862</v>
+        <v>46.3836961649546</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -14142,7 +14142,7 @@
         <v>103</v>
       </c>
       <c r="D104">
-        <v>46.1441208969862</v>
+        <v>55.4093290539947</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -14156,7 +14156,7 @@
         <v>104</v>
       </c>
       <c r="D105">
-        <v>46.1441208969862</v>
+        <v>55.0447723127934</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -14170,7 +14170,7 @@
         <v>105</v>
       </c>
       <c r="D106">
-        <v>56.4033001721957</v>
+        <v>54.4118969571048</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -14184,7 +14184,7 @@
         <v>106</v>
       </c>
       <c r="D107">
-        <v>56.4033001721957</v>
+        <v>52.1845762632957</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -14198,7 +14198,7 @@
         <v>107</v>
       </c>
       <c r="D108">
-        <v>56.4033001721957</v>
+        <v>51.209557496997</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -14212,7 +14212,7 @@
         <v>108</v>
       </c>
       <c r="D109">
-        <v>56.4033001721957</v>
+        <v>49.7200949701101</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -14226,7 +14226,7 @@
         <v>109</v>
       </c>
       <c r="D110">
-        <v>56.4033001721957</v>
+        <v>52.0832650563414</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -14240,7 +14240,7 @@
         <v>110</v>
       </c>
       <c r="D111">
-        <v>56.4033001721957</v>
+        <v>53.1932120450001</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -14254,7 +14254,7 @@
         <v>111</v>
       </c>
       <c r="D112">
-        <v>56.4033001721957</v>
+        <v>52.917019727983</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -14268,7 +14268,7 @@
         <v>112</v>
       </c>
       <c r="D113">
-        <v>56.4033001721957</v>
+        <v>52.9680332216067</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -14282,7 +14282,7 @@
         <v>113</v>
       </c>
       <c r="D114">
-        <v>56.4033001721957</v>
+        <v>46.3836961649546</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -14296,7 +14296,7 @@
         <v>114</v>
       </c>
       <c r="D115">
-        <v>57.6212106308493</v>
+        <v>54.3127945851488</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -14310,7 +14310,7 @@
         <v>115</v>
       </c>
       <c r="D116">
-        <v>57.6212106308493</v>
+        <v>57.1155956395145</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -14324,7 +14324,7 @@
         <v>116</v>
       </c>
       <c r="D117">
-        <v>57.6212106308493</v>
+        <v>57.3707515882189</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -14338,7 +14338,7 @@
         <v>117</v>
       </c>
       <c r="D118">
-        <v>58.4530207545094</v>
+        <v>59.0139779060765</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -14352,7 +14352,7 @@
         <v>118</v>
       </c>
       <c r="D119">
-        <v>57.6212106308493</v>
+        <v>59.9286858637162</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -14366,7 +14366,7 @@
         <v>119</v>
       </c>
       <c r="D120">
-        <v>57.6212106308492</v>
+        <v>58.0521894579563</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -14380,7 +14380,7 @@
         <v>120</v>
       </c>
       <c r="D121">
-        <v>57.6212106308492</v>
+        <v>57.3984158654543</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -14394,7 +14394,7 @@
         <v>121</v>
       </c>
       <c r="D122">
-        <v>57.6212106308492</v>
+        <v>56.2779905326334</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -14408,7 +14408,7 @@
         <v>122</v>
       </c>
       <c r="D123">
-        <v>53.6539736059244</v>
+        <v>56.4298505393066</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -14422,7 +14422,7 @@
         <v>123</v>
       </c>
       <c r="D124">
-        <v>46.1441208969862</v>
+        <v>56.5929817526577</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -14436,7 +14436,7 @@
         <v>124</v>
       </c>
       <c r="D125">
-        <v>46.1441208969862</v>
+        <v>46.3836961649546</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -14450,7 +14450,7 @@
         <v>125</v>
       </c>
       <c r="D126">
-        <v>46.1441208969862</v>
+        <v>34.3760085691467</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -14464,7 +14464,7 @@
         <v>126</v>
       </c>
       <c r="D127">
-        <v>46.1441208969862</v>
+        <v>42.927197078958</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -14478,7 +14478,7 @@
         <v>127</v>
       </c>
       <c r="D128">
-        <v>46.1441208969862</v>
+        <v>46.3836961649546</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -14492,7 +14492,7 @@
         <v>128</v>
       </c>
       <c r="D129">
-        <v>46.1441208969862</v>
+        <v>46.3836961649546</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -14506,7 +14506,7 @@
         <v>129</v>
       </c>
       <c r="D130">
-        <v>46.1441208969862</v>
+        <v>46.3836961649546</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -14520,7 +14520,7 @@
         <v>130</v>
       </c>
       <c r="D131">
-        <v>58.8391210895028</v>
+        <v>56.7552954215847</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -14534,7 +14534,7 @@
         <v>131</v>
       </c>
       <c r="D132">
-        <v>58.8391210895028</v>
+        <v>56.777730381394</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -14548,7 +14548,7 @@
         <v>132</v>
       </c>
       <c r="D133">
-        <v>58.8391210895028</v>
+        <v>56.7761519136581</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -14562,7 +14562,7 @@
         <v>133</v>
       </c>
       <c r="D134">
-        <v>58.8391210895028</v>
+        <v>56.8150423340271</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -14576,7 +14576,7 @@
         <v>134</v>
       </c>
       <c r="D135">
-        <v>58.8391210895028</v>
+        <v>56.9473890742079</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -14590,7 +14590,7 @@
         <v>135</v>
       </c>
       <c r="D136">
-        <v>57.7430016767146</v>
+        <v>57.1666267030906</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -14604,7 +14604,7 @@
         <v>136</v>
       </c>
       <c r="D137">
-        <v>57.6212106308493</v>
+        <v>57.4465488465695</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -14618,7 +14618,7 @@
         <v>137</v>
       </c>
       <c r="D138">
-        <v>57.6212106308493</v>
+        <v>59.2787709948933</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -14632,7 +14632,7 @@
         <v>138</v>
       </c>
       <c r="D139">
-        <v>57.6212106308493</v>
+        <v>57.4862199590794</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -14646,7 +14646,7 @@
         <v>139</v>
       </c>
       <c r="D140">
-        <v>57.6212106308493</v>
+        <v>56.7299470432216</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -14660,7 +14660,7 @@
         <v>140</v>
       </c>
       <c r="D141">
-        <v>57.6212106308493</v>
+        <v>56.8976598653288</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -14674,7 +14674,7 @@
         <v>141</v>
       </c>
       <c r="D142">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -14688,7 +14688,7 @@
         <v>142</v>
       </c>
       <c r="D143">
-        <v>57.6212106308493</v>
+        <v>58.6468974960167</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -14702,7 +14702,7 @@
         <v>143</v>
       </c>
       <c r="D144">
-        <v>57.6212106308493</v>
+        <v>57.730350475146</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -14716,7 +14716,7 @@
         <v>144</v>
       </c>
       <c r="D145">
-        <v>57.3774566298543</v>
+        <v>56.7376938272911</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -14730,7 +14730,7 @@
         <v>145</v>
       </c>
       <c r="D146">
-        <v>57.6212106308493</v>
+        <v>55.6942779337126</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -14744,7 +14744,7 @@
         <v>146</v>
       </c>
       <c r="D147">
-        <v>49.3523630783673</v>
+        <v>56.0580156145591</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -14758,7 +14758,7 @@
         <v>147</v>
       </c>
       <c r="D148">
-        <v>46.1441208969862</v>
+        <v>55.7743685068575</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -14772,7 +14772,7 @@
         <v>148</v>
       </c>
       <c r="D149">
-        <v>46.1441208969862</v>
+        <v>37.6767049434358</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -14786,7 +14786,7 @@
         <v>149</v>
       </c>
       <c r="D150">
-        <v>22.4789002331116</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -14800,7 +14800,7 @@
         <v>150</v>
       </c>
       <c r="D151">
-        <v>38.2614325021516</v>
+        <v>32.6750070607985</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -14814,7 +14814,7 @@
         <v>151</v>
       </c>
       <c r="D152">
-        <v>46.1441208969862</v>
+        <v>53.6964025958521</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -14828,7 +14828,7 @@
         <v>152</v>
       </c>
       <c r="D153">
-        <v>57.6212106308493</v>
+        <v>57.6107887411764</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -14842,7 +14842,7 @@
         <v>153</v>
       </c>
       <c r="D154">
-        <v>73.4690737440718</v>
+        <v>64.8369668401777</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -14856,7 +14856,7 @@
         <v>154</v>
       </c>
       <c r="D155">
-        <v>78.6742117410716</v>
+        <v>70.6888726503457</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -14870,7 +14870,7 @@
         <v>155</v>
       </c>
       <c r="D156">
-        <v>84.4302632972866</v>
+        <v>75.9226059391835</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -14884,7 +14884,7 @@
         <v>156</v>
       </c>
       <c r="D157">
-        <v>84.4302618912156</v>
+        <v>76.6055358651838</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -14898,7 +14898,7 @@
         <v>157</v>
       </c>
       <c r="D158">
-        <v>91.2978117147263</v>
+        <v>84.9992033429606</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -14912,7 +14912,7 @@
         <v>158</v>
       </c>
       <c r="D159">
-        <v>91.2977136679538</v>
+        <v>114.578371640485</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -14926,7 +14926,7 @@
         <v>159</v>
       </c>
       <c r="D160">
-        <v>91.2974669335808</v>
+        <v>158.798672054624</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -14940,7 +14940,7 @@
         <v>160</v>
       </c>
       <c r="D161">
-        <v>91.2967792081201</v>
+        <v>215.043516819768</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="D162">
-        <v>91.2926136741916</v>
+        <v>577.535952648895</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -14968,7 +14968,7 @@
         <v>162</v>
       </c>
       <c r="D163">
-        <v>91.2942854280821</v>
+        <v>206.74700729233</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -14982,7 +14982,7 @@
         <v>163</v>
       </c>
       <c r="D164">
-        <v>91.2962070528611</v>
+        <v>62.0150904843421</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -14996,7 +14996,7 @@
         <v>164</v>
       </c>
       <c r="D165">
-        <v>91.29278311196</v>
+        <v>85.3812870850224</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -15010,7 +15010,7 @@
         <v>165</v>
       </c>
       <c r="D166">
-        <v>1347.05002086899</v>
+        <v>206.814510296287</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -15024,7 +15024,7 @@
         <v>166</v>
       </c>
       <c r="D167">
-        <v>89.3704218087866</v>
+        <v>304.257657499096</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -15038,7 +15038,7 @@
         <v>167</v>
       </c>
       <c r="D168">
-        <v>89.2088536482235</v>
+        <v>168.178576376535</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -15052,7 +15052,7 @@
         <v>168</v>
       </c>
       <c r="D169">
-        <v>82.1738506685545</v>
+        <v>135.94415294944</v>
       </c>
     </row>
   </sheetData>

--- a/Model2/excel/output_elasticity_model.xlsx
+++ b/Model2/excel/output_elasticity_model.xlsx
@@ -484,7 +484,7 @@
         <v>7015.36155863619</v>
       </c>
       <c r="F2">
-        <v>49.6748810162551</v>
+        <v>51.1024634309795</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -504,7 +504,7 @@
         <v>6380.66691644811</v>
       </c>
       <c r="F3">
-        <v>49.68394589463</v>
+        <v>50.5069129520915</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>6697.2355530341</v>
+        <v>6625.09195062774</v>
       </c>
       <c r="E4">
         <v>5991.0078681154</v>
@@ -538,13 +538,13 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>6353.25105648829</v>
+        <v>6536.43686774073</v>
       </c>
       <c r="E5">
         <v>5786.43686774073</v>
       </c>
       <c r="F5">
-        <v>52.8250871974145</v>
+        <v>51.2269703609359</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -558,13 +558,13 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>5584.48948083613</v>
+        <v>5537.5735494211</v>
       </c>
       <c r="E6">
         <v>5784.93817909329</v>
       </c>
       <c r="F6">
-        <v>54.7050483030701</v>
+        <v>53.8643707131187</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -578,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>5584.48948083613</v>
+        <v>6288.33336787894</v>
       </c>
       <c r="E7">
         <v>5877.10753091045</v>
       </c>
       <c r="F7">
-        <v>54.892625426491</v>
+        <v>52.1233183775482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -598,13 +598,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>6808.5765212775</v>
+        <v>6746.73914778634</v>
       </c>
       <c r="E8">
         <v>6306.48182840015</v>
       </c>
       <c r="F8">
-        <v>54.7333339554783</v>
+        <v>54.0239305553724</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -618,13 +618,13 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>6967.52835167327</v>
+        <v>6915.9972070973</v>
       </c>
       <c r="E9">
         <v>7306.10715623829</v>
       </c>
       <c r="F9">
-        <v>55.6591970201009</v>
+        <v>55.6471780101741</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -644,7 +644,7 @@
         <v>8467.59085799925</v>
       </c>
       <c r="F10">
-        <v>56.9491600261707</v>
+        <v>56.8714052496528</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -658,13 +658,13 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>7761.80217309854</v>
+        <v>8183.88877416108</v>
       </c>
       <c r="E11">
         <v>8511.80217309854</v>
       </c>
       <c r="F11">
-        <v>60.3613760821501</v>
+        <v>56.1748637032668</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -678,13 +678,13 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>8119.37266876696</v>
+        <v>8878.22642049456</v>
       </c>
       <c r="E12">
         <v>8590.4833270888</v>
       </c>
       <c r="F12">
-        <v>59.3003750872296</v>
+        <v>54.1978329264068</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -698,13 +698,13 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>9071.0651837779</v>
+        <v>9069.1230035324</v>
       </c>
       <c r="E13">
         <v>8621.9557886849</v>
       </c>
       <c r="F13">
-        <v>59.076141433455</v>
+        <v>53.6655865189246</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -718,13 +718,13 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>8537.18845643234</v>
+        <v>9063.02105944715</v>
       </c>
       <c r="E14">
         <v>8741.10153615586</v>
       </c>
       <c r="F14">
-        <v>59.7328761251607</v>
+        <v>53.7245596876849</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -738,13 +738,13 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>7940.14612214313</v>
+        <v>8966.64068728484</v>
       </c>
       <c r="E15">
         <v>8690.14612214313</v>
       </c>
       <c r="F15">
-        <v>59.0387493205692</v>
+        <v>54.0234953044453</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -758,13 +758,13 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>7548.23904083927</v>
+        <v>8840.15138483781</v>
       </c>
       <c r="E16">
         <v>8298.23904083927</v>
       </c>
       <c r="F16">
-        <v>56.6898334061349</v>
+        <v>54.7596106505518</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -778,13 +778,13 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>7971.06238456493</v>
+        <v>8711.30880869414</v>
       </c>
       <c r="E17">
         <v>8300.48707381042</v>
       </c>
       <c r="F17">
-        <v>53.9080108074646</v>
+        <v>56.3603669427903</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -798,13 +798,13 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>8714.58986546332</v>
+        <v>7700.45838733835</v>
       </c>
       <c r="E18">
         <v>8342.45035593855</v>
       </c>
       <c r="F18">
-        <v>53.327814798684</v>
+        <v>57.388469054563</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -818,13 +818,13 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>8507.52445376325</v>
+        <v>8088.0869852372</v>
       </c>
       <c r="E19">
         <v>8268.2652678906</v>
       </c>
       <c r="F19">
-        <v>53.647706720515</v>
+        <v>56.7035385618038</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -838,13 +838,13 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>7709.34807043837</v>
+        <v>8207.22931613985</v>
       </c>
       <c r="E20">
         <v>8459.34807043837</v>
       </c>
       <c r="F20">
-        <v>57.6935058410865</v>
+        <v>58.1802387083877</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -858,13 +858,13 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>7698.85724990633</v>
+        <v>8187.5705025295</v>
       </c>
       <c r="E21">
         <v>8448.85724990633</v>
       </c>
       <c r="F21">
-        <v>57.3937669708033</v>
+        <v>57.5648271639114</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -878,13 +878,13 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>8328.0883683991</v>
+        <v>8148.25287530882</v>
       </c>
       <c r="E22">
         <v>8713.37579617834</v>
       </c>
       <c r="F22">
-        <v>60.4217207628917</v>
+        <v>59.0852049083733</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -898,13 +898,13 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>8276.08602212258</v>
+        <v>8069.61762086745</v>
       </c>
       <c r="E23">
         <v>8488.57249906332</v>
       </c>
       <c r="F23">
-        <v>60.730561440678</v>
+        <v>58.510680437799</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -918,13 +918,13 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>8172.08132956952</v>
+        <v>7912.34711198471</v>
       </c>
       <c r="E24">
         <v>7925.06556762833</v>
       </c>
       <c r="F24">
-        <v>60.1834725208527</v>
+        <v>57.7108612045807</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -938,13 +938,13 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>7964.07194446342</v>
+        <v>7597.80609421923</v>
       </c>
       <c r="E25">
         <v>7414.0127388535</v>
       </c>
       <c r="F25">
-        <v>58.4201733408901</v>
+        <v>56.4293069637458</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -958,13 +958,13 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>7066.97387952095</v>
+        <v>6736.08440607871</v>
       </c>
       <c r="E26">
         <v>7118.77107530911</v>
       </c>
       <c r="F26">
-        <v>58.4382414076551</v>
+        <v>55.1446548057311</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -978,13 +978,13 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>6653.18785180236</v>
+        <v>7016.4993328305</v>
       </c>
       <c r="E27">
         <v>6412.88872236793</v>
       </c>
       <c r="F27">
-        <v>57.4622154413411</v>
+        <v>51.5123120997515</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -998,13 +998,13 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>6687.12943371154</v>
+        <v>6788.96590483327</v>
       </c>
       <c r="E28">
         <v>6038.96590483327</v>
       </c>
       <c r="F28">
-        <v>57.5384900434088</v>
+        <v>51.2254348020558</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1024,7 +1024,7 @@
         <v>5807.4185088048</v>
       </c>
       <c r="F29">
-        <v>57.2389631570325</v>
+        <v>51.3554863955821</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1038,13 +1038,13 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>5574.38336151357</v>
+        <v>5544.29074685146</v>
       </c>
       <c r="E30">
         <v>5742.97489696516</v>
       </c>
       <c r="F30">
-        <v>59.5456854340312</v>
+        <v>53.6533233086466</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1058,13 +1058,13 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>5731.75441836225</v>
+        <v>6137.43180228499</v>
       </c>
       <c r="E31">
         <v>5824.65342825028</v>
       </c>
       <c r="F31">
-        <v>58.9070012620448</v>
+        <v>52.361716462667</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1078,13 +1078,13 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>6855.65754964406</v>
+        <v>6760.17354264707</v>
       </c>
       <c r="E32">
         <v>6105.65754964406</v>
       </c>
       <c r="F32">
-        <v>56.9557857149856</v>
+        <v>53.8621747668139</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1098,13 +1098,13 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>6978.26331956125</v>
+        <v>6909.90885823238</v>
       </c>
       <c r="E33">
         <v>7066.31697264893</v>
       </c>
       <c r="F33">
-        <v>55.8860279039408</v>
+        <v>55.4090202997198</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1124,7 +1124,7 @@
         <v>8382.16560509554</v>
       </c>
       <c r="F34">
-        <v>57.5160143704254</v>
+        <v>56.8230638674819</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1138,13 +1138,13 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <v>8092.49439415558</v>
+        <v>8012.16695146846</v>
       </c>
       <c r="E35">
         <v>8634.69464218809</v>
       </c>
       <c r="F35">
-        <v>59.9070234283327</v>
+        <v>57.8805783384869</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1158,13 +1158,13 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>8763.41902068308</v>
+        <v>8610.21445787448</v>
       </c>
       <c r="E36">
         <v>8743.34956912701</v>
       </c>
       <c r="F36">
-        <v>58.9065823921965</v>
+        <v>56.1977042287106</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1178,13 +1178,13 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>8886.07485824121</v>
+        <v>8732.86831754946</v>
       </c>
       <c r="E37">
         <v>8795.05432746347</v>
       </c>
       <c r="F37">
-        <v>59.0057581437619</v>
+        <v>56.3208935024561</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1198,13 +1198,13 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>8906.94389225384</v>
+        <v>8753.73339579577</v>
       </c>
       <c r="E38">
         <v>8972.64893218434</v>
       </c>
       <c r="F38">
-        <v>58.1845682701803</v>
+        <v>56.612040743825</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1218,13 +1218,13 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>8887.95112754872</v>
+        <v>8734.73271955803</v>
       </c>
       <c r="E39">
         <v>8844.51105282878</v>
       </c>
       <c r="F39">
-        <v>56.3569795620512</v>
+        <v>56.2660788361358</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1238,13 +1238,13 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>8808.85475797266</v>
+        <v>8655.62052691673</v>
       </c>
       <c r="E40">
         <v>8780.81678531285</v>
       </c>
       <c r="F40">
-        <v>55.8855503162121</v>
+        <v>56.2899391985852</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1258,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>8728.99807715285</v>
+        <v>8575.73219996643</v>
       </c>
       <c r="E41">
         <v>8631.69726489322</v>
       </c>
       <c r="F41">
-        <v>55.655724118733</v>
+        <v>56.2344736663581</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1278,13 +1278,13 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>8658.14949019327</v>
+        <v>8470.75001185277</v>
       </c>
       <c r="E42">
         <v>8669.16448107906</v>
       </c>
       <c r="F42">
-        <v>55.6503335413736</v>
+        <v>56.3178186520886</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1298,13 +1298,13 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>8479.40950670713</v>
+        <v>8325.95375273778</v>
       </c>
       <c r="E43">
         <v>8508.80479580367</v>
       </c>
       <c r="F43">
-        <v>55.6469352894945</v>
+        <v>56.1767659254768</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1318,13 +1318,13 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>7776.78905957287</v>
+        <v>8222.00761892053</v>
       </c>
       <c r="E44">
         <v>8526.78905957287</v>
       </c>
       <c r="F44">
-        <v>60.0751526669463</v>
+        <v>57.9352755417888</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1338,13 +1338,13 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>8371.34236919197</v>
+        <v>8217.1271080909</v>
       </c>
       <c r="E45">
         <v>8597.97677032597</v>
       </c>
       <c r="F45">
-        <v>57.5914720590055</v>
+        <v>57.3975546940717</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1358,13 +1358,13 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <v>8362.5940237083</v>
+        <v>8207.36608643161</v>
       </c>
       <c r="E46">
         <v>8866.24203821656</v>
       </c>
       <c r="F46">
-        <v>60.943215892054</v>
+        <v>58.7401844399428</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1378,13 +1378,13 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <v>8345.09733274097</v>
+        <v>8187.84404311303</v>
       </c>
       <c r="E47">
         <v>8494.56725365305</v>
       </c>
       <c r="F47">
-        <v>60.4052858243645</v>
+        <v>57.4910517596093</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1398,13 +1398,13 @@
         <v>6</v>
       </c>
       <c r="D48">
-        <v>8310.1039508063</v>
+        <v>8148.79995647587</v>
       </c>
       <c r="E48">
         <v>8042.71262645185</v>
       </c>
       <c r="F48">
-        <v>59.815364809478</v>
+        <v>56.6893573911259</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1418,13 +1418,13 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>8240.11718693698</v>
+        <v>8070.71178320154</v>
       </c>
       <c r="E49">
         <v>7581.11652304234</v>
       </c>
       <c r="F49">
-        <v>57.3031427231302</v>
+        <v>54.3723217052902</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1438,13 +1438,13 @@
         <v>6</v>
       </c>
       <c r="D50">
-        <v>7343.01912199451</v>
+        <v>7315.24127926644</v>
       </c>
       <c r="E50">
         <v>7182.46534282503</v>
       </c>
       <c r="F50">
-        <v>56.0142918235388</v>
+        <v>52.5292145586544</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1458,13 +1458,13 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>7203.04559425586</v>
+        <v>7290.27725739978</v>
       </c>
       <c r="E51">
         <v>6540.27725739978</v>
       </c>
       <c r="F51">
-        <v>55.3568593882927</v>
+        <v>50.7656836782303</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1478,13 +1478,13 @@
         <v>6</v>
       </c>
       <c r="D52">
-        <v>6923.09853877857</v>
+        <v>6740.46105541508</v>
       </c>
       <c r="E52">
         <v>6173.09853877857</v>
       </c>
       <c r="F52">
-        <v>56.577688162061</v>
+        <v>51.3183150121106</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1498,13 +1498,13 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <v>6714.30522048529</v>
+        <v>6642.16161807894</v>
       </c>
       <c r="E53">
         <v>6013.4881978269</v>
       </c>
       <c r="F53">
-        <v>57.2244973683035</v>
+        <v>51.4683870489448</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1518,13 +1518,13 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>5601.55914828732</v>
+        <v>5716.54500141553</v>
       </c>
       <c r="E54">
         <v>5971.52491569876</v>
       </c>
       <c r="F54">
-        <v>60.3496987920586</v>
+        <v>53.7855207352868</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1538,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>6381.28286974632</v>
+        <v>6642.16161807894</v>
       </c>
       <c r="E55">
         <v>6066.69164481079</v>
       </c>
       <c r="F55">
-        <v>58.0646564935016</v>
+        <v>51.6773758520095</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1558,13 +1558,13 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>6842.71585617989</v>
+        <v>6780.87848268873</v>
       </c>
       <c r="E56">
         <v>6388.16035968528</v>
       </c>
       <c r="F56">
-        <v>57.0653958944282</v>
+        <v>53.9346041055719</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1578,13 +1578,13 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>7000.04079632017</v>
+        <v>6948.5096517442</v>
       </c>
       <c r="E57">
         <v>7360.0599475459</v>
       </c>
       <c r="F57">
-        <v>56.1584432676437</v>
+        <v>55.6512224711078</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1604,7 +1604,7 @@
         <v>8547.77070063694</v>
       </c>
       <c r="F58">
-        <v>57.5708731148463</v>
+        <v>56.8427754994837</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1618,13 +1618,13 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>7898.18284001499</v>
+        <v>8307.3463589959</v>
       </c>
       <c r="E59">
         <v>8648.18284001499</v>
       </c>
       <c r="F59">
-        <v>60.7386362477185</v>
+        <v>56.4101002732272</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1638,13 +1638,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>8960.66723292853</v>
+        <v>8963.6829540063</v>
       </c>
       <c r="E60">
         <v>8938.92843761709</v>
       </c>
       <c r="F60">
-        <v>59.1522340514712</v>
+        <v>54.7610501404529</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1658,13 +1658,13 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>9242.58865710509</v>
+        <v>9219.88390171485</v>
       </c>
       <c r="E61">
         <v>8651.92956163357</v>
       </c>
       <c r="F61">
-        <v>59.0637522374271</v>
+        <v>53.8011390588016</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1678,13 +1678,13 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>8426.91710276804</v>
+        <v>9222.58573357086</v>
       </c>
       <c r="E62">
         <v>8900.71187710753</v>
       </c>
       <c r="F62">
-        <v>59.6569708705169</v>
+        <v>54.037900666308</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1698,13 +1698,13 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>8230.89171974522</v>
+        <v>9125.39218677571</v>
       </c>
       <c r="E63">
         <v>8980.89171974522</v>
       </c>
       <c r="F63">
-        <v>57.5526012265422</v>
+        <v>54.6837059329727</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1718,13 +1718,13 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>9146.75130313155</v>
+        <v>8993.594788292</v>
       </c>
       <c r="E64">
         <v>8996.62795054327</v>
       </c>
       <c r="F64">
-        <v>54.8496912947142</v>
+        <v>55.3634347495015</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1738,13 +1738,13 @@
         <v>6</v>
       </c>
       <c r="D65">
-        <v>8981.33032550591</v>
+        <v>8828.21988075225</v>
       </c>
       <c r="E65">
         <v>8810.79055826152</v>
       </c>
       <c r="F65">
-        <v>54.0002156586397</v>
+        <v>55.6216589105644</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1758,13 +1758,13 @@
         <v>6</v>
       </c>
       <c r="D66">
-        <v>8774.40853111617</v>
+        <v>8621.3902265343</v>
       </c>
       <c r="E66">
         <v>8666.16710378419</v>
       </c>
       <c r="F66">
-        <v>54.2194707778548</v>
+        <v>55.713840374201</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1778,13 +1778,13 @@
         <v>6</v>
       </c>
       <c r="D67">
-        <v>8509.86157279887</v>
+        <v>8357.02754856057</v>
       </c>
       <c r="E67">
         <v>8534.28250281004</v>
       </c>
       <c r="F67">
-        <v>54.6651610533581</v>
+        <v>55.8725084122067</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1798,13 +1798,13 @@
         <v>6</v>
       </c>
       <c r="D68">
-        <v>8328.12077596813</v>
+        <v>8224.26386407016</v>
       </c>
       <c r="E68">
         <v>8705.88235294118</v>
       </c>
       <c r="F68">
-        <v>56.9969374454872</v>
+        <v>58.2636012679156</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1818,13 +1818,13 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>8373.36794056701</v>
+        <v>8221.63959839013</v>
       </c>
       <c r="E69">
         <v>8899.2131884601</v>
       </c>
       <c r="F69">
-        <v>57.5832793457169</v>
+        <v>57.9921906414823</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1838,13 +1838,13 @@
         <v>6</v>
       </c>
       <c r="D70">
-        <v>8366.64516645839</v>
+        <v>8341.7946796553</v>
       </c>
       <c r="E70">
         <v>9091.7946796553</v>
       </c>
       <c r="F70">
-        <v>60.8081785572227</v>
+        <v>59.4842045252523</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1858,13 +1858,13 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>8566.74045273653</v>
+        <v>8205.89400430997</v>
       </c>
       <c r="E71">
         <v>8670.66316972649</v>
       </c>
       <c r="F71">
-        <v>59.8332774068222</v>
+        <v>58.4432984878635</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1878,13 +1878,13 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <v>8326.30852180668</v>
+        <v>8184.89987886975</v>
       </c>
       <c r="E72">
         <v>8068.19033345822</v>
       </c>
       <c r="F72">
-        <v>59.2619571918074</v>
+        <v>57.3545163803837</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1898,13 +1898,13 @@
         <v>6</v>
       </c>
       <c r="D73">
-        <v>8272.52632893773</v>
+        <v>8142.91162798931</v>
       </c>
       <c r="E73">
         <v>7695.01686024728</v>
       </c>
       <c r="F73">
-        <v>56.5355032586078</v>
+        <v>55.2444568723182</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1918,13 +1918,13 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>7563.45440779373</v>
+        <v>7281.18993984878</v>
       </c>
       <c r="E74">
         <v>7449.98126639191</v>
       </c>
       <c r="F74">
-        <v>53.0248866546347</v>
+        <v>53.9025456093001</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1938,13 +1938,13 @@
         <v>6</v>
       </c>
       <c r="D75">
-        <v>7267.86387825736</v>
+        <v>7499.34432371675</v>
       </c>
       <c r="E75">
         <v>6749.34432371675</v>
       </c>
       <c r="F75">
-        <v>51.1720128317056</v>
+        <v>51.2108980233979</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1964,7 +1964,7 @@
         <v>6302.73510678157</v>
       </c>
       <c r="F76">
-        <v>51.4043251777158</v>
+        <v>51.4131566225443</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1978,13 +1978,13 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <v>6714.04965690873</v>
+        <v>6693.35442752258</v>
       </c>
       <c r="E77">
         <v>6125.1405020607</v>
       </c>
       <c r="F77">
-        <v>52.6098682571584</v>
+        <v>52.05443661639</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1998,13 +1998,13 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <v>5601.30358471077</v>
+        <v>5605.83602631593</v>
       </c>
       <c r="E78">
         <v>6040.4645934807</v>
       </c>
       <c r="F78">
-        <v>55.3602351793916</v>
+        <v>55.042201337847</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2018,13 +2018,13 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>6248.80433748948</v>
+        <v>6883.26410157601</v>
       </c>
       <c r="E79">
         <v>6150.61820906707</v>
       </c>
       <c r="F79">
-        <v>53.835640122196</v>
+        <v>51.7122929935156</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2038,13 +2038,13 @@
         <v>6</v>
       </c>
       <c r="D80">
-        <v>6970.35980114482</v>
+        <v>7073.17377562944</v>
       </c>
       <c r="E80">
         <v>6538.77856875234</v>
       </c>
       <c r="F80">
-        <v>54.5225460541033</v>
+        <v>53.970662388265</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2058,13 +2058,13 @@
         <v>6</v>
       </c>
       <c r="D81">
-        <v>7127.46515569002</v>
+        <v>8051.67242832376</v>
       </c>
       <c r="E81">
         <v>7449.98126639191</v>
       </c>
       <c r="F81">
-        <v>55.5947602319486</v>
+        <v>54.7200476972771</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2078,13 +2078,13 @@
         <v>6</v>
       </c>
       <c r="D82">
-        <v>8080.95064070626</v>
+        <v>8440.38609870997</v>
       </c>
       <c r="E82">
         <v>8709.62907455976</v>
       </c>
       <c r="F82">
-        <v>56.5938269047969</v>
+        <v>55.6809808515846</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2098,13 +2098,13 @@
         <v>6</v>
       </c>
       <c r="D83">
-        <v>8754.29656508925</v>
+        <v>8601.10436884542</v>
       </c>
       <c r="E83">
         <v>8998.12663919071</v>
       </c>
       <c r="F83">
-        <v>57.8199201772066</v>
+        <v>57.1489039863354</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2118,13 +2118,13 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>8821.34639498743</v>
+        <v>8668.16458742522</v>
       </c>
       <c r="E84">
         <v>9066.31697264893</v>
       </c>
       <c r="F84">
-        <v>58.0094196528913</v>
+        <v>56.8530867880044</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2138,13 +2138,13 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <v>8816.67898023342</v>
+        <v>8663.51795003443</v>
       </c>
       <c r="E85">
         <v>9090.29599100787</v>
       </c>
       <c r="F85">
-        <v>58.8918954194488</v>
+        <v>57.5308940958154</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2158,13 +2158,13 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <v>8759.57738398662</v>
+        <v>8606.45790851409</v>
       </c>
       <c r="E86">
         <v>9229.67403521918</v>
       </c>
       <c r="F86">
-        <v>58.8057814926637</v>
+        <v>58.2493559592529</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2178,13 +2178,13 @@
         <v>6</v>
       </c>
       <c r="D87">
-        <v>8687.86418761541</v>
+        <v>8534.82782159579</v>
       </c>
       <c r="E87">
         <v>8971.89958786062</v>
       </c>
       <c r="F87">
-        <v>56.4644591413916</v>
+        <v>57.7408238921587</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2198,13 +2198,13 @@
         <v>6</v>
       </c>
       <c r="D88">
-        <v>8606.55977622041</v>
+        <v>8453.68962910662</v>
       </c>
       <c r="E88">
         <v>8825.02810041214</v>
       </c>
       <c r="F88">
-        <v>54.9852244941508</v>
+        <v>57.2303726584278</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2218,13 +2218,13 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <v>8537.63761719218</v>
+        <v>8385.09990789003</v>
       </c>
       <c r="E89">
         <v>8726.11464968153</v>
       </c>
       <c r="F89">
-        <v>53.9856621480709</v>
+        <v>56.6001557596139</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2238,13 +2238,13 @@
         <v>6</v>
       </c>
       <c r="D90">
-        <v>8670.69313955542</v>
+        <v>8318.36535318557</v>
       </c>
       <c r="E90">
         <v>8463.09479205695</v>
       </c>
       <c r="F90">
-        <v>53.900780757838</v>
+        <v>56.3329578988651</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2258,13 +2258,13 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <v>8410.34548364064</v>
+        <v>8259.80240120831</v>
       </c>
       <c r="E91">
         <v>8337.95428999625</v>
       </c>
       <c r="F91">
-        <v>54.299206381</v>
+        <v>56.0277708620037</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2278,13 +2278,13 @@
         <v>6</v>
       </c>
       <c r="D92">
-        <v>7765.54889471712</v>
+        <v>8219.34557577772</v>
       </c>
       <c r="E92">
         <v>8515.54889471712</v>
       </c>
       <c r="F92">
-        <v>58.1395245275392</v>
+        <v>57.8691463085023</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2298,13 +2298,13 @@
         <v>6</v>
       </c>
       <c r="D93">
-        <v>7957.38104158861</v>
+        <v>8211.80302180525</v>
       </c>
       <c r="E93">
         <v>8707.38104158861</v>
       </c>
       <c r="F93">
-        <v>57.8105240499716</v>
+        <v>57.4556768005868</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2318,13 +2318,13 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <v>8328.64447884091</v>
+        <v>8196.71791386031</v>
       </c>
       <c r="E94">
         <v>8710.37841888348</v>
       </c>
       <c r="F94">
-        <v>60.6832364612894</v>
+        <v>57.9821025744284</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2338,13 +2338,13 @@
         <v>6</v>
       </c>
       <c r="D95">
-        <v>8277.19824300619</v>
+        <v>8166.54769797043</v>
       </c>
       <c r="E95">
         <v>8335.7062570251</v>
       </c>
       <c r="F95">
-        <v>60.8264832793959</v>
+        <v>56.6920008475762</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2358,13 +2358,13 @@
         <v>6</v>
       </c>
       <c r="D96">
-        <v>8174.30577133674</v>
+        <v>8106.20726619066</v>
       </c>
       <c r="E96">
         <v>7917.57212439116</v>
       </c>
       <c r="F96">
-        <v>60.2562465498154</v>
+        <v>55.9072142718</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2378,13 +2378,13 @@
         <v>6</v>
       </c>
       <c r="D97">
-        <v>7956.68916928384</v>
+        <v>7985.52640263114</v>
       </c>
       <c r="E97">
         <v>7650.05620082428</v>
       </c>
       <c r="F97">
-        <v>59.9927637474389</v>
+        <v>54.4574869341833</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2398,13 +2398,13 @@
         <v>6</v>
       </c>
       <c r="D98">
-        <v>7071.42276305538</v>
+        <v>7639.01780384208</v>
       </c>
       <c r="E98">
         <v>7351.0678156613</v>
       </c>
       <c r="F98">
-        <v>61.4389589970474</v>
+        <v>52.7192631681258</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2418,13 +2418,13 @@
         <v>6</v>
       </c>
       <c r="D99">
-        <v>6659.85287637759</v>
+        <v>6882.44298737156</v>
       </c>
       <c r="E99">
         <v>6771.07530910453</v>
       </c>
       <c r="F99">
-        <v>60.3968192819681</v>
+        <v>52.1918612956617</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2438,13 +2438,13 @@
         <v>6</v>
       </c>
       <c r="D100">
-        <v>6733.8111679645</v>
+        <v>6504.50923900904</v>
       </c>
       <c r="E100">
         <v>6280.25477707006</v>
       </c>
       <c r="F100">
-        <v>59.6103353931789</v>
+        <v>51.3896646068211</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2458,13 +2458,13 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>6587.38618616254</v>
+        <v>6504.50923900904</v>
       </c>
       <c r="E101">
         <v>5994.00524541027</v>
       </c>
       <c r="F101">
-        <v>58.5020963892652</v>
+        <v>50.7035165877736</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2478,13 +2478,13 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <v>5474.6400420131</v>
+        <v>6446.58377474747</v>
       </c>
       <c r="E102">
         <v>5837.39228175347</v>
       </c>
       <c r="F102">
-        <v>61.3714952533565</v>
+        <v>48.6420884891952</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2498,13 +2498,13 @@
         <v>6</v>
       </c>
       <c r="D103">
-        <v>6132.38012421689</v>
+        <v>5418.05532334229</v>
       </c>
       <c r="E103">
         <v>5763.20719370551</v>
       </c>
       <c r="F103">
-        <v>58.7266948164547</v>
+        <v>52.3215373677303</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2518,13 +2518,13 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>6590.36924500329</v>
+        <v>5419.11980888219</v>
       </c>
       <c r="E104">
         <v>5879.3555638816</v>
       </c>
       <c r="F104">
-        <v>57.2008666836605</v>
+        <v>54.0729093662371</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2538,13 +2538,13 @@
         <v>6</v>
       </c>
       <c r="D105">
-        <v>6624.97258199294</v>
+        <v>6540.81443124653</v>
       </c>
       <c r="E105">
         <v>6083.92656425628</v>
       </c>
       <c r="F105">
-        <v>55.2419225476299</v>
+        <v>54.7740220048797</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2558,13 +2558,13 @@
         <v>6</v>
       </c>
       <c r="D106">
-        <v>6874.02867389659</v>
+        <v>6789.44340731822</v>
       </c>
       <c r="E106">
         <v>6570.25103034845</v>
       </c>
       <c r="F106">
-        <v>54.9966335366526</v>
+        <v>54.5554552672771</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2578,13 +2578,13 @@
         <v>6</v>
       </c>
       <c r="D107">
-        <v>7239.32199885447</v>
+        <v>7153.88264451515</v>
       </c>
       <c r="E107">
         <v>7019.10828025478</v>
       </c>
       <c r="F107">
-        <v>53.2513263639105</v>
+        <v>53.9556366234709</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2598,13 +2598,13 @@
         <v>6</v>
       </c>
       <c r="D108">
-        <v>7601.21391970356</v>
+        <v>7514.49336177132</v>
       </c>
       <c r="E108">
         <v>7372.79880104908</v>
       </c>
       <c r="F108">
-        <v>52.8550531848218</v>
+        <v>53.8002105659915</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2618,13 +2618,13 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>7932.99678152867</v>
+        <v>7844.56790417156</v>
       </c>
       <c r="E109">
         <v>7567.62832521544</v>
       </c>
       <c r="F109">
-        <v>51.425627949962</v>
+        <v>53.4828833666767</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2638,13 +2638,13 @@
         <v>6</v>
       </c>
       <c r="D110">
-        <v>8081.0326107696</v>
+        <v>7990.46829815567</v>
       </c>
       <c r="E110">
         <v>7802.9224428625</v>
       </c>
       <c r="F110">
-        <v>51.1050632123859</v>
+        <v>53.6773011469052</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2658,13 +2658,13 @@
         <v>6</v>
       </c>
       <c r="D111">
-        <v>8078.59341519848</v>
+        <v>7985.03957956677</v>
       </c>
       <c r="E111">
         <v>7886.84900711877</v>
       </c>
       <c r="F111">
-        <v>52.1906095247929</v>
+        <v>53.9844458022419</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2678,13 +2678,13 @@
         <v>6</v>
       </c>
       <c r="D112">
-        <v>7958.99931713233</v>
+        <v>7861.17475488994</v>
       </c>
       <c r="E112">
         <v>7537.65455226677</v>
       </c>
       <c r="F112">
-        <v>53.9856518626989</v>
+        <v>54.1764165501561</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2698,13 +2698,13 @@
         <v>6</v>
       </c>
       <c r="D113">
-        <v>7757.94498566557</v>
+        <v>7654.14137738761</v>
       </c>
       <c r="E113">
         <v>7303.85912326714</v>
       </c>
       <c r="F113">
-        <v>55.9977575969863</v>
+        <v>54.8157461438138</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2718,13 +2718,13 @@
         <v>6</v>
       </c>
       <c r="D114">
-        <v>7039.25491984215</v>
+        <v>7351.8719693612</v>
       </c>
       <c r="E114">
         <v>7305.35781191458</v>
       </c>
       <c r="F114">
-        <v>56.7611791670641</v>
+        <v>55.2294022313794</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2738,13 +2738,13 @@
         <v>6</v>
       </c>
       <c r="D115">
-        <v>6933.80677079587</v>
+        <v>6810.78467691538</v>
       </c>
       <c r="E115">
         <v>7161.48370176096</v>
       </c>
       <c r="F115">
-        <v>56.7689359215196</v>
+        <v>55.9999043575401</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2758,13 +2758,13 @@
         <v>6</v>
       </c>
       <c r="D116">
-        <v>6781.28918399683</v>
+        <v>6782.33996492183</v>
       </c>
       <c r="E116">
         <v>7177.96927688273</v>
       </c>
       <c r="F116">
-        <v>60.1186588777688</v>
+        <v>57.9397491862182</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2778,13 +2778,13 @@
         <v>6</v>
       </c>
       <c r="D117">
-        <v>6855.86723794802</v>
+        <v>6888.7885189114</v>
       </c>
       <c r="E117">
         <v>7476.20831772199</v>
       </c>
       <c r="F117">
-        <v>59.7366418062567</v>
+        <v>58.0726255963208</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2798,13 +2798,13 @@
         <v>6</v>
       </c>
       <c r="D118">
-        <v>7331.68534141202</v>
+        <v>7035.68752341701</v>
       </c>
       <c r="E118">
         <v>7785.68752341701</v>
       </c>
       <c r="F118">
-        <v>61.6986651044064</v>
+        <v>59.9029164729134</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2818,13 +2818,13 @@
         <v>6</v>
       </c>
       <c r="D119">
-        <v>7615.08586058675</v>
+        <v>7237.9397759972</v>
       </c>
       <c r="E119">
         <v>7514.42487823155</v>
       </c>
       <c r="F119">
-        <v>60.4958388425257</v>
+        <v>58.5975938240838</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2838,13 +2838,13 @@
         <v>6</v>
       </c>
       <c r="D120">
-        <v>7615.0806800806</v>
+        <v>7260.48644829522</v>
       </c>
       <c r="E120">
         <v>7034.84451105283</v>
       </c>
       <c r="F120">
-        <v>58.964538386348</v>
+        <v>57.1292379505632</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2858,13 +2858,13 @@
         <v>6</v>
       </c>
       <c r="D121">
-        <v>6830.49116334026</v>
+        <v>6689.29371816105</v>
       </c>
       <c r="E121">
         <v>6960.65942300487</v>
       </c>
       <c r="F121">
-        <v>60.7718984612091</v>
+        <v>58.0978064828476</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2878,13 +2878,13 @@
         <v>6</v>
       </c>
       <c r="D122">
-        <v>6727.56073937924</v>
+        <v>6615.84421590825</v>
       </c>
       <c r="E122">
         <v>6930.6856500562</v>
       </c>
       <c r="F122">
-        <v>60.9051315078698</v>
+        <v>55.98610868641</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2898,13 +2898,13 @@
         <v>6</v>
       </c>
       <c r="D123">
-        <v>6588.62295703599</v>
+        <v>6618.10491701183</v>
       </c>
       <c r="E123">
         <v>6355.18920944174</v>
       </c>
       <c r="F123">
-        <v>58.9720534789323</v>
+        <v>52.6985127751822</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2918,13 +2918,13 @@
         <v>6</v>
       </c>
       <c r="D124">
-        <v>6588.60410574969</v>
+        <v>6732.76508055451</v>
       </c>
       <c r="E124">
         <v>5982.76508055451</v>
       </c>
       <c r="F124">
-        <v>58.9744345698732</v>
+        <v>51.4822763822472</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2938,13 +2938,13 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>6135.74632750853</v>
+        <v>6433.02735106782</v>
       </c>
       <c r="E125">
         <v>5683.02735106782</v>
       </c>
       <c r="F125">
-        <v>59.0145797154132</v>
+        <v>51.3078601452527</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2958,13 +2958,13 @@
         <v>6</v>
       </c>
       <c r="D126">
-        <v>5475.86127136809</v>
+        <v>5418.18705336608</v>
       </c>
       <c r="E126">
         <v>5563.88160359685</v>
       </c>
       <c r="F126">
-        <v>60.4965810246529</v>
+        <v>53.361106565535</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2978,13 +2978,13 @@
         <v>6</v>
       </c>
       <c r="D127">
-        <v>5478.61446687204</v>
+        <v>5623.34227931632</v>
       </c>
       <c r="E127">
         <v>5480.70438366429</v>
       </c>
       <c r="F127">
-        <v>59.685681664228</v>
+        <v>52.5865291416159</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3004,7 +3004,7 @@
         <v>5533.90783064818</v>
       </c>
       <c r="F128">
-        <v>57.3070412999323</v>
+        <v>53.6929587000677</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3024,7 +3024,7 @@
         <v>5662.79505432746</v>
       </c>
       <c r="F129">
-        <v>54.9657047315151</v>
+        <v>54.3248074171391</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3038,13 +3038,13 @@
         <v>6</v>
       </c>
       <c r="D130">
-        <v>6666.82278006744</v>
+        <v>6658.81051614893</v>
       </c>
       <c r="E130">
         <v>5916.82278006744</v>
       </c>
       <c r="F130">
-        <v>53.5167994638781</v>
+        <v>52.7738750716897</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3058,13 +3058,13 @@
         <v>6</v>
       </c>
       <c r="D131">
-        <v>6878.53950004398</v>
+        <v>6808.76708134166</v>
       </c>
       <c r="E131">
         <v>6224.05395279131</v>
       </c>
       <c r="F131">
-        <v>51.5144806944815</v>
+        <v>51.3260827244028</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3078,13 +3078,13 @@
         <v>6</v>
       </c>
       <c r="D132">
-        <v>7017.70148963673</v>
+        <v>6953.15922126795</v>
       </c>
       <c r="E132">
         <v>6763.58186586737</v>
       </c>
       <c r="F132">
-        <v>54.1254036766948</v>
+        <v>53.3974013325976</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3098,13 +3098,13 @@
         <v>6</v>
       </c>
       <c r="D133">
-        <v>7158.62670047153</v>
+        <v>7101.40117441387</v>
       </c>
       <c r="E133">
         <v>7238.66616710378</v>
       </c>
       <c r="F133">
-        <v>55.2632586866546</v>
+        <v>54.5718859813275</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3118,13 +3118,13 @@
         <v>6</v>
       </c>
       <c r="D134">
-        <v>7171.55136669705</v>
+        <v>7123.5164863695</v>
       </c>
       <c r="E134">
         <v>7467.21618583739</v>
       </c>
       <c r="F134">
-        <v>57.332476028197</v>
+        <v>56.2019506579329</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3138,13 +3138,13 @@
         <v>6</v>
       </c>
       <c r="D135">
-        <v>7118.12407813909</v>
+        <v>7082.76661043075</v>
       </c>
       <c r="E135">
         <v>7524.16635443987</v>
       </c>
       <c r="F135">
-        <v>58.8289487588815</v>
+        <v>57.062685833807</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3158,13 +3158,13 @@
         <v>6</v>
       </c>
       <c r="D136">
-        <v>7075.56129723283</v>
+        <v>7058.11139247723</v>
       </c>
       <c r="E136">
         <v>7290.37092544024</v>
       </c>
       <c r="F136">
-        <v>58.5065263089639</v>
+        <v>56.6075809713435</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3178,13 +3178,13 @@
         <v>6</v>
       </c>
       <c r="D137">
-        <v>7051.43069289838</v>
+        <v>7059.20509340661</v>
       </c>
       <c r="E137">
         <v>7144.24878231547</v>
       </c>
       <c r="F137">
-        <v>57.3496396355899</v>
+        <v>56.0314594636749</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3198,13 +3198,13 @@
         <v>6</v>
       </c>
       <c r="D138">
-        <v>7184.28519459882</v>
+        <v>7034.79125147876</v>
       </c>
       <c r="E138">
         <v>7096.2907455976</v>
       </c>
       <c r="F138">
-        <v>56.6397288342618</v>
+        <v>55.9085917841057</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3218,13 +3218,13 @@
         <v>6</v>
       </c>
       <c r="D139">
-        <v>6849.1682075314</v>
+        <v>7010.67841047552</v>
       </c>
       <c r="E139">
         <v>7039.34057699513</v>
       </c>
       <c r="F139">
-        <v>56.6246071695597</v>
+        <v>55.7520983150923</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3238,13 +3238,13 @@
         <v>6</v>
       </c>
       <c r="D140">
-        <v>6831.41791898494</v>
+        <v>7095.74844260701</v>
       </c>
       <c r="E140">
         <v>7186.96140876733</v>
       </c>
       <c r="F140">
-        <v>60.6530672534509</v>
+        <v>57.2840318355545</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3258,13 +3258,13 @@
         <v>6</v>
       </c>
       <c r="D141">
-        <v>6967.26379751304</v>
+        <v>7321.81855296498</v>
       </c>
       <c r="E141">
         <v>7458.22405395279</v>
       </c>
       <c r="F141">
-        <v>59.2151780540183</v>
+        <v>56.9984153470942</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3278,13 +3278,13 @@
         <v>6</v>
       </c>
       <c r="D142">
-        <v>7723.72033587994</v>
+        <v>7494.8370165099</v>
       </c>
       <c r="E142">
         <v>8000.74934432372</v>
       </c>
       <c r="F142">
-        <v>61.5320436859401</v>
+        <v>60.1457433995181</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3298,7 +3298,7 @@
         <v>6</v>
       </c>
       <c r="D143">
-        <v>7827.37843175215</v>
+        <v>6944.26751592357</v>
       </c>
       <c r="E143">
         <v>7694.26751592357</v>
@@ -3318,13 +3318,13 @@
         <v>6</v>
       </c>
       <c r="D144">
-        <v>7374.47160744283</v>
+        <v>7031.66037369453</v>
       </c>
       <c r="E144">
         <v>7186.96140876733</v>
       </c>
       <c r="F144">
-        <v>60.8257364123694</v>
+        <v>60.0922056999869</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3338,13 +3338,13 @@
         <v>6</v>
       </c>
       <c r="D145">
-        <v>6783.18287815995</v>
+        <v>6589.9539852416</v>
       </c>
       <c r="E145">
         <v>7075.30910453353</v>
       </c>
       <c r="F145">
-        <v>61.7099828315977</v>
+        <v>60.7132852624105</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3358,13 +3358,13 @@
         <v>6</v>
       </c>
       <c r="D146">
-        <v>6575.75055701038</v>
+        <v>6589.9539852416</v>
       </c>
       <c r="E146">
         <v>6893.21843387036</v>
       </c>
       <c r="F146">
-        <v>57.0881019919431</v>
+        <v>56.6533057502336</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3378,13 +3378,13 @@
         <v>6</v>
       </c>
       <c r="D147">
-        <v>6601.10709890373</v>
+        <v>6676.46321701406</v>
       </c>
       <c r="E147">
         <v>6225.55264143874</v>
       </c>
       <c r="F147">
-        <v>51.8799645077334</v>
+        <v>52.2645835742497</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3404,7 +3404,7 @@
         <v>5868.11539902585</v>
       </c>
       <c r="F148">
-        <v>51.1678035408717</v>
+        <v>51.5296706128732</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3418,13 +3418,13 @@
         <v>6</v>
       </c>
       <c r="D149">
-        <v>5539.27710671234</v>
+        <v>6195.29786436866</v>
       </c>
       <c r="E149">
         <v>5656.80029973773</v>
       </c>
       <c r="F149">
-        <v>53.8054590227605</v>
+        <v>52.0889298109073</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3438,13 +3438,13 @@
         <v>6</v>
       </c>
       <c r="D150">
-        <v>5487.76719297465</v>
+        <v>5497.73650390103</v>
       </c>
       <c r="E150">
         <v>5538.40389659048</v>
       </c>
       <c r="F150">
-        <v>53.4925696164508</v>
+        <v>53.1931590382039</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3458,13 +3458,13 @@
         <v>6</v>
       </c>
       <c r="D151">
-        <v>5605.02862426501</v>
+        <v>5761.96327935234</v>
       </c>
       <c r="E151">
         <v>5677.7819408018</v>
       </c>
       <c r="F151">
-        <v>53.8326881316496</v>
+        <v>53.0317590046556</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3498,13 +3498,13 @@
         <v>6</v>
       </c>
       <c r="D153">
-        <v>7056.0624424303</v>
+        <v>7895.74747096291</v>
       </c>
       <c r="E153">
         <v>7145.74747096291</v>
       </c>
       <c r="F153">
-        <v>55.2482525687843</v>
+        <v>54.538562607455</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3518,13 +3518,13 @@
         <v>6</v>
       </c>
       <c r="D154">
-        <v>7980.58537564932</v>
+        <v>8299.53966700939</v>
       </c>
       <c r="E154">
         <v>8397.15249156988</v>
       </c>
       <c r="F154">
-        <v>55.9638381905117</v>
+        <v>55.2892688868896</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3538,13 +3538,13 @@
         <v>6</v>
       </c>
       <c r="D155">
-        <v>8540.24070288285</v>
+        <v>8387.03811795741</v>
       </c>
       <c r="E155">
         <v>8657.92431622331</v>
       </c>
       <c r="F155">
-        <v>56.5776032013222</v>
+        <v>56.385106694352</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3558,13 +3558,13 @@
         <v>6</v>
       </c>
       <c r="D156">
-        <v>8639.24011524248</v>
+        <v>8572.48401381838</v>
       </c>
       <c r="E156">
         <v>8855.00187336081</v>
       </c>
       <c r="F156">
-        <v>56.9330484783055</v>
+        <v>56.0564049988917</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3578,13 +3578,13 @@
         <v>6</v>
       </c>
       <c r="D157">
-        <v>8705.7394176694</v>
+        <v>8824.05634630587</v>
       </c>
       <c r="E157">
         <v>9006.36942675159</v>
       </c>
       <c r="F157">
-        <v>57.8505005929098</v>
+        <v>56.2407981049967</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3598,13 +3598,13 @@
         <v>6</v>
       </c>
       <c r="D158">
-        <v>8770.92762896929</v>
+        <v>8818.25189862785</v>
       </c>
       <c r="E158">
         <v>9144.99812663919</v>
       </c>
       <c r="F158">
-        <v>58.3850954682501</v>
+        <v>56.6835980161491</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3618,13 +3618,13 @@
         <v>6</v>
       </c>
       <c r="D159">
-        <v>8928.95137961394</v>
+        <v>8797.72046386592</v>
       </c>
       <c r="E159">
         <v>8881.22892469089</v>
       </c>
       <c r="F159">
-        <v>57.3757080060008</v>
+        <v>56.3540175496737</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3638,13 +3638,13 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>8881.58037067141</v>
+        <v>8750.3494549234</v>
       </c>
       <c r="E160">
         <v>8859.49793930311</v>
       </c>
       <c r="F160">
-        <v>57.3037165928917</v>
+        <v>56.7146429206562</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3658,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="D161">
-        <v>8803.00445912928</v>
+        <v>8671.77354338126</v>
       </c>
       <c r="E161">
         <v>8810.0412139378</v>
@@ -3678,13 +3678,13 @@
         <v>6</v>
       </c>
       <c r="D162">
-        <v>8697.15723762884</v>
+        <v>8302.24354789645</v>
       </c>
       <c r="E162">
         <v>8708.87973023604</v>
       </c>
       <c r="F162">
-        <v>56.636918660503</v>
+        <v>57.2244036693945</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3698,13 +3698,13 @@
         <v>6</v>
       </c>
       <c r="D163">
-        <v>8655.74658095072</v>
+        <v>8252.99615164079</v>
       </c>
       <c r="E163">
         <v>8798.05170475834</v>
       </c>
       <c r="F163">
-        <v>56.4827690640182</v>
+        <v>57.1417616777367</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3718,13 +3718,13 @@
         <v>6</v>
       </c>
       <c r="D164">
-        <v>8380.09071467563</v>
+        <v>8226.88812975019</v>
       </c>
       <c r="E164">
         <v>8911.95204196328</v>
       </c>
       <c r="F164">
-        <v>60.4544926303479</v>
+        <v>60.2282501103751</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3738,13 +3738,13 @@
         <v>6</v>
       </c>
       <c r="D165">
-        <v>8629.63855906012</v>
+        <v>8315.56762832522</v>
       </c>
       <c r="E165">
         <v>9065.56762832522</v>
       </c>
       <c r="F165">
-        <v>58.5565230942332</v>
+        <v>58.8735163979897</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3758,13 +3758,13 @@
         <v>6</v>
       </c>
       <c r="D166">
-        <v>8629.63855906012</v>
+        <v>8498.4076433121</v>
       </c>
       <c r="E166">
         <v>9248.4076433121</v>
       </c>
       <c r="F166">
-        <v>60.7182896155228</v>
+        <v>60.1764911442421</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3778,13 +3778,13 @@
         <v>6</v>
       </c>
       <c r="D167">
-        <v>8629.63855906012</v>
+        <v>8226.88812975019</v>
       </c>
       <c r="E167">
         <v>8769.5766204571</v>
       </c>
       <c r="F167">
-        <v>59.1649555372814</v>
+        <v>59.2314281205343</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3798,13 +3798,13 @@
         <v>6</v>
       </c>
       <c r="D168">
-        <v>8629.63855906012</v>
+        <v>8226.88812975019</v>
       </c>
       <c r="E168">
         <v>8200.82427875609</v>
       </c>
       <c r="F168">
-        <v>58.1988765528595</v>
+        <v>58.1412444869635</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3818,13 +3818,13 @@
         <v>6</v>
       </c>
       <c r="D169">
-        <v>8629.63855906012</v>
+        <v>8226.88812975019</v>
       </c>
       <c r="E169">
         <v>8041.21393780442</v>
       </c>
       <c r="F169">
-        <v>55.1839362026881</v>
+        <v>56.2599870105844</v>
       </c>
     </row>
   </sheetData>
@@ -3871,7 +3871,7 @@
         <v>163431.997002623</v>
       </c>
       <c r="E2">
-        <v>163963.243295829</v>
+        <v>165598.165800251</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3888,7 +3888,7 @@
         <v>163194.454852005</v>
       </c>
       <c r="E3">
-        <v>164099.340436201</v>
+        <v>165906.244758254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3905,7 +3905,7 @@
         <v>163125.515174223</v>
       </c>
       <c r="E4">
-        <v>163773.820200075</v>
+        <v>166262.501017579</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3922,7 +3922,7 @@
         <v>163106.78156613</v>
       </c>
       <c r="E5">
-        <v>162977.618376459</v>
+        <v>166827.694297381</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3939,7 +3939,7 @@
         <v>162606.968902211</v>
       </c>
       <c r="E6">
-        <v>161912.39317072</v>
+        <v>167379.231536099</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3956,7 +3956,7 @@
         <v>161995.503934058</v>
       </c>
       <c r="E7">
-        <v>161577.717588699</v>
+        <v>167656.260526393</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3973,7 +3973,7 @@
         <v>161272.386661671</v>
       </c>
       <c r="E8">
-        <v>161641.962353932</v>
+        <v>167136.412904701</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3990,7 +3990,7 @@
         <v>160292.24428625</v>
       </c>
       <c r="E9">
-        <v>161440.030610303</v>
+        <v>166786.488715804</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4007,7 +4007,7 @@
         <v>159982.015736231</v>
       </c>
       <c r="E10">
-        <v>160518.691039628</v>
+        <v>166708.594236759</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4024,7 +4024,7 @@
         <v>160230.048707381</v>
       </c>
       <c r="E11">
-        <v>159650.832842323</v>
+        <v>166661.413084095</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4041,7 +4041,7 @@
         <v>160902.210565755</v>
       </c>
       <c r="E12">
-        <v>159344.082417035</v>
+        <v>166567.050778765</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4058,7 +4058,7 @@
         <v>162375.421506182</v>
       </c>
       <c r="E13">
-        <v>159844.406411266</v>
+        <v>166747.547424997</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4075,7 +4075,7 @@
         <v>163919.820157362</v>
       </c>
       <c r="E14">
-        <v>160865.019885877</v>
+        <v>167339.380488543</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4092,7 +4092,7 @@
         <v>165342.8250281</v>
       </c>
       <c r="E15">
-        <v>162042.146470812</v>
+        <v>168038.635301342</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4109,7 +4109,7 @@
         <v>166675.159235669</v>
       </c>
       <c r="E16">
-        <v>162714.490691072</v>
+        <v>168276.634808453</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4126,7 +4126,7 @@
         <v>167303.109778943</v>
       </c>
       <c r="E17">
-        <v>163786.58322023</v>
+        <v>169510.281242599</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4143,7 +4143,7 @@
         <v>167464.968152866</v>
       </c>
       <c r="E18">
-        <v>164876.252080614</v>
+        <v>170114.756264039</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4160,7 +4160,7 @@
         <v>166965.904833271</v>
       </c>
       <c r="E19">
-        <v>164526.790553412</v>
+        <v>169814.491228649</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4177,7 +4177,7 @@
         <v>165402.772573998</v>
       </c>
       <c r="E20">
-        <v>163149.382668938</v>
+        <v>168595.264591352</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4194,7 +4194,7 @@
         <v>162759.835144249</v>
       </c>
       <c r="E21">
-        <v>161275.936542429</v>
+        <v>167299.97261389</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4211,7 +4211,7 @@
         <v>160353.690520794</v>
       </c>
       <c r="E22">
-        <v>160382.052495966</v>
+        <v>165999.464028726</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4228,7 +4228,7 @@
         <v>158829.524166354</v>
       </c>
       <c r="E23">
-        <v>159306.333375314</v>
+        <v>164314.465345103</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4245,7 +4245,7 @@
         <v>158589.733982765</v>
       </c>
       <c r="E24">
-        <v>157913.466675537</v>
+        <v>162991.687532548</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4262,7 +4262,7 @@
         <v>158483.327088797</v>
       </c>
       <c r="E25">
-        <v>157535.865075913</v>
+        <v>162059.222537033</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4279,7 +4279,7 @@
         <v>158536.530535781</v>
       </c>
       <c r="E26">
-        <v>158371.403558209</v>
+        <v>161708.051005126</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4296,7 +4296,7 @@
         <v>159033.345822405</v>
       </c>
       <c r="E27">
-        <v>159711.326279012</v>
+        <v>161579.643092997</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4313,7 +4313,7 @@
         <v>159705.507680779</v>
       </c>
       <c r="E28">
-        <v>160645.308510231</v>
+        <v>161592.499029622</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4330,7 +4330,7 @@
         <v>160207.56837767</v>
       </c>
       <c r="E29">
-        <v>160810.760135359</v>
+        <v>162408.780839043</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4347,7 +4347,7 @@
         <v>160720.119895092</v>
       </c>
       <c r="E30">
-        <v>161104.104771486</v>
+        <v>163037.862434912</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4364,7 +4364,7 @@
         <v>160892.469089547</v>
       </c>
       <c r="E31">
-        <v>162116.669919505</v>
+        <v>163409.197347296</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4381,7 +4381,7 @@
         <v>161112.776320719</v>
       </c>
       <c r="E32">
-        <v>163058.088161443</v>
+        <v>163659.485842074</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4398,7 +4398,7 @@
         <v>160908.205320345</v>
       </c>
       <c r="E33">
-        <v>163139.147255037</v>
+        <v>163808.533967296</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4415,7 +4415,7 @@
         <v>160946.421880854</v>
       </c>
       <c r="E34">
-        <v>162699.30562345</v>
+        <v>163944.220812295</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4432,7 +4432,7 @@
         <v>161619.333083552</v>
       </c>
       <c r="E35">
-        <v>162897.691828524</v>
+        <v>164215.594502293</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4449,7 +4449,7 @@
         <v>163071.562382915</v>
       </c>
       <c r="E36">
-        <v>163294.464238672</v>
+        <v>164758.341882288</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4466,7 +4466,7 @@
         <v>164447.358561259</v>
       </c>
       <c r="E37">
-        <v>164569.088353698</v>
+        <v>166029.948364367</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4483,7 +4483,7 @@
         <v>166077.182465343</v>
       </c>
       <c r="E38">
-        <v>166219.005776315</v>
+        <v>167202.714338708</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4500,7 +4500,7 @@
         <v>167619.333083552</v>
       </c>
       <c r="E39">
-        <v>167682.283723047</v>
+        <v>168287.85943069</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4517,7 +4517,7 @@
         <v>168994.379917572</v>
       </c>
       <c r="E40">
-        <v>168453.886983462</v>
+        <v>168994.379917572</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4534,7 +4534,7 @@
         <v>169791.682278007</v>
       </c>
       <c r="E41">
-        <v>170054.554510657</v>
+        <v>170427.777635333</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4551,7 +4551,7 @@
         <v>170140.127388535</v>
       </c>
       <c r="E42">
-        <v>171225.019299244</v>
+        <v>171129.775212082</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4568,7 +4568,7 @@
         <v>170047.958036718</v>
       </c>
       <c r="E43">
-        <v>170972.392362865</v>
+        <v>170951.188312254</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4585,7 +4585,7 @@
         <v>168953.165979768</v>
       </c>
       <c r="E44">
-        <v>169673.660563737</v>
+        <v>169972.894841887</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4602,7 +4602,7 @@
         <v>166637.692019483</v>
       </c>
       <c r="E45">
-        <v>168468.921127032</v>
+        <v>169155.085577165</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4619,7 +4619,7 @@
         <v>164391.15773698</v>
       </c>
       <c r="E46">
-        <v>167234.87508307</v>
+        <v>168033.323611471</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4636,7 +4636,7 @@
         <v>163007.868115399</v>
       </c>
       <c r="E47">
-        <v>165551.269849139</v>
+        <v>166661.0805164</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4653,7 +4653,7 @@
         <v>162760.584488572</v>
       </c>
       <c r="E48">
-        <v>164473.006905472</v>
+        <v>165852.428803095</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4670,7 +4670,7 @@
         <v>162436.118396403</v>
       </c>
       <c r="E49">
-        <v>163570.494292525</v>
+        <v>165541.482100946</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4687,7 +4687,7 @@
         <v>162530.535781191</v>
       </c>
       <c r="E50">
-        <v>163671.402540322</v>
+        <v>165817.872389689</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4704,7 +4704,7 @@
         <v>162401.648557512</v>
       </c>
       <c r="E51">
-        <v>164023.569284021</v>
+        <v>166366.85369233</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4721,7 +4721,7 @@
         <v>162670.663169727</v>
       </c>
       <c r="E52">
-        <v>163701.885771334</v>
+        <v>166978.290851185</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4738,7 +4738,7 @@
         <v>162982.390408393</v>
       </c>
       <c r="E53">
-        <v>163366.213959224</v>
+        <v>167585.577108788</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4755,7 +4755,7 @@
         <v>163470.213563132</v>
       </c>
       <c r="E54">
-        <v>164017.013657886</v>
+        <v>168191.183911012</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4772,7 +4772,7 @@
         <v>163754.215061821</v>
       </c>
       <c r="E55">
-        <v>165200.86274438</v>
+        <v>168735.241015236</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4789,7 +4789,7 @@
         <v>163822.405395279</v>
       </c>
       <c r="E56">
-        <v>165577.474210473</v>
+        <v>169085.655495919</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4806,7 +4806,7 @@
         <v>163490.445859873</v>
       </c>
       <c r="E57">
-        <v>165706.56767988</v>
+        <v>169206.812016818</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4823,7 +4823,7 @@
         <v>163701.760959161</v>
       </c>
       <c r="E58">
-        <v>165694.115839567</v>
+        <v>169238.802575975</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4840,7 +4840,7 @@
         <v>164558.261521169</v>
       </c>
       <c r="E59">
-        <v>165756.707551917</v>
+        <v>169327.864416815</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4857,7 +4857,7 @@
         <v>166068.939677782</v>
       </c>
       <c r="E60">
-        <v>165903.245060066</v>
+        <v>169556.149543545</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4874,7 +4874,7 @@
         <v>167557.137504683</v>
       </c>
       <c r="E61">
-        <v>167102.923197715</v>
+        <v>170291.509342714</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4891,7 +4891,7 @@
         <v>169085.050580742</v>
       </c>
       <c r="E62">
-        <v>168220.807905979</v>
+        <v>171172.741509634</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4908,7 +4908,7 @@
         <v>170606.968902211</v>
       </c>
       <c r="E63">
-        <v>169499.328504024</v>
+        <v>172292.884504183</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4925,7 +4925,7 @@
         <v>172043.461970776</v>
       </c>
       <c r="E64">
-        <v>170318.918638379</v>
+        <v>172955.88381526</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4942,7 +4942,7 @@
         <v>172821.281378794</v>
       </c>
       <c r="E65">
-        <v>171963.710491201</v>
+        <v>174464.237970841</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4959,7 +4959,7 @@
         <v>173057.324840764</v>
       </c>
       <c r="E66">
-        <v>172601.294183249</v>
+        <v>174988.058647025</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4976,7 +4976,7 @@
         <v>172794.30498314</v>
       </c>
       <c r="E67">
-        <v>172361.353376758</v>
+        <v>174710.774284539</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4993,7 +4993,7 @@
         <v>171474.709629075</v>
       </c>
       <c r="E68">
-        <v>171027.366240427</v>
+        <v>173657.112507974</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5010,7 +5010,7 @@
         <v>169077.557137505</v>
       </c>
       <c r="E69">
-        <v>169550.555423645</v>
+        <v>172950.440053502</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5027,7 +5027,7 @@
         <v>166968.152866242</v>
       </c>
       <c r="E70">
-        <v>168638.442920229</v>
+        <v>172013.882332346</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5044,7 +5044,7 @@
         <v>165479.205695017</v>
       </c>
       <c r="E71">
-        <v>166900.589391492</v>
+        <v>171310.881859743</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5061,7 +5061,7 @@
         <v>165536.905207943</v>
       </c>
       <c r="E72">
-        <v>165806.285967532</v>
+        <v>170614.767900307</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5078,7 +5078,7 @@
         <v>165634.319970026</v>
       </c>
       <c r="E73">
-        <v>166140.370412843</v>
+        <v>170007.238945669</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5095,7 +5095,7 @@
         <v>165719.74522293</v>
       </c>
       <c r="E74">
-        <v>166730.35834661</v>
+        <v>169529.643309481</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5112,7 +5112,7 @@
         <v>165813.413263395</v>
       </c>
       <c r="E75">
-        <v>166394.575864087</v>
+        <v>169161.794983223</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5129,7 +5129,7 @@
         <v>166232.296740352</v>
       </c>
       <c r="E76">
-        <v>166165.65160293</v>
+        <v>168892.632012093</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5146,7 +5146,7 @@
         <v>166538.029224429</v>
       </c>
       <c r="E77">
-        <v>166070.97681829</v>
+        <v>168748.476037813</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5163,7 +5163,7 @@
         <v>166828.774822031</v>
       </c>
       <c r="E78">
-        <v>166160.782805809</v>
+        <v>168778.547638521</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5180,7 +5180,7 @@
         <v>166849.007118771</v>
       </c>
       <c r="E79">
-        <v>166383.605199269</v>
+        <v>168899.484034502</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5197,7 +5197,7 @@
         <v>166412.888722368</v>
       </c>
       <c r="E80">
-        <v>166654.895632666</v>
+        <v>168983.972345766</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5214,7 +5214,7 @@
         <v>165659.048332709</v>
       </c>
       <c r="E81">
-        <v>166634.116290956</v>
+        <v>168917.919718486</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5231,7 +5231,7 @@
         <v>165503.934057699</v>
       </c>
       <c r="E82">
-        <v>165852.107947624</v>
+        <v>168902.68264409</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5248,7 +5248,7 @@
         <v>166143.12476583</v>
       </c>
       <c r="E83">
-        <v>165520.306811131</v>
+        <v>168922.369940348</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5265,7 +5265,7 @@
         <v>167158.486324466</v>
       </c>
       <c r="E84">
-        <v>165571.280337451</v>
+        <v>168961.744532865</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5282,7 +5282,7 @@
         <v>168044.211315099</v>
       </c>
       <c r="E85">
-        <v>166274.734925496</v>
+        <v>169662.689867003</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5299,7 +5299,7 @@
         <v>169212.439115774</v>
       </c>
       <c r="E86">
-        <v>167159.41515837</v>
+        <v>170289.047513539</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5316,7 +5316,7 @@
         <v>170559.760209816</v>
       </c>
       <c r="E87">
-        <v>167974.84258025</v>
+        <v>171063.215246243</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5333,7 +5333,7 @@
         <v>171785.687523417</v>
       </c>
       <c r="E88">
-        <v>168291.058697729</v>
+        <v>171785.687523417</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5350,7 +5350,7 @@
         <v>172516.298239041</v>
       </c>
       <c r="E89">
-        <v>169357.003818554</v>
+        <v>172769.204054559</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5367,7 +5367,7 @@
         <v>172645.934807044</v>
       </c>
       <c r="E90">
-        <v>169827.368150849</v>
+        <v>172645.934807044</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5384,7 +5384,7 @@
         <v>172101.161483702</v>
       </c>
       <c r="E91">
-        <v>169333.119921452</v>
+        <v>172103.667112382</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5401,7 +5401,7 @@
         <v>170488.572499063</v>
       </c>
       <c r="E92">
-        <v>167746.068815995</v>
+        <v>170488.572499063</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5418,7 +5418,7 @@
         <v>167542.150618209</v>
       </c>
       <c r="E93">
-        <v>165843.297211585</v>
+        <v>167544.197354881</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5435,7 +5435,7 @@
         <v>164423.3795429</v>
       </c>
       <c r="E94">
-        <v>163682.830225198</v>
+        <v>164618.695373418</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5452,7 +5452,7 @@
         <v>161440.989134507</v>
       </c>
       <c r="E95">
-        <v>161511.362021393</v>
+        <v>162554.483056169</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5469,7 +5469,7 @@
         <v>158920.944173848</v>
       </c>
       <c r="E96">
-        <v>159605.241047552</v>
+        <v>160752.367033414</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5486,7 +5486,7 @@
         <v>156710.378418884</v>
       </c>
       <c r="E97">
-        <v>158121.174854505</v>
+        <v>159360.501904562</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5503,7 +5503,7 @@
         <v>155111.277632072</v>
       </c>
       <c r="E98">
-        <v>157067.702872776</v>
+        <v>158391.856335834</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5520,7 +5520,7 @@
         <v>153853.877856875</v>
       </c>
       <c r="E99">
-        <v>156408.943461008</v>
+        <v>157795.687051198</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5537,7 +5537,7 @@
         <v>152930.685650056</v>
       </c>
       <c r="E100">
-        <v>155952.094535028</v>
+        <v>157386.251753503</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5554,7 +5554,7 @@
         <v>152354.439865118</v>
       </c>
       <c r="E101">
-        <v>155348.035400865</v>
+        <v>157014.806104008</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5571,7 +5571,7 @@
         <v>151554.140127389</v>
       </c>
       <c r="E102">
-        <v>154876.58380121</v>
+        <v>156563.059191794</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5588,7 +5588,7 @@
         <v>150342.450355939</v>
       </c>
       <c r="E103">
-        <v>154797.110885576</v>
+        <v>155929.309746712</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5605,7 +5605,7 @@
         <v>148940.427126265</v>
       </c>
       <c r="E104">
-        <v>153868.439948925</v>
+        <v>154959.652724984</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5622,7 +5622,7 @@
         <v>147391.532409142</v>
       </c>
       <c r="E105">
-        <v>152458.3504822</v>
+        <v>153565.013524052</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5639,7 +5639,7 @@
         <v>146233.795429</v>
       </c>
       <c r="E106">
-        <v>150969.899228586</v>
+        <v>152196.061458623</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5656,7 +5656,7 @@
         <v>145792.43162233</v>
       </c>
       <c r="E107">
-        <v>149699.042505543</v>
+        <v>150995.954425889</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5673,7 +5673,7 @@
         <v>145928.062944923</v>
       </c>
       <c r="E108">
-        <v>149102.378729589</v>
+        <v>150062.429824479</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5690,7 +5690,7 @@
         <v>146091.420007493</v>
       </c>
       <c r="E109">
-        <v>149646.04130907</v>
+        <v>149596.559411336</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5707,7 +5707,7 @@
         <v>146355.189209442</v>
       </c>
       <c r="E110">
-        <v>150522.810161099</v>
+        <v>149709.049362939</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5724,7 +5724,7 @@
         <v>147035.593855377</v>
       </c>
       <c r="E111">
-        <v>150609.197114078</v>
+        <v>149803.557191968</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5741,7 +5741,7 @@
         <v>147972.274260022</v>
       </c>
       <c r="E112">
-        <v>150735.477889061</v>
+        <v>149915.344309087</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5758,7 +5758,7 @@
         <v>148490.071187711</v>
       </c>
       <c r="E113">
-        <v>151849.458918955</v>
+        <v>150098.212391208</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5775,7 +5775,7 @@
         <v>148709.62907456</v>
       </c>
       <c r="E114">
-        <v>152260.397122664</v>
+        <v>151147.268912242</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5792,7 +5792,7 @@
         <v>148513.300861746</v>
       </c>
       <c r="E115">
-        <v>151739.785699555</v>
+        <v>151958.421291995</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5809,7 +5809,7 @@
         <v>147993.255901087</v>
       </c>
       <c r="E116">
-        <v>150590.949708481</v>
+        <v>151101.163883778</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5826,7 +5826,7 @@
         <v>146903.709254402</v>
       </c>
       <c r="E117">
-        <v>149276.064837834</v>
+        <v>150116.901661256</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5843,7 +5843,7 @@
         <v>145418.508804796</v>
       </c>
       <c r="E118">
-        <v>148333.539391995</v>
+        <v>149345.592139565</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5860,7 +5860,7 @@
         <v>143708.505058074</v>
       </c>
       <c r="E119">
-        <v>147170.523299193</v>
+        <v>148365.219067936</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5877,7 +5877,7 @@
         <v>142057.699512926</v>
       </c>
       <c r="E120">
-        <v>145925.52096973</v>
+        <v>147275.467901432</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5894,7 +5894,7 @@
         <v>140478.831022855</v>
       </c>
       <c r="E121">
-        <v>144736.944057963</v>
+        <v>146151.8251914</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5911,7 +5911,7 @@
         <v>139355.563881604</v>
       </c>
       <c r="E122">
-        <v>143690.144653485</v>
+        <v>145148.507480013</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5928,7 +5928,7 @@
         <v>139056.575496441</v>
       </c>
       <c r="E123">
-        <v>142891.064503447</v>
+        <v>144368.383996993</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5945,7 +5945,7 @@
         <v>139219.932559011</v>
       </c>
       <c r="E124">
-        <v>142299.328155622</v>
+        <v>143788.202455286</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5962,7 +5962,7 @@
         <v>139438.741101536</v>
       </c>
       <c r="E125">
-        <v>142373.941035829</v>
+        <v>143453.71217116</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5979,7 +5979,7 @@
         <v>139567.628325215</v>
       </c>
       <c r="E126">
-        <v>142513.282501832</v>
+        <v>143593.040168418</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5996,7 +5996,7 @@
         <v>139533.907830648</v>
       </c>
       <c r="E127">
-        <v>142796.709460904</v>
+        <v>143859.333586119</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -6013,7 +6013,7 @@
         <v>139153.990258524</v>
       </c>
       <c r="E128">
-        <v>143091.615718848</v>
+        <v>144021.803461284</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -6030,7 +6030,7 @@
         <v>138407.643312102</v>
       </c>
       <c r="E129">
-        <v>142607.323556113</v>
+        <v>144043.18815567</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -6047,7 +6047,7 @@
         <v>138080.179842638</v>
       </c>
       <c r="E130">
-        <v>141837.240202364</v>
+        <v>143986.661294867</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -6064,7 +6064,7 @@
         <v>138503.559385538</v>
       </c>
       <c r="E131">
-        <v>141265.068973633</v>
+        <v>144087.106426705</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -6081,7 +6081,7 @@
         <v>139543.649306856</v>
       </c>
       <c r="E132">
-        <v>142168.66395576</v>
+        <v>144668.29727891</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -6098,7 +6098,7 @@
         <v>140307.231172724</v>
       </c>
       <c r="E133">
-        <v>143223.190965702</v>
+        <v>144999.509250029</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -6115,7 +6115,7 @@
         <v>141139.003372049</v>
       </c>
       <c r="E134">
-        <v>143949.91074318</v>
+        <v>145325.175569242</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6132,7 +6132,7 @@
         <v>142231.547396029</v>
       </c>
       <c r="E135">
-        <v>144123.746283475</v>
+        <v>145205.296506637</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -6149,7 +6149,7 @@
         <v>143441.738478831</v>
       </c>
       <c r="E136">
-        <v>144566.286167167</v>
+        <v>145319.577441268</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -6166,7 +6166,7 @@
         <v>144103.409516673</v>
       </c>
       <c r="E137">
-        <v>145693.232824714</v>
+        <v>146363.215981778</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -6183,7 +6183,7 @@
         <v>144490.820532034</v>
       </c>
       <c r="E138">
-        <v>146724.849927637</v>
+        <v>147314.456639747</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6200,7 +6200,7 @@
         <v>144613.713001124</v>
       </c>
       <c r="E139">
-        <v>145975.068212327</v>
+        <v>147218.44751164</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -6217,7 +6217,7 @@
         <v>144489.321843387</v>
       </c>
       <c r="E140">
-        <v>145061.766494104</v>
+        <v>146382.01176104</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6234,7 +6234,7 @@
         <v>144250.281004121</v>
       </c>
       <c r="E141">
-        <v>144125.934444027</v>
+        <v>145754.904897043</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6251,7 +6251,7 @@
         <v>144140.876732859</v>
       </c>
       <c r="E142">
-        <v>144131.185901602</v>
+        <v>146046.998368155</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -6268,7 +6268,7 @@
         <v>144523.042337954</v>
       </c>
       <c r="E143">
-        <v>144261.999147718</v>
+        <v>147099.223485044</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -6285,7 +6285,7 @@
         <v>145681.52866242</v>
       </c>
       <c r="E144">
-        <v>145139.923355619</v>
+        <v>148344.510058459</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -6302,7 +6302,7 @@
         <v>146872.236792806</v>
       </c>
       <c r="E145">
-        <v>146518.512633041</v>
+        <v>149649.54393161</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -6319,7 +6319,7 @@
         <v>148203.072311727</v>
       </c>
       <c r="E146">
-        <v>148046.278600387</v>
+        <v>151181.425826307</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -6336,7 +6336,7 @@
         <v>149919.070813039</v>
       </c>
       <c r="E147">
-        <v>149682.975541953</v>
+        <v>152941.27884701</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -6353,7 +6353,7 @@
         <v>151919.820157362</v>
       </c>
       <c r="E148">
-        <v>151418.274853089</v>
+        <v>154696.438105464</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6370,7 +6370,7 @@
         <v>153704.758336456</v>
       </c>
       <c r="E149">
-        <v>153158.20393721</v>
+        <v>156445.010347677</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6387,7 +6387,7 @@
         <v>155524.915698764</v>
       </c>
       <c r="E150">
-        <v>155182.758509195</v>
+        <v>158164.143641616</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6404,7 +6404,7 @@
         <v>157147.995503934</v>
       </c>
       <c r="E151">
-        <v>157143.76032719</v>
+        <v>159683.27674972</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6421,7 +6421,7 @@
         <v>158398.651180217</v>
       </c>
       <c r="E152">
-        <v>158869.512701638</v>
+        <v>160699.066287472</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6438,7 +6438,7 @@
         <v>159195.953540652</v>
       </c>
       <c r="E153">
-        <v>159773.973360081</v>
+        <v>161486.607510934</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6455,7 +6455,7 @@
         <v>160413.638066692</v>
       </c>
       <c r="E154">
-        <v>160351.640427443</v>
+        <v>162676.850124358</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6472,7 +6472,7 @@
         <v>162292.24428625</v>
       </c>
       <c r="E155">
-        <v>161606.80737906</v>
+        <v>164014.80395354</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6489,7 +6489,7 @@
         <v>164465.342825028</v>
       </c>
       <c r="E156">
-        <v>163453.26305996</v>
+        <v>165780.612431208</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6506,7 +6506,7 @@
         <v>166341.701011615</v>
       </c>
       <c r="E157">
-        <v>165507.15106201</v>
+        <v>167417.546575716</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6523,7 +6523,7 @@
         <v>168316.972648932</v>
       </c>
       <c r="E158">
-        <v>167535.682522166</v>
+        <v>168985.273334807</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6540,7 +6540,7 @@
         <v>170490.071187711</v>
       </c>
       <c r="E159">
-        <v>169460.777982158</v>
+        <v>170490.071187711</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6557,7 +6557,7 @@
         <v>171848.632446609</v>
       </c>
       <c r="E160">
-        <v>171623.392969863</v>
+        <v>171848.632446609</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6574,7 +6574,7 @@
         <v>172690.895466467</v>
       </c>
       <c r="E161">
-        <v>173222.949556995</v>
+        <v>173240.935593899</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6591,7 +6591,7 @@
         <v>173004.12139378</v>
       </c>
       <c r="E162">
-        <v>174280.75803611</v>
+        <v>174139.178603687</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6608,7 +6608,7 @@
         <v>172675.908579993</v>
       </c>
       <c r="E163">
-        <v>173692.483253504</v>
+        <v>173831.73040667</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6625,7 +6625,7 @@
         <v>171315.099288123</v>
       </c>
       <c r="E164">
-        <v>172220.91029191</v>
+        <v>171829.928006707</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6642,7 +6642,7 @@
         <v>168795.054327463</v>
       </c>
       <c r="E165">
-        <v>169947.223101141</v>
+        <v>169991.161302767</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6659,7 +6659,7 @@
         <v>166443.61183964</v>
       </c>
       <c r="E166">
-        <v>168231.454102575</v>
+        <v>168402.213634648</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6676,7 +6676,7 @@
         <v>164894.717122518</v>
       </c>
       <c r="E167">
-        <v>166634.748589639</v>
+        <v>166943.13473728</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6693,7 +6693,7 @@
         <v>164355.938553766</v>
       </c>
       <c r="E168">
-        <v>165651.021161478</v>
+        <v>165980.243298703</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6710,7 +6710,7 @@
         <v>163722.742600225</v>
       </c>
       <c r="E169">
-        <v>164677.652755175</v>
+        <v>165483.586813967</v>
       </c>
     </row>
   </sheetData>
@@ -6775,13 +6775,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1179.4669738455</v>
+        <v>1261.91680516705</v>
       </c>
       <c r="F2">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G2">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6810,13 +6810,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>544.772331657417</v>
+        <v>627.222162978964</v>
       </c>
       <c r="F3">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G3">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -6845,13 +6845,13 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>111.340968243405</v>
+        <v>121.647197158599</v>
       </c>
       <c r="F4">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G4">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6880,13 +6880,13 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>111.340968243405</v>
+        <v>121.647197158599</v>
       </c>
       <c r="F5">
-        <v>1881.50764785013</v>
+        <v>2086.38171952627</v>
       </c>
       <c r="G5">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6915,13 +6915,13 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>111.340968243405</v>
+        <v>121.647197158599</v>
       </c>
       <c r="F6">
-        <v>1112.74607219797</v>
+        <v>1087.51840120664</v>
       </c>
       <c r="G6">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -6950,13 +6950,13 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>111.340968243405</v>
+        <v>121.647197158599</v>
       </c>
       <c r="F7">
-        <v>1112.74607219797</v>
+        <v>1838.27821966448</v>
       </c>
       <c r="G7">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -6985,13 +6985,13 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>222.681936486811</v>
+        <v>243.294394317198</v>
       </c>
       <c r="F8">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G8">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7020,13 +7020,13 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>334.022904730216</v>
+        <v>364.941591475796</v>
       </c>
       <c r="F9">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G9">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -7055,13 +7055,13 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>890.727745947243</v>
+        <v>973.177577268791</v>
       </c>
       <c r="F10">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G10">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7090,13 +7090,13 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>711.935539201901</v>
+        <v>1216.47197158599</v>
       </c>
       <c r="F11">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G11">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -7125,13 +7125,13 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>861.75717717123</v>
+        <v>1703.06076022038</v>
       </c>
       <c r="F12">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G12">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -7160,13 +7160,13 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>1642.78214072367</v>
+        <v>1723.28979179971</v>
       </c>
       <c r="F13">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G13">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -7195,13 +7195,13 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>1114.85377298203</v>
+        <v>1723.13620731838</v>
       </c>
       <c r="F14">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G14">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -7230,13 +7230,13 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>613.884641892457</v>
+        <v>1722.82903835572</v>
       </c>
       <c r="F15">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G15">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -7265,13 +7265,13 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>347.852525110309</v>
+        <v>1722.2147004304</v>
       </c>
       <c r="F16">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G16">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -7300,13 +7300,13 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>898.289769128999</v>
+        <v>1720.98602457975</v>
       </c>
       <c r="F17">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G17">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -7335,13 +7335,13 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1790.94598324266</v>
+        <v>859.264336439229</v>
       </c>
       <c r="F18">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G18">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -7370,13 +7370,13 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>1787.69583660037</v>
+        <v>1450.70819939587</v>
       </c>
       <c r="F19">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G19">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -7405,13 +7405,13 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>1123.45348564768</v>
+        <v>1703.7845626707</v>
       </c>
       <c r="F20">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G20">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1112.96266511564</v>
+        <v>1684.12574906036</v>
       </c>
       <c r="F21">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G21">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -7475,13 +7475,13 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1742.19378360841</v>
+        <v>1644.80812183967</v>
       </c>
       <c r="F22">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G22">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -7510,13 +7510,13 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1690.19143733189</v>
+        <v>1566.1728673983</v>
       </c>
       <c r="F23">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G23">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -7545,13 +7545,13 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1586.18674477883</v>
+        <v>1408.90235851556</v>
       </c>
       <c r="F24">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G24">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -7580,13 +7580,13 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1378.17735967272</v>
+        <v>1094.36134075008</v>
       </c>
       <c r="F25">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G25">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -7615,13 +7615,13 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>481.079294730254</v>
+        <v>232.639652609562</v>
       </c>
       <c r="F26">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G26">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -7650,13 +7650,13 @@
         <v>26</v>
       </c>
       <c r="E27">
-        <v>67.2932670116737</v>
+        <v>513.05457936136</v>
       </c>
       <c r="F27">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G27">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -7685,13 +7685,13 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>101.234848920848</v>
+        <v>285.521151364127</v>
       </c>
       <c r="F28">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G28">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -7720,13 +7720,13 @@
         <v>28</v>
       </c>
       <c r="E29">
-        <v>101.234848920848</v>
+        <v>128.364394588961</v>
       </c>
       <c r="F29">
-        <v>2095.78121948919</v>
+        <v>2100.64616315998</v>
       </c>
       <c r="G29">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -7755,13 +7755,13 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>101.234848920848</v>
+        <v>128.364394588961</v>
       </c>
       <c r="F30">
-        <v>1112.74607219797</v>
+        <v>1087.51840120664</v>
       </c>
       <c r="G30">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -7790,13 +7790,13 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <v>168.528115932522</v>
+        <v>128.364394588961</v>
       </c>
       <c r="F31">
-        <v>1202.82386203497</v>
+        <v>1680.65945664017</v>
       </c>
       <c r="G31">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -7825,13 +7825,13 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>269.762964853371</v>
+        <v>256.728789177921</v>
       </c>
       <c r="F32">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G32">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -7860,13 +7860,13 @@
         <v>32</v>
       </c>
       <c r="E33">
-        <v>370.997813774213</v>
+        <v>385.093183766882</v>
       </c>
       <c r="F33">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G33">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -7895,13 +7895,13 @@
         <v>33</v>
       </c>
       <c r="E34">
-        <v>944.465325390138</v>
+        <v>1026.91515671168</v>
       </c>
       <c r="F34">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G34">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -7930,13 +7930,13 @@
         <v>34</v>
       </c>
       <c r="E35">
-        <v>1281.52155725518</v>
+        <v>1283.64394588961</v>
       </c>
       <c r="F35">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G35">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -7965,13 +7965,13 @@
         <v>35</v>
       </c>
       <c r="E36">
-        <v>1794.17904327267</v>
+        <v>1723.42431178562</v>
       </c>
       <c r="F36">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G36">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -8000,13 +8000,13 @@
         <v>36</v>
       </c>
       <c r="E37">
-        <v>1794.16195666039</v>
+        <v>1723.40524729019</v>
       </c>
       <c r="F37">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G37">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -8035,13 +8035,13 @@
         <v>37</v>
       </c>
       <c r="E38">
-        <v>1794.12778343585</v>
+        <v>1723.36711829933</v>
       </c>
       <c r="F38">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G38">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>38</v>
       </c>
       <c r="E39">
-        <v>1794.05943698676</v>
+        <v>1723.29086031762</v>
       </c>
       <c r="F39">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G39">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -8105,13 +8105,13 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>1793.92274408858</v>
+        <v>1723.13834435419</v>
       </c>
       <c r="F40">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G40">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -8140,13 +8140,13 @@
         <v>40</v>
       </c>
       <c r="E41">
-        <v>1793.64935829221</v>
+        <v>1722.83331242734</v>
       </c>
       <c r="F41">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G41">
-        <v>4360.40244039475</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -8175,16 +8175,16 @@
         <v>41</v>
       </c>
       <c r="E42">
-        <v>1793.10258669948</v>
+        <v>1722.22324857363</v>
       </c>
       <c r="F42">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G42">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H42">
-        <v>34.0703088930986</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>245.082009809996</v>
@@ -8210,13 +8210,13 @@
         <v>42</v>
       </c>
       <c r="E43">
-        <v>1792.00904351402</v>
+        <v>1721.00312086621</v>
       </c>
       <c r="F43">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G43">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -8245,13 +8245,13 @@
         <v>43</v>
       </c>
       <c r="E44">
-        <v>1190.89447478218</v>
+        <v>1718.56286545139</v>
       </c>
       <c r="F44">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G44">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -8280,13 +8280,13 @@
         <v>44</v>
       </c>
       <c r="E45">
-        <v>1785.44778440127</v>
+        <v>1713.68235462175</v>
       </c>
       <c r="F45">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G45">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -8315,13 +8315,13 @@
         <v>45</v>
       </c>
       <c r="E46">
-        <v>1776.69943891761</v>
+        <v>1703.92133296246</v>
       </c>
       <c r="F46">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G46">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -8350,13 +8350,13 @@
         <v>46</v>
       </c>
       <c r="E47">
-        <v>1759.20274795028</v>
+        <v>1684.39928964388</v>
       </c>
       <c r="F47">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G47">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -8385,13 +8385,13 @@
         <v>47</v>
       </c>
       <c r="E48">
-        <v>1724.20936601561</v>
+        <v>1645.35520300672</v>
       </c>
       <c r="F48">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G48">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -8420,13 +8420,13 @@
         <v>48</v>
       </c>
       <c r="E49">
-        <v>1654.22260214629</v>
+        <v>1567.2670297324</v>
       </c>
       <c r="F49">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G49">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>49</v>
       </c>
       <c r="E50">
-        <v>757.124537203818</v>
+        <v>811.796525797294</v>
       </c>
       <c r="F50">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G50">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -8490,13 +8490,13 @@
         <v>50</v>
       </c>
       <c r="E51">
-        <v>617.151009465167</v>
+        <v>786.832503930631</v>
       </c>
       <c r="F51">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G51">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -8525,13 +8525,13 @@
         <v>51</v>
       </c>
       <c r="E52">
-        <v>337.203953987863</v>
+        <v>237.016301945936</v>
       </c>
       <c r="F52">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G52">
-        <v>4360.40244039477</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -8560,13 +8560,13 @@
         <v>52</v>
       </c>
       <c r="E53">
-        <v>128.410635694599</v>
+        <v>138.716864609792</v>
       </c>
       <c r="F53">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G53">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -8595,13 +8595,13 @@
         <v>53</v>
       </c>
       <c r="E54">
-        <v>128.410635694599</v>
+        <v>138.716864609792</v>
       </c>
       <c r="F54">
-        <v>1112.74607219797</v>
+        <v>1249.42018574988</v>
       </c>
       <c r="G54">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -8630,13 +8630,13 @@
         <v>54</v>
       </c>
       <c r="E55">
-        <v>128.410635694599</v>
+        <v>138.716864609792</v>
       </c>
       <c r="F55">
-        <v>1892.46979365696</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G55">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -8665,13 +8665,13 @@
         <v>55</v>
       </c>
       <c r="E56">
-        <v>256.821271389198</v>
+        <v>277.433729219584</v>
       </c>
       <c r="F56">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G56">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -8700,13 +8700,13 @@
         <v>56</v>
       </c>
       <c r="E57">
-        <v>385.231907083796</v>
+        <v>416.150593829376</v>
       </c>
       <c r="F57">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G57">
-        <v>4360.40244039475</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -8735,13 +8735,13 @@
         <v>57</v>
       </c>
       <c r="E58">
-        <v>1027.28508555679</v>
+        <v>1109.73491687834</v>
       </c>
       <c r="F58">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G58">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -8770,13 +8770,13 @@
         <v>58</v>
       </c>
       <c r="E59">
-        <v>895.555295795468</v>
+        <v>1387.16864609792</v>
       </c>
       <c r="F59">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G59">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -8805,13 +8805,13 @@
         <v>59</v>
       </c>
       <c r="E60">
-        <v>1637.96757284392</v>
+        <v>1723.43312524323</v>
       </c>
       <c r="F60">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G60">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -8840,13 +8840,13 @@
         <v>60</v>
       </c>
       <c r="E61">
-        <v>1663.67779827412</v>
+        <v>1723.42287420542</v>
       </c>
       <c r="F61">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G61">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -8875,13 +8875,13 @@
         <v>61</v>
       </c>
       <c r="E62">
-        <v>845.283910005423</v>
+        <v>1723.40237212979</v>
       </c>
       <c r="F62">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G62">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -8910,13 +8910,13 @@
         <v>62</v>
       </c>
       <c r="E63">
-        <v>746.411069626513</v>
+        <v>1723.36136797854</v>
       </c>
       <c r="F63">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G63">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -8945,13 +8945,13 @@
         <v>63</v>
       </c>
       <c r="E64">
-        <v>1793.98604319405</v>
+        <v>1723.27935967604</v>
       </c>
       <c r="F64">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G64">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -8980,13 +8980,13 @@
         <v>64</v>
       </c>
       <c r="E65">
-        <v>1793.77595650315</v>
+        <v>1723.11534307104</v>
       </c>
       <c r="F65">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G65">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>65</v>
       </c>
       <c r="E66">
-        <v>1793.35578312136</v>
+        <v>1722.78730986104</v>
       </c>
       <c r="F66">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G66">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -9050,13 +9050,13 @@
         <v>66</v>
       </c>
       <c r="E67">
-        <v>1792.51543635779</v>
+        <v>1722.13124344103</v>
       </c>
       <c r="F67">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G67">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -9085,13 +9085,13 @@
         <v>67</v>
       </c>
       <c r="E68">
-        <v>1742.22619117744</v>
+        <v>1720.81911060102</v>
       </c>
       <c r="F68">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G68">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -9120,13 +9120,13 @@
         <v>68</v>
       </c>
       <c r="E69">
-        <v>1787.47335577632</v>
+        <v>1718.19484492099</v>
       </c>
       <c r="F69">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G69">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -9155,16 +9155,16 @@
         <v>69</v>
       </c>
       <c r="E70">
-        <v>1780.7505816677</v>
+        <v>1712.94631356093</v>
       </c>
       <c r="F70">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G70">
-        <v>4360.40244039476</v>
+        <v>4328.40795105615</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>125.403612624933</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -9190,16 +9190,16 @@
         <v>70</v>
       </c>
       <c r="E71">
-        <v>1767.30503345047</v>
+        <v>1702.44925084082</v>
       </c>
       <c r="F71">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G71">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H71">
-        <v>213.540834495372</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -9225,13 +9225,13 @@
         <v>71</v>
       </c>
       <c r="E72">
-        <v>1740.41393701599</v>
+        <v>1681.4551254006</v>
       </c>
       <c r="F72">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G72">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>72</v>
       </c>
       <c r="E73">
-        <v>1686.63174414704</v>
+        <v>1639.46687452016</v>
       </c>
       <c r="F73">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G73">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -9295,13 +9295,13 @@
         <v>73</v>
       </c>
       <c r="E74">
-        <v>977.559823003041</v>
+        <v>777.745186379634</v>
       </c>
       <c r="F74">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G74">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>74</v>
       </c>
       <c r="E75">
-        <v>681.969293466672</v>
+        <v>995.899570247604</v>
       </c>
       <c r="F75">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G75">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -9365,13 +9365,13 @@
         <v>75</v>
       </c>
       <c r="E76">
-        <v>466.840521990875</v>
+        <v>549.290353312423</v>
       </c>
       <c r="F76">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G76">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>76</v>
       </c>
       <c r="E77">
-        <v>128.155072118043</v>
+        <v>189.909674053456</v>
       </c>
       <c r="F77">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G77">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -9435,13 +9435,13 @@
         <v>77</v>
       </c>
       <c r="E78">
-        <v>128.155072118043</v>
+        <v>189.909674053432</v>
       </c>
       <c r="F78">
-        <v>1112.74607219797</v>
+        <v>1087.51840120664</v>
       </c>
       <c r="G78">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -9470,13 +9470,13 @@
         <v>78</v>
       </c>
       <c r="E79">
-        <v>256.310144236086</v>
+        <v>379.819348106865</v>
       </c>
       <c r="F79">
-        <v>1632.09175285864</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G79">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -9505,13 +9505,13 @@
         <v>79</v>
       </c>
       <c r="E80">
-        <v>384.465216354128</v>
+        <v>569.729022160297</v>
       </c>
       <c r="F80">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G80">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -9540,13 +9540,13 @@
         <v>80</v>
       </c>
       <c r="E81">
-        <v>512.620288472171</v>
+        <v>1519.27739242746</v>
       </c>
       <c r="F81">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G81">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -9575,13 +9575,13 @@
         <v>81</v>
       </c>
       <c r="E82">
-        <v>1281.55072118043</v>
+        <v>1723.43601050568</v>
       </c>
       <c r="F82">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G82">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -9610,13 +9610,13 @@
         <v>82</v>
       </c>
       <c r="E83">
-        <v>1794.1710096526</v>
+        <v>1723.42864473032</v>
       </c>
       <c r="F83">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G83">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -9645,13 +9645,13 @@
         <v>83</v>
       </c>
       <c r="E84">
-        <v>1794.14588942026</v>
+        <v>1723.41391317959</v>
       </c>
       <c r="F84">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G84">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -9680,13 +9680,13 @@
         <v>84</v>
       </c>
       <c r="E85">
-        <v>1794.09564895557</v>
+        <v>1723.38445007813</v>
       </c>
       <c r="F85">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G85">
-        <v>4360.40244039476</v>
+        <v>4328.40795105585</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -9715,13 +9715,13 @@
         <v>85</v>
       </c>
       <c r="E86">
-        <v>1793.99516802621</v>
+        <v>1723.32552387522</v>
       </c>
       <c r="F86">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G86">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -9750,13 +9750,13 @@
         <v>86</v>
       </c>
       <c r="E87">
-        <v>1793.79420616748</v>
+        <v>1723.2076714694</v>
       </c>
       <c r="F87">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G87">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -9785,13 +9785,13 @@
         <v>87</v>
       </c>
       <c r="E88">
-        <v>1793.39228245002</v>
+        <v>1722.97196665777</v>
       </c>
       <c r="F88">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G88">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -9820,13 +9820,13 @@
         <v>88</v>
       </c>
       <c r="E89">
-        <v>1792.58843501509</v>
+        <v>1722.50055703449</v>
       </c>
       <c r="F89">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G89">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -9855,16 +9855,16 @@
         <v>89</v>
       </c>
       <c r="E90">
-        <v>1790.98074014698</v>
+        <v>1721.55773778793</v>
       </c>
       <c r="F90">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G90">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H90">
-        <v>200.454952689252</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>93.3628619284997</v>
@@ -9890,13 +9890,13 @@
         <v>90</v>
       </c>
       <c r="E91">
-        <v>1787.7653504056</v>
+        <v>1719.67209929481</v>
       </c>
       <c r="F91">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G91">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -9925,13 +9925,13 @@
         <v>91</v>
       </c>
       <c r="E92">
-        <v>1179.65430992643</v>
+        <v>1715.90082230857</v>
       </c>
       <c r="F92">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G92">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>92</v>
       </c>
       <c r="E93">
-        <v>1371.48645679792</v>
+        <v>1708.3582683361</v>
       </c>
       <c r="F93">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G93">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9995,13 +9995,13 @@
         <v>93</v>
       </c>
       <c r="E94">
-        <v>1742.74989405022</v>
+        <v>1693.27316039116</v>
       </c>
       <c r="F94">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G94">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -10030,13 +10030,13 @@
         <v>94</v>
       </c>
       <c r="E95">
-        <v>1691.30365821549</v>
+        <v>1663.10294450128</v>
       </c>
       <c r="F95">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G95">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -10065,13 +10065,13 @@
         <v>95</v>
       </c>
       <c r="E96">
-        <v>1588.41118654605</v>
+        <v>1602.76251272152</v>
       </c>
       <c r="F96">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G96">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         <v>96</v>
       </c>
       <c r="E97">
-        <v>1370.79458449315</v>
+        <v>1482.08164916199</v>
       </c>
       <c r="F97">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G97">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -10135,13 +10135,13 @@
         <v>97</v>
       </c>
       <c r="E98">
-        <v>485.528178264687</v>
+        <v>1135.57305037293</v>
       </c>
       <c r="F98">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G98">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -10170,13 +10170,13 @@
         <v>98</v>
       </c>
       <c r="E99">
-        <v>73.9582915869041</v>
+        <v>378.998233902419</v>
       </c>
       <c r="F99">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G99">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>99</v>
       </c>
       <c r="E100">
-        <v>147.916583173808</v>
+        <v>1.06448553989573</v>
       </c>
       <c r="F100">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G100">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -10240,13 +10240,13 @@
         <v>100</v>
       </c>
       <c r="E101">
-        <v>1.49160137184957</v>
+        <v>1.06448553989573</v>
       </c>
       <c r="F101">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G101">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>101</v>
       </c>
       <c r="E102">
-        <v>1.49160137184957</v>
+        <v>1.06448553989573</v>
       </c>
       <c r="F102">
-        <v>1112.74600024649</v>
+        <v>2117.11133815172</v>
       </c>
       <c r="G102">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -10310,13 +10310,13 @@
         <v>102</v>
       </c>
       <c r="E103">
-        <v>2.98320274369915</v>
+        <v>2.12897107979147</v>
       </c>
       <c r="F103">
-        <v>1768.99448107844</v>
+        <v>1087.51840120664</v>
       </c>
       <c r="G103">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10345,13 +10345,13 @@
         <v>103</v>
       </c>
       <c r="E104">
-        <v>4.47480411554872</v>
+        <v>3.1934566196872</v>
       </c>
       <c r="F104">
-        <v>2225.49200049299</v>
+        <v>1087.51840120664</v>
       </c>
       <c r="G104">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10380,13 +10380,13 @@
         <v>104</v>
       </c>
       <c r="E105">
-        <v>5.9664054873983</v>
+        <v>4.25794215958293</v>
       </c>
       <c r="F105">
-        <v>2225.49200049299</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G105">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -10415,13 +10415,13 @@
         <v>105</v>
       </c>
       <c r="E106">
-        <v>7.45800685924787</v>
+        <v>5.32242769947866</v>
       </c>
       <c r="F106">
-        <v>2225.49200049299</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G106">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10450,13 +10450,13 @@
         <v>106</v>
       </c>
       <c r="E107">
-        <v>10.441209602947</v>
+        <v>7.45139877927013</v>
       </c>
       <c r="F107">
-        <v>2225.49185659004</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G107">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10485,13 +10485,13 @@
         <v>107</v>
       </c>
       <c r="E108">
-        <v>14.9160137184957</v>
+        <v>10.6448553989573</v>
       </c>
       <c r="F108">
-        <v>2225.49171268709</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G108">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10520,13 +10520,13 @@
         <v>108</v>
       </c>
       <c r="E109">
-        <v>20.882419205894</v>
+        <v>14.9027975585403</v>
       </c>
       <c r="F109">
-        <v>2225.49156878414</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G109">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10555,13 +10555,13 @@
         <v>109</v>
       </c>
       <c r="E110">
-        <v>28.3404260651419</v>
+        <v>20.2252252580189</v>
       </c>
       <c r="F110">
-        <v>2225.49142488119</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G110">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10590,13 +10590,13 @@
         <v>110</v>
       </c>
       <c r="E111">
-        <v>38.7816356680889</v>
+        <v>27.676624037289</v>
       </c>
       <c r="F111">
-        <v>2225.49113707529</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G111">
-        <v>4360.40244039476</v>
+        <v>4328.40795105585</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10625,13 +10625,13 @@
         <v>111</v>
       </c>
       <c r="E112">
-        <v>53.6976493865847</v>
+        <v>38.3214794362464</v>
       </c>
       <c r="F112">
-        <v>2225.49070536645</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G112">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10660,13 +10660,13 @@
         <v>112</v>
       </c>
       <c r="E113">
-        <v>74.5800685924787</v>
+        <v>53.2242769947866</v>
       </c>
       <c r="F113">
-        <v>2225.49012975465</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G113">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10695,13 +10695,13 @@
         <v>113</v>
       </c>
       <c r="E114">
-        <v>102.920494657621</v>
+        <v>73.4495022528056</v>
       </c>
       <c r="F114">
-        <v>1800.95427115052</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G114">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10730,13 +10730,13 @@
         <v>114</v>
       </c>
       <c r="E115">
-        <v>141.70213032571</v>
+        <v>101.126126290095</v>
       </c>
       <c r="F115">
-        <v>2225.48840291927</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G115">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10765,13 +10765,13 @@
         <v>115</v>
       </c>
       <c r="E116">
-        <v>195.399779712294</v>
+        <v>278.895211452682</v>
       </c>
       <c r="F116">
-        <v>2225.48696388978</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G116">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10800,13 +10800,13 @@
         <v>116</v>
       </c>
       <c r="E117">
-        <v>269.979848304773</v>
+        <v>385.343765442255</v>
       </c>
       <c r="F117">
-        <v>2225.48494924849</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G117">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10835,13 +10835,13 @@
         <v>117</v>
       </c>
       <c r="E118">
-        <v>745.800685924787</v>
+        <v>532.242769947866</v>
       </c>
       <c r="F118">
-        <v>2225.48221509247</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G118">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10870,13 +10870,13 @@
         <v>118</v>
       </c>
       <c r="E119">
-        <v>1029.20494657621</v>
+        <v>734.495022528056</v>
       </c>
       <c r="F119">
-        <v>2225.47847361579</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G119">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>119</v>
       </c>
       <c r="E120">
-        <v>1029.20494657621</v>
+        <v>757.041694826075</v>
       </c>
       <c r="F120">
-        <v>2225.47329310964</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G120">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -10940,13 +10940,13 @@
         <v>120</v>
       </c>
       <c r="E121">
-        <v>244.62262498333</v>
+        <v>185.848964691911</v>
       </c>
       <c r="F121">
-        <v>2225.46609796217</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G121">
-        <v>4360.40244039476</v>
+        <v>4328.40795105585</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -10975,13 +10975,13 @@
         <v>121</v>
       </c>
       <c r="E122">
-        <v>141.70213032571</v>
+        <v>112.399462439106</v>
       </c>
       <c r="F122">
-        <v>2225.45616865877</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G122">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11010,13 +11010,13 @@
         <v>122</v>
       </c>
       <c r="E123">
-        <v>2.77801876264179</v>
+        <v>114.660163542685</v>
       </c>
       <c r="F123">
-        <v>2225.44249787859</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G123">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11045,13 +11045,13 @@
         <v>123</v>
       </c>
       <c r="E124">
-        <v>2.77801876264179</v>
+        <v>229.320327085371</v>
       </c>
       <c r="F124">
-        <v>2225.42364659229</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G124">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11080,13 +11080,13 @@
         <v>124</v>
       </c>
       <c r="E125">
-        <v>2.77801876264179</v>
+        <v>2.26070110357966</v>
       </c>
       <c r="F125">
-        <v>1772.56586835114</v>
+        <v>2102.35869890838</v>
       </c>
       <c r="G125">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11115,13 +11115,13 @@
         <v>125</v>
       </c>
       <c r="E126">
-        <v>2.77801876264179</v>
+        <v>2.26070110357966</v>
       </c>
       <c r="F126">
-        <v>1112.68081221069</v>
+        <v>1087.51840120664</v>
       </c>
       <c r="G126">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11150,13 +11150,13 @@
         <v>126</v>
       </c>
       <c r="E127">
-        <v>5.55603752528358</v>
+        <v>4.52140220715931</v>
       </c>
       <c r="F127">
-        <v>1112.655988952</v>
+        <v>1290.4129260533</v>
       </c>
       <c r="G127">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11185,13 +11185,13 @@
         <v>127</v>
       </c>
       <c r="E128">
-        <v>8.33405628792537</v>
+        <v>6.78210331073897</v>
       </c>
       <c r="F128">
-        <v>1915.1713339655</v>
+        <v>1948.71777628159</v>
       </c>
       <c r="G128">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>128</v>
       </c>
       <c r="E129">
-        <v>11.1120750505672</v>
+        <v>9.04280441431862</v>
       </c>
       <c r="F129">
-        <v>2023.93915181103</v>
+        <v>2058.00291178618</v>
       </c>
       <c r="G129">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -11255,13 +11255,13 @@
         <v>129</v>
       </c>
       <c r="E130">
-        <v>13.8900938132089</v>
+        <v>22.6070110357966</v>
       </c>
       <c r="F130">
-        <v>2159.77149421548</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G130">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -11290,13 +11290,13 @@
         <v>130</v>
       </c>
       <c r="E131">
-        <v>19.4461313384925</v>
+        <v>31.6498154501152</v>
       </c>
       <c r="F131">
-        <v>2225.01841588834</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G131">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -11325,13 +11325,13 @@
         <v>131</v>
       </c>
       <c r="E132">
-        <v>27.7801876264179</v>
+        <v>45.2140220715931</v>
       </c>
       <c r="F132">
-        <v>2225.01841588834</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G132">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -11360,13 +11360,13 @@
         <v>132</v>
       </c>
       <c r="E133">
-        <v>38.892262676985</v>
+        <v>63.2996309002304</v>
       </c>
       <c r="F133">
-        <v>2224.6752073553</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G133">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -11395,13 +11395,13 @@
         <v>133</v>
       </c>
       <c r="E134">
-        <v>52.782356490194</v>
+        <v>85.9066419360269</v>
       </c>
       <c r="F134">
-        <v>2224.20147884777</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G134">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -11430,13 +11430,13 @@
         <v>134</v>
       </c>
       <c r="E135">
-        <v>72.2284878286865</v>
+        <v>117.556457386142</v>
       </c>
       <c r="F135">
-        <v>2223.72775034019</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G135">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -11465,13 +11465,13 @@
         <v>135</v>
       </c>
       <c r="E136">
-        <v>100.008675455104</v>
+        <v>162.770479457735</v>
       </c>
       <c r="F136">
-        <v>2223.25402183261</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G136">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -11500,13 +11500,13 @@
         <v>136</v>
       </c>
       <c r="E137">
-        <v>138.900938132089</v>
+        <v>226.070110357966</v>
       </c>
       <c r="F137">
-        <v>2222.43708479204</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G137">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -11535,13 +11535,13 @@
         <v>137</v>
       </c>
       <c r="E138">
-        <v>383.366589244567</v>
+        <v>311.976752293992</v>
       </c>
       <c r="F138">
-        <v>2221.14641924387</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G138">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -11570,13 +11570,13 @@
         <v>138</v>
       </c>
       <c r="E139">
-        <v>191.683294622283</v>
+        <v>429.533209680135</v>
       </c>
       <c r="F139">
-        <v>2219.38202518813</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G139">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -11605,13 +11605,13 @@
         <v>139</v>
       </c>
       <c r="E140">
-        <v>253.871575965406</v>
+        <v>592.30368913787</v>
       </c>
       <c r="F140">
-        <v>2217.14390262478</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G140">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -11640,13 +11640,13 @@
         <v>140</v>
       </c>
       <c r="E141">
-        <v>392.772514097495</v>
+        <v>818.373799495835</v>
       </c>
       <c r="F141">
-        <v>2214.08884302079</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G141">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -11675,13 +11675,13 @@
         <v>141</v>
       </c>
       <c r="E142">
-        <v>1153.57477761653</v>
+        <v>991.392263040755</v>
       </c>
       <c r="F142">
-        <v>2209.74311786865</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G142">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -11710,13 +11710,13 @@
         <v>142</v>
       </c>
       <c r="E143">
-        <v>1263.34299269666</v>
+        <v>440.822762454423</v>
       </c>
       <c r="F143">
-        <v>2203.63299866073</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G143">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -11745,13 +11745,13 @@
         <v>143</v>
       </c>
       <c r="E144">
-        <v>818.784410158559</v>
+        <v>528.21562022539</v>
       </c>
       <c r="F144">
-        <v>2195.28475688951</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G144">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -11780,13 +11780,13 @@
         <v>144</v>
       </c>
       <c r="E145">
-        <v>238.898982250834</v>
+        <v>86.5092317724597</v>
       </c>
       <c r="F145">
-        <v>2183.88145551435</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G145">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -11815,13 +11815,13 @@
         <v>145</v>
       </c>
       <c r="E146">
-        <v>47.2156876285511</v>
+        <v>86.5092317724597</v>
       </c>
       <c r="F146">
-        <v>2168.13242898707</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G146">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -11850,13 +11850,13 @@
         <v>146</v>
       </c>
       <c r="E147">
-        <v>94.4313752571021</v>
+        <v>173.018463544919</v>
       </c>
       <c r="F147">
-        <v>2146.27328325188</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G147">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -11885,13 +11885,13 @@
         <v>147</v>
       </c>
       <c r="E148">
-        <v>141.647062885653</v>
+        <v>173.018463544919</v>
       </c>
       <c r="F148">
-        <v>2116.06589574544</v>
+        <v>2116.68898442508</v>
       </c>
       <c r="G148">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -11920,13 +11920,13 @@
         <v>148</v>
       </c>
       <c r="E149">
-        <v>141.647062885653</v>
+        <v>173.018463544919</v>
       </c>
       <c r="F149">
-        <v>1037.22760343193</v>
+        <v>1693.87144976789</v>
       </c>
       <c r="G149">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -11955,13 +11955,13 @@
         <v>149</v>
       </c>
       <c r="E150">
-        <v>141.647062885653</v>
+        <v>173.018463544919</v>
       </c>
       <c r="F150">
-        <v>1008.5477457275</v>
+        <v>1087.51840120664</v>
       </c>
       <c r="G150">
-        <v>4337.5723843615</v>
+        <v>4237.19963914946</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -11990,13 +11990,13 @@
         <v>150</v>
       </c>
       <c r="E151">
-        <v>236.078438142755</v>
+        <v>346.036927089839</v>
       </c>
       <c r="F151">
-        <v>1008.5477457275</v>
+        <v>1087.51840120664</v>
       </c>
       <c r="G151">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -12025,13 +12025,13 @@
         <v>151</v>
       </c>
       <c r="E152">
-        <v>377.725501028408</v>
+        <v>519.055390634758</v>
       </c>
       <c r="F152">
-        <v>2126.5217401055</v>
+        <v>2017.18633983805</v>
       </c>
       <c r="G152">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -12060,13 +12060,13 @@
         <v>152</v>
       </c>
       <c r="E153">
-        <v>519.372563914062</v>
+        <v>1384.14770835935</v>
       </c>
       <c r="F153">
-        <v>2168.13242898708</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G153">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -12095,13 +12095,13 @@
         <v>153</v>
       </c>
       <c r="E154">
-        <v>1322.03925359943</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F154">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G154">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -12130,13 +12130,13 @@
         <v>154</v>
       </c>
       <c r="E155">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F155">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G155">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -12165,16 +12165,16 @@
         <v>155</v>
       </c>
       <c r="E156">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F156">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G156">
-        <v>4360.40244039475</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>86.4464835013325</v>
       </c>
       <c r="I156">
         <v>259.149400566853</v>
@@ -12200,16 +12200,16 @@
         <v>156</v>
       </c>
       <c r="E157">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F157">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G157">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>271.519513561914</v>
       </c>
       <c r="I157">
         <v>325.648702993768</v>
@@ -12235,16 +12235,16 @@
         <v>157</v>
       </c>
       <c r="E158">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F158">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G158">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H158">
-        <v>70.9926589779152</v>
+        <v>271.519513561914</v>
       </c>
       <c r="I158">
         <v>319.844255315747</v>
@@ -12270,16 +12270,16 @@
         <v>158</v>
       </c>
       <c r="E159">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F159">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G159">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H159">
-        <v>249.54784438449</v>
+        <v>271.519513561914</v>
       </c>
       <c r="I159">
         <v>299.312820553821</v>
@@ -12305,16 +12305,16 @@
         <v>159</v>
       </c>
       <c r="E160">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F160">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G160">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H160">
-        <v>249.54784438449</v>
+        <v>271.519513561914</v>
       </c>
       <c r="I160">
         <v>251.941811611294</v>
@@ -12340,16 +12340,16 @@
         <v>160</v>
       </c>
       <c r="E161">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F161">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G161">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H161">
-        <v>249.54784438449</v>
+        <v>271.519513561914</v>
       </c>
       <c r="I161">
         <v>173.365900069158</v>
@@ -12375,16 +12375,16 @@
         <v>161</v>
       </c>
       <c r="E162">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F162">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G162">
-        <v>4360.40244039476</v>
+        <v>4328.40795105674</v>
       </c>
       <c r="H162">
-        <v>249.54784438449</v>
+        <v>7.83673957666088</v>
       </c>
       <c r="I162">
         <v>67.5186785687159</v>
@@ -12410,16 +12410,16 @@
         <v>162</v>
       </c>
       <c r="E163">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F163">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G163">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H163">
-        <v>249.54784438449</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>26.1080218906029</v>
@@ -12445,13 +12445,13 @@
         <v>163</v>
       </c>
       <c r="E164">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F164">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G164">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -12480,16 +12480,16 @@
         <v>164</v>
       </c>
       <c r="E165">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F165">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G165">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H165">
-        <v>249.54784438449</v>
+        <v>88.6794985750271</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -12515,16 +12515,16 @@
         <v>165</v>
       </c>
       <c r="E166">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F166">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G166">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H166">
-        <v>249.54784438449</v>
+        <v>271.519513561914</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -12550,16 +12550,16 @@
         <v>166</v>
       </c>
       <c r="E167">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F167">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G167">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H167">
-        <v>249.54784438449</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -12585,16 +12585,16 @@
         <v>167</v>
       </c>
       <c r="E168">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F168">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G168">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H168">
-        <v>249.54784438449</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -12620,16 +12620,16 @@
         <v>168</v>
       </c>
       <c r="E169">
-        <v>1794.19612988494</v>
+        <v>1723.44337628104</v>
       </c>
       <c r="F169">
-        <v>2225.49214439593</v>
+        <v>2175.03680241329</v>
       </c>
       <c r="G169">
-        <v>4360.40244039476</v>
+        <v>4328.40795105586</v>
       </c>
       <c r="H169">
-        <v>249.54784438449</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -12673,7 +12673,7 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>4506981840.39297</v>
+        <v>4490619023.07314</v>
       </c>
     </row>
   </sheetData>
@@ -12714,7 +12714,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>57.730350475146</v>
+        <v>57.6657638181665</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12728,7 +12728,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>57.730350475146</v>
+        <v>57.6657638181665</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12742,7 +12742,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>55.2384782094041</v>
+        <v>50.5983194169922</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12756,7 +12756,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>46.3836961649546</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12770,7 +12770,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>34.4120141600063</v>
+        <v>39.5299207122585</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12784,7 +12784,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>43.6730040765869</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12798,7 +12798,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>54.8097153792648</v>
+        <v>56.3626179305585</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12812,7 +12812,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>55.7626527962589</v>
+        <v>57.0310965690061</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12826,7 +12826,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>65.6001720399029</v>
+        <v>64.2291885194484</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12840,7 +12840,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>57.730350475146</v>
+        <v>57.6680105308286</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12854,7 +12854,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>57.730350475146</v>
+        <v>57.6680068736173</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12868,7 +12868,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>57.730350475146</v>
+        <v>57.6680058970016</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12882,7 +12882,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>57.730350475146</v>
+        <v>57.6679927158347</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -12896,7 +12896,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>57.730350475146</v>
+        <v>57.6679337116911</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -12910,7 +12910,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>57.730350475146</v>
+        <v>57.6677736441167</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12924,7 +12924,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>57.730350475146</v>
+        <v>57.6673415268283</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12938,7 +12938,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>60.225999968094</v>
+        <v>57.6647699464535</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12952,7 +12952,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>57.8288979595242</v>
+        <v>57.6657638181665</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -12966,7 +12966,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>57.730350475146</v>
+        <v>57.666988532429</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12980,7 +12980,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>57.730350475146</v>
+        <v>57.7836781963149</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -12994,7 +12994,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>58.6978012911213</v>
+        <v>57.7657634786348</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -13008,7 +13008,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>60.6353333488999</v>
+        <v>57.7274331631155</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -13022,7 +13022,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>58.4015920551061</v>
+        <v>57.7530380775685</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -13036,7 +13036,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>57.7790899750138</v>
+        <v>57.6913708169156</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -13050,7 +13050,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>56.4777760487555</v>
+        <v>57.5611845141631</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -13064,7 +13064,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>56.5516826067142</v>
+        <v>57.665763818166</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -13078,7 +13078,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>56.6349502630765</v>
+        <v>57.6657638181665</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -13092,7 +13092,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>46.3836961649546</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -13106,7 +13106,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>39.2299440142812</v>
+        <v>41.1069467009397</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -13120,7 +13120,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>46.3836961649546</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13134,7 +13134,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>54.3144788067765</v>
+        <v>52.6825468238925</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -13148,7 +13148,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>56.5138771718259</v>
+        <v>56.9679957470698</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -13162,7 +13162,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>61.0223873632241</v>
+        <v>63.8907313893878</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -13176,7 +13176,7 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>60.373748818685</v>
+        <v>57.8324139414366</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -13190,7 +13190,7 @@
         <v>35</v>
       </c>
       <c r="D36">
-        <v>61.4102733057011</v>
+        <v>57.8324112747512</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -13204,7 +13204,7 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>62.6348549412404</v>
+        <v>57.8324105743261</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -13218,7 +13218,7 @@
         <v>37</v>
       </c>
       <c r="D38">
-        <v>61.2355511340109</v>
+        <v>57.8324010487906</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -13232,7 +13232,7 @@
         <v>38</v>
       </c>
       <c r="D39">
-        <v>61.5839387576985</v>
+        <v>57.8323577258772</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -13246,7 +13246,7 @@
         <v>39</v>
       </c>
       <c r="D40">
-        <v>63.4008723723971</v>
+        <v>57.8322473029479</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -13260,7 +13260,7 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>65.5587168357705</v>
+        <v>57.8319347829272</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -13274,7 +13274,7 @@
         <v>41</v>
       </c>
       <c r="D42">
-        <v>84.9992033429606</v>
+        <v>57.8300910081654</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -13288,7 +13288,7 @@
         <v>42</v>
       </c>
       <c r="D43">
-        <v>65.0227592706659</v>
+        <v>57.8307876725714</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -13302,7 +13302,7 @@
         <v>43</v>
       </c>
       <c r="D44">
-        <v>57.730350475146</v>
+        <v>57.8316586347685</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13316,7 +13316,7 @@
         <v>44</v>
       </c>
       <c r="D45">
-        <v>58.1744285139894</v>
+        <v>57.8300547370116</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -13330,7 +13330,7 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>64.9255908276506</v>
+        <v>57.8169395197622</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -13344,7 +13344,7 @@
         <v>46</v>
       </c>
       <c r="D47">
-        <v>69.7902924846539</v>
+        <v>57.7881461729461</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13358,7 +13358,7 @@
         <v>47</v>
       </c>
       <c r="D48">
-        <v>62.4537914959706</v>
+        <v>57.8075575960528</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -13372,7 +13372,7 @@
         <v>48</v>
       </c>
       <c r="D49">
-        <v>60.7815900194609</v>
+        <v>57.7628199320299</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -13386,7 +13386,7 @@
         <v>49</v>
       </c>
       <c r="D50">
-        <v>57.080147584511</v>
+        <v>57.6657638181665</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -13400,7 +13400,7 @@
         <v>50</v>
       </c>
       <c r="D51">
-        <v>56.9297267440534</v>
+        <v>57.6657638181665</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -13414,7 +13414,7 @@
         <v>51</v>
       </c>
       <c r="D52">
-        <v>55.8604971971226</v>
+        <v>57.6062539168964</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -13428,7 +13428,7 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>48.6688030903049</v>
+        <v>53.6042316537263</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -13442,7 +13442,7 @@
         <v>53</v>
       </c>
       <c r="D54">
-        <v>39.4578822980341</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -13456,7 +13456,7 @@
         <v>54</v>
       </c>
       <c r="D55">
-        <v>46.3836961649546</v>
+        <v>49.8169121377179</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13470,7 +13470,7 @@
         <v>55</v>
       </c>
       <c r="D56">
-        <v>55.9533696395097</v>
+        <v>54.3180756792379</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -13484,7 +13484,7 @@
         <v>56</v>
       </c>
       <c r="D57">
-        <v>56.0195346978839</v>
+        <v>57.1955333034082</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -13498,7 +13498,7 @@
         <v>57</v>
       </c>
       <c r="D58">
-        <v>63.6512353345463</v>
+        <v>61.4443791620418</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -13512,7 +13512,7 @@
         <v>58</v>
       </c>
       <c r="D59">
-        <v>57.730350475146</v>
+        <v>57.7869010339387</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -13526,7 +13526,7 @@
         <v>59</v>
       </c>
       <c r="D60">
-        <v>57.730350475146</v>
+        <v>57.7868974565554</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -13540,7 +13540,7 @@
         <v>60</v>
       </c>
       <c r="D61">
-        <v>57.730350475146</v>
+        <v>57.7868961484756</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -13554,7 +13554,7 @@
         <v>61</v>
       </c>
       <c r="D62">
-        <v>57.730350475146</v>
+        <v>57.7868827353703</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -13568,7 +13568,7 @@
         <v>62</v>
       </c>
       <c r="D63">
-        <v>57.730350475146</v>
+        <v>57.7868233220097</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -13582,7 +13582,7 @@
         <v>63</v>
       </c>
       <c r="D64">
-        <v>58.0592402906095</v>
+        <v>57.7866726581253</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -13596,7 +13596,7 @@
         <v>64</v>
       </c>
       <c r="D65">
-        <v>58.4577575738919</v>
+        <v>57.7862416940169</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -13610,7 +13610,7 @@
         <v>65</v>
       </c>
       <c r="D66">
-        <v>65.9701709022385</v>
+        <v>57.7836367375311</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -13624,7 +13624,7 @@
         <v>66</v>
       </c>
       <c r="D67">
-        <v>61.2223818271156</v>
+        <v>57.7846233454852</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>67</v>
       </c>
       <c r="D68">
-        <v>57.730350475146</v>
+        <v>57.7858619186675</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -13652,7 +13652,7 @@
         <v>68</v>
       </c>
       <c r="D69">
-        <v>60.3433524522089</v>
+        <v>57.7836992418335</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -13666,7 +13666,7 @@
         <v>69</v>
       </c>
       <c r="D70">
-        <v>74.3074316584933</v>
+        <v>84.876331166268</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -13680,7 +13680,7 @@
         <v>70</v>
       </c>
       <c r="D71">
-        <v>84.9992033429606</v>
+        <v>57.7259785516567</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -13694,7 +13694,7 @@
         <v>71</v>
       </c>
       <c r="D72">
-        <v>69.3991145005186</v>
+        <v>57.7520941461565</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -13708,7 +13708,7 @@
         <v>72</v>
       </c>
       <c r="D73">
-        <v>65.6925807262193</v>
+        <v>57.6905854003599</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -13722,7 +13722,7 @@
         <v>73</v>
       </c>
       <c r="D74">
-        <v>57.730350475146</v>
+        <v>57.5612042853713</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -13736,7 +13736,7 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>56.1829760136902</v>
+        <v>57.6657638181665</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -13750,7 +13750,7 @@
         <v>75</v>
       </c>
       <c r="D76">
-        <v>52.7611142968589</v>
+        <v>57.6657638181665</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -13764,7 +13764,7 @@
         <v>76</v>
       </c>
       <c r="D77">
-        <v>47.8313849868124</v>
+        <v>51.9186852282656</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -13778,7 +13778,7 @@
         <v>77</v>
       </c>
       <c r="D78">
-        <v>38.0674219571954</v>
+        <v>41.8860637338519</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -13792,7 +13792,7 @@
         <v>78</v>
       </c>
       <c r="D79">
-        <v>46.3836961649546</v>
+        <v>47.8526393647618</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -13806,7 +13806,7 @@
         <v>79</v>
       </c>
       <c r="D80">
-        <v>57.0568950720905</v>
+        <v>57.2664135615545</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -13820,7 +13820,7 @@
         <v>80</v>
       </c>
       <c r="D81">
-        <v>57.2227176785209</v>
+        <v>62.9066074808306</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -13834,7 +13834,7 @@
         <v>81</v>
       </c>
       <c r="D82">
-        <v>60.4669229146669</v>
+        <v>69.0943881192954</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -13848,7 +13848,7 @@
         <v>82</v>
       </c>
       <c r="D83">
-        <v>64.4029937112703</v>
+        <v>69.0943868048229</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -13862,7 +13862,7 @@
         <v>83</v>
       </c>
       <c r="D84">
-        <v>66.5051917474026</v>
+        <v>69.094382982645</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -13876,7 +13876,7 @@
         <v>84</v>
       </c>
       <c r="D85">
-        <v>69.4024670001949</v>
+        <v>69.0943819545823</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -13890,7 +13890,7 @@
         <v>85</v>
       </c>
       <c r="D86">
-        <v>65.4477289561797</v>
+        <v>69.0943682247169</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -13904,7 +13904,7 @@
         <v>86</v>
       </c>
       <c r="D87">
-        <v>64.1544633486481</v>
+        <v>69.0943047842616</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -13918,7 +13918,7 @@
         <v>87</v>
       </c>
       <c r="D88">
-        <v>65.1931797346508</v>
+        <v>69.0941415998358</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -13932,7 +13932,7 @@
         <v>88</v>
       </c>
       <c r="D89">
-        <v>65.8770526469522</v>
+        <v>69.0936861718954</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -13946,7 +13946,7 @@
         <v>89</v>
       </c>
       <c r="D90">
-        <v>84.9992033429606</v>
+        <v>69.0908697881777</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -13960,7 +13960,7 @@
         <v>90</v>
       </c>
       <c r="D91">
-        <v>64.1641677416706</v>
+        <v>69.0919337709219</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -13974,7 +13974,7 @@
         <v>91</v>
       </c>
       <c r="D92">
-        <v>57.730350475146</v>
+        <v>69.0932688540025</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -13988,7 +13988,7 @@
         <v>92</v>
       </c>
       <c r="D93">
-        <v>57.730350475146</v>
+        <v>69.0909437510103</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -14002,7 +14002,7 @@
         <v>93</v>
       </c>
       <c r="D94">
-        <v>58.2534850091229</v>
+        <v>69.0711071985674</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -14016,7 +14016,7 @@
         <v>94</v>
       </c>
       <c r="D95">
-        <v>60.3741891084456</v>
+        <v>57.8397402673</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -14030,7 +14030,7 @@
         <v>95</v>
       </c>
       <c r="D96">
-        <v>58.2808866326515</v>
+        <v>57.869095229052</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -14044,7 +14044,7 @@
         <v>96</v>
       </c>
       <c r="D97">
-        <v>57.730350475146</v>
+        <v>57.8044837411864</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -14058,7 +14058,7 @@
         <v>97</v>
       </c>
       <c r="D98">
-        <v>56.6443504464454</v>
+        <v>57.6657638181665</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -14072,7 +14072,7 @@
         <v>98</v>
       </c>
       <c r="D99">
-        <v>57.2127311595707</v>
+        <v>56.0970350561589</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -14086,7 +14086,7 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <v>57.9167030312145</v>
+        <v>54.1828513631632</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -14100,7 +14100,7 @@
         <v>100</v>
       </c>
       <c r="D101">
-        <v>49.4839753292169</v>
+        <v>51.157893618701</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -14114,7 +14114,7 @@
         <v>101</v>
       </c>
       <c r="D102">
-        <v>40.6802745601389</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -14128,7 +14128,7 @@
         <v>102</v>
       </c>
       <c r="D103">
-        <v>46.3836961649546</v>
+        <v>43.393732805747</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -14142,7 +14142,7 @@
         <v>103</v>
       </c>
       <c r="D104">
-        <v>55.4093290539947</v>
+        <v>46.0542979184628</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -14156,7 +14156,7 @@
         <v>104</v>
       </c>
       <c r="D105">
-        <v>55.0447723127934</v>
+        <v>46.3014286390692</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -14170,7 +14170,7 @@
         <v>105</v>
       </c>
       <c r="D106">
-        <v>54.4118969571048</v>
+        <v>46.5989272371833</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -14184,7 +14184,7 @@
         <v>106</v>
       </c>
       <c r="D107">
-        <v>52.1845762632957</v>
+        <v>46.5989259484496</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -14198,7 +14198,7 @@
         <v>107</v>
       </c>
       <c r="D108">
-        <v>51.209557496997</v>
+        <v>46.5989222381671</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -14212,7 +14212,7 @@
         <v>108</v>
       </c>
       <c r="D109">
-        <v>49.7200949701101</v>
+        <v>46.598921406333</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -14226,7 +14226,7 @@
         <v>109</v>
       </c>
       <c r="D110">
-        <v>52.0832650563414</v>
+        <v>46.5989080807725</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -14240,7 +14240,7 @@
         <v>110</v>
       </c>
       <c r="D111">
-        <v>53.1932120450001</v>
+        <v>46.5988491046158</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -14254,7 +14254,7 @@
         <v>111</v>
       </c>
       <c r="D112">
-        <v>52.917019727983</v>
+        <v>46.5986883223687</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -14268,7 +14268,7 @@
         <v>112</v>
       </c>
       <c r="D113">
-        <v>52.9680332216067</v>
+        <v>46.5982322447485</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -14282,7 +14282,7 @@
         <v>113</v>
       </c>
       <c r="D114">
-        <v>46.3836961649546</v>
+        <v>46.5955482928393</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -14296,7 +14296,7 @@
         <v>114</v>
       </c>
       <c r="D115">
-        <v>54.3127945851488</v>
+        <v>46.5965584326183</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -14310,7 +14310,7 @@
         <v>115</v>
       </c>
       <c r="D116">
-        <v>57.1155956395145</v>
+        <v>57.7858014343128</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -14324,7 +14324,7 @@
         <v>116</v>
       </c>
       <c r="D117">
-        <v>57.3707515882189</v>
+        <v>57.7835763774635</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -14338,7 +14338,7 @@
         <v>117</v>
       </c>
       <c r="D118">
-        <v>59.0139779060765</v>
+        <v>64.9821307044014</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -14352,7 +14352,7 @@
         <v>118</v>
       </c>
       <c r="D119">
-        <v>59.9286858637162</v>
+        <v>57.7255818369112</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -14366,7 +14366,7 @@
         <v>119</v>
       </c>
       <c r="D120">
-        <v>58.0521894579563</v>
+        <v>57.7085186228492</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -14380,7 +14380,7 @@
         <v>120</v>
       </c>
       <c r="D121">
-        <v>57.3984158654543</v>
+        <v>57.6504612756116</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -14394,7 +14394,7 @@
         <v>121</v>
       </c>
       <c r="D122">
-        <v>56.2779905326334</v>
+        <v>57.5317157919794</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -14408,7 +14408,7 @@
         <v>122</v>
       </c>
       <c r="D123">
-        <v>56.4298505393066</v>
+        <v>57.6568223445755</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -14422,7 +14422,7 @@
         <v>123</v>
       </c>
       <c r="D124">
-        <v>56.5929817526577</v>
+        <v>57.7021550346503</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -14436,7 +14436,7 @@
         <v>124</v>
       </c>
       <c r="D125">
-        <v>46.3836961649546</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -14450,7 +14450,7 @@
         <v>125</v>
       </c>
       <c r="D126">
-        <v>34.3760085691467</v>
+        <v>41.643002949683</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -14464,7 +14464,7 @@
         <v>126</v>
       </c>
       <c r="D127">
-        <v>42.927197078958</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -14478,7 +14478,7 @@
         <v>127</v>
       </c>
       <c r="D128">
-        <v>46.3836961649546</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -14492,7 +14492,7 @@
         <v>128</v>
       </c>
       <c r="D129">
-        <v>46.3836961649546</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -14506,7 +14506,7 @@
         <v>129</v>
       </c>
       <c r="D130">
-        <v>46.3836961649546</v>
+        <v>57.7433339826968</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -14520,7 +14520,7 @@
         <v>130</v>
       </c>
       <c r="D131">
-        <v>56.7552954215847</v>
+        <v>57.7433296342185</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -14534,7 +14534,7 @@
         <v>131</v>
       </c>
       <c r="D132">
-        <v>56.777730381394</v>
+        <v>57.7433184857228</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -14548,7 +14548,7 @@
         <v>132</v>
       </c>
       <c r="D133">
-        <v>56.7761519136581</v>
+        <v>57.7433170469199</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -14562,7 +14562,7 @@
         <v>133</v>
       </c>
       <c r="D134">
-        <v>56.8150423340271</v>
+        <v>57.7432769672415</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -14576,7 +14576,7 @@
         <v>134</v>
       </c>
       <c r="D135">
-        <v>56.9473890742079</v>
+        <v>57.7430987654859</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -14590,7 +14590,7 @@
         <v>135</v>
       </c>
       <c r="D136">
-        <v>57.1666267030906</v>
+        <v>57.7426234798428</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -14604,7 +14604,7 @@
         <v>136</v>
       </c>
       <c r="D137">
-        <v>57.4465488465695</v>
+        <v>57.7412890563735</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -14618,7 +14618,7 @@
         <v>137</v>
       </c>
       <c r="D138">
-        <v>59.2787709948933</v>
+        <v>57.7333193084288</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -14632,7 +14632,7 @@
         <v>138</v>
       </c>
       <c r="D139">
-        <v>57.4862199590794</v>
+        <v>57.7363961467002</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -14646,7 +14646,7 @@
         <v>139</v>
       </c>
       <c r="D140">
-        <v>56.7299470432216</v>
+        <v>57.7401701924689</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -14660,7 +14660,7 @@
         <v>140</v>
       </c>
       <c r="D141">
-        <v>56.8976598653288</v>
+        <v>57.7772974076854</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -14674,7 +14674,7 @@
         <v>141</v>
       </c>
       <c r="D142">
-        <v>57.730350475146</v>
+        <v>57.7263919385046</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -14688,7 +14688,7 @@
         <v>142</v>
       </c>
       <c r="D143">
-        <v>58.6468974960167</v>
+        <v>57.6657638181665</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -14702,7 +14702,7 @@
         <v>143</v>
       </c>
       <c r="D144">
-        <v>57.730350475146</v>
+        <v>57.6657638181665</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -14716,7 +14716,7 @@
         <v>144</v>
       </c>
       <c r="D145">
-        <v>56.7376938272911</v>
+        <v>57.4109259027918</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -14730,7 +14730,7 @@
         <v>145</v>
       </c>
       <c r="D146">
-        <v>55.6942779337126</v>
+        <v>56.8701269143134</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -14744,7 +14744,7 @@
         <v>146</v>
       </c>
       <c r="D147">
-        <v>56.0580156145591</v>
+        <v>57.4063537123253</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -14758,7 +14758,7 @@
         <v>147</v>
       </c>
       <c r="D148">
-        <v>55.7743685068575</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -14772,7 +14772,7 @@
         <v>148</v>
       </c>
       <c r="D149">
-        <v>37.6767049434358</v>
+        <v>46.2419205764631</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -14800,7 +14800,7 @@
         <v>150</v>
       </c>
       <c r="D151">
-        <v>32.6750070607985</v>
+        <v>36.9127984278279</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -14814,7 +14814,7 @@
         <v>151</v>
       </c>
       <c r="D152">
-        <v>53.6964025958521</v>
+        <v>46.241920576463</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -14828,7 +14828,7 @@
         <v>152</v>
       </c>
       <c r="D153">
-        <v>57.6107887411764</v>
+        <v>75.4176300934763</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -14842,7 +14842,7 @@
         <v>153</v>
       </c>
       <c r="D154">
-        <v>64.8369668401777</v>
+        <v>84.8763109396299</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -14856,7 +14856,7 @@
         <v>154</v>
       </c>
       <c r="D155">
-        <v>70.6888726503457</v>
+        <v>84.8763162580146</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -14870,7 +14870,7 @@
         <v>155</v>
       </c>
       <c r="D156">
-        <v>75.9226059391835</v>
+        <v>84.876331166268</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -14884,7 +14884,7 @@
         <v>156</v>
       </c>
       <c r="D157">
-        <v>76.6055358651838</v>
+        <v>84.8763347292407</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -14898,7 +14898,7 @@
         <v>157</v>
       </c>
       <c r="D158">
-        <v>84.9992033429606</v>
+        <v>84.8763884281671</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -14912,7 +14912,7 @@
         <v>158</v>
       </c>
       <c r="D159">
-        <v>114.578371640485</v>
+        <v>84.8766368779137</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -14926,7 +14926,7 @@
         <v>159</v>
       </c>
       <c r="D160">
-        <v>158.798672054624</v>
+        <v>84.8772621008652</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -14940,7 +14940,7 @@
         <v>160</v>
       </c>
       <c r="D161">
-        <v>215.043516819768</v>
+        <v>84.8790047917443</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="D162">
-        <v>577.535952648895</v>
+        <v>84.876331166268</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -14968,7 +14968,7 @@
         <v>162</v>
       </c>
       <c r="D163">
-        <v>206.74700729233</v>
+        <v>84.87204152297</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -14982,7 +14982,7 @@
         <v>163</v>
       </c>
       <c r="D164">
-        <v>62.0150904843421</v>
+        <v>84.8735112971523</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -14996,7 +14996,7 @@
         <v>164</v>
       </c>
       <c r="D165">
-        <v>85.3812870850224</v>
+        <v>84.876331166268</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -15010,7 +15010,7 @@
         <v>165</v>
       </c>
       <c r="D166">
-        <v>206.814510296287</v>
+        <v>1408.16003130255</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -15024,7 +15024,7 @@
         <v>166</v>
       </c>
       <c r="D167">
-        <v>304.257657499096</v>
+        <v>84.7133486295987</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -15038,7 +15038,7 @@
         <v>167</v>
       </c>
       <c r="D168">
-        <v>168.178576376535</v>
+        <v>84.6647681753268</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -15052,7 +15052,7 @@
         <v>168</v>
       </c>
       <c r="D169">
-        <v>135.94415294944</v>
+        <v>84.5080886102078</v>
       </c>
     </row>
   </sheetData>
